--- a/app/data/src/projectlist.xlsx
+++ b/app/data/src/projectlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1300" yWindow="960" windowWidth="32200" windowHeight="19160" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="projectlist.csv" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="301">
   <si>
     <t>Lucky Peach</t>
   </si>
@@ -671,9 +671,6 @@
     <t>address</t>
   </si>
   <si>
-    <t>Project Description goes here</t>
-  </si>
-  <si>
     <t>point</t>
   </si>
   <si>
@@ -765,6 +762,221 @@
   </si>
   <si>
     <t>55 WEST 125TH STREET, NEW YORK, NY, 10027</t>
+  </si>
+  <si>
+    <t>Lucky Peach is a food and lifestyle journal that explores a monthly theme through essays, art, photography, recipes, and original video content.</t>
+  </si>
+  <si>
+    <t>Civil Eats is a daily news source for critical thought about the American food system. We publish stories that shift the conversation around sustainable agriculture in an effort to build economically and socially just communities.</t>
+  </si>
+  <si>
+    <t>Public Lab is a community where you can learn how to investigate environmental concerns. Using inexpensive DIY techniques, we seek to change how people see the world in environmental, social, and political terms.</t>
+  </si>
+  <si>
+    <t>Project Noah is an award-winning software platform designed to help people reconnect with the natural world. Launched out of NYU’s Interactive Telecommunications Program in early 2010, the project began as an experiment to mobilize citizen scientists and build a digital butterfly net for the 21st century. Backed by National Geographic, Project Noah is mobilizing a new generation of nature explorers and helping people from around the world appreciate their local wildlife. Our community is harnessing the power and popularity of new mobile technologies to collect important ecological data and help preserve global biodiversity.</t>
+  </si>
+  <si>
+    <t>The Brooklyn Food Coalition helps people with strategies, resources and practical solutions for building a healthy, resilient and sustainable life.</t>
+  </si>
+  <si>
+    <t>Citymeals on Wheels raises private funds to ensure no homebound elderly New Yorker will ever go a day without food or human company. Last year, our family of contributors helped us bring 2 million nutritious meals to more than 18,000 frail aged in every borough of New York City. In addition, nearly 19,000 volunteers collectively spent 67,397 hours visiting and delivering meals to our neighbors. Citymeals funds 31 community-based agencies that bring weekend, holiday and emergency meals to homebound elderly New Yorkers who can no longer shop or cook for themselves. In addition, our Mobile Food Pantry program delivers weekly bags of grocery staples to the most at-risk elderly and our Fresh Produce program enables us to supplement regular meal deliveries with fresh fruit and vegetables from local farmers.</t>
+  </si>
+  <si>
+    <t>Food Bank For New York City has been the city’s major hunger-relief organization working to end hunger throughout the five boroughs for more than 30 years. Nearly one in five New Yorkers relies on Food Bank for food and other resources. Food Bank takes a strategic, multifaceted approach that provides meals and builds capacity in the neediest communities, while raising awareness and engagement among all New Yorkers. Through its network of more than 1,000 charities and schools citywide, Food Bank provides food for approximately 64 million free meals per year for New Yorkers in need. Food Bank For New York City’s income support services, including food stamps (also known as SNAP) and free tax assistance for the working poor, put more than $150 million each year into the pockets of New Yorkers, helping them to afford food and achieve greater dignity and independence. In addition, Food Bank’s nutrition education programs and services empower more than 275,000 children, teens and adults to sustain a healthy diet on a low budget. Working toward long-term solutions to food poverty, Food Bank develops policy and conducts research to inform community and government efforts.</t>
+  </si>
+  <si>
+    <t>Food Systems Network NYC is a membership based organization designed to foster communication and cultivate community amongst various stake holders and professionals working across the food system. Members gather monthly for Open Networking meetings to encourage collaboration; share information; discuss public policy; and promote opportunities for individuals to partner on specific projects.</t>
+  </si>
+  <si>
+    <t>Just Food empowers and supports community leaders to advocate for and increase access to healthy, locally-grown food, especially in underserved NYC neighborhoods. We provide training and resources to community members so they can: Launch Projects like farmers’ markets and community supported agriculture (CSA) groups. Educate their neighbors in fundamental cooking and urban farming skills. Advocate to make their corner of NYC a healthier place to live and eat. Each year, nearly a quarter million New Yorkers access fresh food in their neighborhood through Just Food’s network of community food projects.</t>
+  </si>
+  <si>
+    <t>Added Value Farms is a youth-led urban farming and compost operation in Red Hook, Brooklyn. We create opportunities for teens to expand their knowledge base, develop their leadership skills, and positively engage with each other, their community, and the environment. Since our founding in 2001, we have mentored scores of youth, provided hundreds of elementary students with educational programs, and worked with thousands of volunteers to farm and compost in the city. Together we strive to transform vacant lands into vibrant urban farms, improve access to healthy, affordable produce, and nurture a new generation of green leaders.</t>
+  </si>
+  <si>
+    <t>BK ROT is a community-supported composting operation that generates year-round environmental jobs for local youth in Bushwick, Brooklyn. BK ROT youth earn stipends to collect organic waste from residents small businesses and community institutions by bike, and process the material at our two compost sites. Our primary mission is to work at the intersection of the social and environmental injustices impacting youth of color from the neighborhood and the health of our community and larger ecosystem. We believe the fight against the systems that generate environmental destruction and social inequality must be community-led, and must empower those most affected by these crises. We envision a city where the environmental progress made at the policy levels are inclusive of those most excluded from the current opportunities for meaningful environmental jobs. We see great potential for grassroots efforts at the neighborhood level to experiment with solutions climate change while creating genuine space and opportunity for youth to drive these efforts.</t>
+  </si>
+  <si>
+    <t>FoodFight’s mission is to revolutionize the way we eat and think about food. Using schools as a platform, FoodFight arms teachers, students, parents and school staff with the tools and knowledge they need to make healthier choices and become role models and agents of change for their families and communities.</t>
+  </si>
+  <si>
+    <t>City Harvest pioneered food rescue in 1982 and, this year, will collect 55 million pounds of excess food to help feed the nearly 1.4 million New Yorkers struggling to put meals on their tables. Through relationships with farms, grocers, restaurants, and manufacturers, City Harvest collects nutritious food that would otherwise go to waste and delivers it free of charge to 500 soup kitchens, food pantries and other community food programs across the five boroughs. In addition to helping meet the immediate need for food, City Harvest developed long-term Healthy Neighborhoods programs which partner with low-income communities to increase access to fresh produce and help residents shop for and cook nutritious, budget-conscious meals.</t>
+  </si>
+  <si>
+    <t>NESAWG, a project of the Tides Center, is a 12-state network of over 500 participating organizations. Together, we unite farm and food system practitioners and allies to build a sustainable, just and economically vibrant region.
+Our region includes Connecticut, Delaware, Massachusetts, Maine, Maryland, New Hampshire, New Jersey, New York, Pennsylvania, Rhode Island, Vermont, West Virginia, and Washington D.C.</t>
+  </si>
+  <si>
+    <t>NOFA-NY is an organization of farmers, gardeners, and consumers working together to create a sustainable regional food system that's ecologically sound and economically viable. Through demonstration and education, we promote land stewardship, organic food production, and local marketing. We bring consumer and farmer together to make high quality food available to all people.</t>
+  </si>
+  <si>
+    <t>GrowNYC is the sustainability resource for New Yorkers: providing free tools and services anyone can use in order to improve our City and environment.
+Our mission is to improve New York City's quality of life through environmental programs that transform communities block by block and empower all New Yorkers to secure a clean and healthy environment for future generations.
+GrowNYC was originally created in 1970 as the Council on the Environment of New York City (CENYC). Born out of the spirit of the first Earth Day, CENYC was initially a policy-based organization, writing comprehensive reports about quality of life issues like air quality, traffic, and noise. Over the past 45 years we've become a service organization: whether it's operating the world famous Union Square Greenmarket, building a new community garden, teaching young people about the environment, or improving recycling awareness, if you're a New Yorker, GrowNYC is working near you!</t>
+  </si>
+  <si>
+    <t>The Sustainable Restaurant Corps (SRC) is a non-profit that helps restaurants in the 5 boroughs of NYC reduce their impact on the environment.
+We help restaurants lower their utility bills, reduce waste, serve more sustainable food, and more.
+We are developing a rating system that will help you find green restaurants on the web sites you visit most to decide where to eat.</t>
+  </si>
+  <si>
+    <t>Glynwood is an agricultural nonprofit organization based in Cold Spring, New York. We work toward our mission of ensuring that the Hudson Valley is a region defined by food through core programming we develop and implement to further enhance the viability of sustainable farming.</t>
+  </si>
+  <si>
+    <t>Founded in 2007, Food Empowerment Project (F.E.P.) seeks to create a more just and sustainable world by recognizing the power of one’s food choices. We encourage healthy food choices that reflect a more compassionate society by spotlighting the abuse of animals on farms, the depletion of natural resources, unfair working conditions for produce workers, and the unavailability of healthy foods in communities of color and low-income areas. F.E.P. is a national nonprofit located in Northern California. Our mission is to encourage people to make the most ethical choices when eating, which in the end is healthier for them and the planet and can help to improve the lives of others locally and globally. We are compelled to learn why eating healthy food in U.S. cities seems to be a privilege and not a right.</t>
+  </si>
+  <si>
+    <t>OUR MISSION IS TO EMPOWER KIDS TO MAKE HEALTHY FOOD CHOICES FOR LIFE.</t>
+  </si>
+  <si>
+    <t>Green Bronx Machine builds healthy, equitable, and resilient communities through inspired education, local food systems, and 21st Century workforce development. Dedicated to cultivating minds and harvesting hope, our school-based model using urban agriculture aligned to key school performance indicators grows healthy students and healthy schools to transform communities that are fragmented and marginalized into neighborhoods that are inclusive and thriving. We believe that healthy students help drive healthy schools, and that healthy schools are at the heart of healthy communities. We envision growing healthy communities where those who are “apart from” will become “part of” new solutions that benefit 100% of society; a world where people do not have to leave their community to live, learn and earn in a better one. Together, we can grow something greater! Ready, set, GROW!</t>
+  </si>
+  <si>
+    <t>The Creative Kitchen teaches children about food and how to cook in a fun, safe, and educational manner. The multi-faceted company includes a variety of media outlets which promote the curriculum. Targeting children ages two and older, the company focuses on teaching, writing, producing creative content, and consulting to present educational content through food-related activities. The founder, Cricket Azima, inspires children to express themselves creatively through cooking and the arts. While writing her master’s thesis, entitled “Children’s Cooking Classes: An Alternative Method to Enhance Learning,” Cricket learned that children retain more educational content of a lesson when using all of their senses and, of course, when having fun in the meanwhile!</t>
+  </si>
+  <si>
+    <t>We prepare school systems and their communities to educate for a sustainable future by inspiring educators and engaging students through meaningful content and learner-centered instruction.</t>
+  </si>
+  <si>
+    <t>With Food in Mind develops art-based approaches to food education and food injustice, with a focus on childhood obesity and nutrition disparities in low-income neighborhoods and communities of color. We're cultivating future generations of art enthusiasts and healthier eaters, too. Our programs inspire children and youth to look at art in new ways, make healthful food choices, and think across disciplines.</t>
+  </si>
+  <si>
+    <t>The Kids Food Festival is a weekend event focusing on educating families about making balanced food choices through 
+fun and flavorful activities.
+The exciting and engaging programming of the Kids Food Festival helps to establish wholesome lifelong habits, while working to avert childhood obesity.</t>
+  </si>
+  <si>
+    <t>Stone Barns Center for Food and Agriculture is a nonprofit organization on a mission to create a healthy and sustainable food system.
+We are working to develop a culture of eating based on what farms need to grow to build healthy soil and a resilient ecosystem. In our quest to transform the way America eats and farms, we convene change makers, train farmers, educate food citizens and develop agroecological farming practices. We:
+Experiment with and improve sustainable farming practices.
+Train beginning farmers in resilient, regenerative farming techniques.
+Help children discover the sources of their food while preparing them to steward the land that provides it.
+Increase public awareness of healthy, seasonal and sustainable food.
+Our food system is on an unsustainable course: resource depletion, environmental degradation, epidemics of disease and obesity, food that doesn't represent the true costs of its production. We are working to change the way America eats and farms by inspiring people, engaging leaders and the public, developing practices in resilient agriculture and driving choices that benefit human health and the environment. Join us!</t>
+  </si>
+  <si>
+    <t>The mission of Veggiecation is to promote and educate communities on the health benefits of vegetables and how to prepare them in simple, unique, affordable, and most importantly, delicious ways.</t>
+  </si>
+  <si>
+    <t>Natural Gourmet Institute provides exceptional, innovative and interdisciplinary health-supportive culinary education. Rooted in Dr. Annemarie Colbin’s seven criteria for food selection, our curriculum empowers chefs, individuals and communities to be leaders in the conversation about food and wellbeing through the preparation of healthful and delicious meals. By making mindful and deliberate decisions about the ingredients we source, we are able to advocate and utilize a sustainable food system that respects the earth’s natural resources and the people who make each meal possible.</t>
+  </si>
+  <si>
+    <t>Our mission is to play a crucial role in improving health and happiness, and through that process, create a ripple effect that transforms the world. The Institute for Integrative Nutrition (IIN) was founded in 1992 by Joshua Rosenthal. Once a small classroom of passionate students in New York City, it is now the largest nutrition school in the world. Through its innovative online learning platform, Integrative Nutrition has provided a global learning experience for ~100,000 students and graduates in over 100 countries worldwide.</t>
+  </si>
+  <si>
+    <t>The Museum of Food and Drink (MOFAD) is on a journey to create the world's first large-scale museum with exhibits you can eat.
+MOFAD seeks to advance public understanding of the culture, history, science, production, and commerce of food and drink. The museum currently operates MOFAD Lab, an exhibit design studio and gallery space in Brooklyn, NY, where Flavor: Making It and Faking It is now on show.
+Supported by a diverse community of donors, volunteers, and partners, MOFAD is working toward a global center for learning with multiple exhibition galleries, program and workshop space, a garden, café, and more. Join the effort by donating, joining, or volunteering.</t>
+  </si>
+  <si>
+    <t>The North American Food Systems Network (NAFSN) is a new organization founded in 2015 offering leadership and technical skills training, networking, and other professional development opportunities for the burgeoning group of individuals supporting the development of equitable and sustainable local and regional food systems.
+Members range from farm educators and community nutritionists to activists and scholars. The mission of this community of practice is to coalesce the current disparate group of practitioners, and build individual and collective capacity to solve pressing food and agriculture issues on the continent. Presently there are many innovative solutions and pioneering organizations working to address and understand the complex issues of food systems−for example, working to eliminate causes of food deserts, obesity, hunger, and other food-related human health issues as well as working to increase sustainable farming practices, ecological and economic health of farms and rural areas, and creating viable markets.</t>
+  </si>
+  <si>
+    <t>Food Empowerment Project seeks to create a more just and sustainable world by recognizing the power of one’s food choices. We encourage healthy food choices that reflect a more compassionate society by spotlighting the abuse of animals on farms, the depletion of natural resources, unfair working conditions for produce workers, and the unavailability of healthy foods in low-income areas.
+By making informed choices, we can prevent injustices against animals, people, and the environment. We also work to discourage negligent corporations from pushing unhealthy foods into low-income areas and empower people to make healthier choices by growing their own fruits and vegetables. In all of our work, Food Empowerment Project seeks specifically to empower those with the fewest resources.
+Food Empowerment Project is a vegan food justice organization and a registered non-profit 501(c)(3) and was founded in 2006 by lauren Ornelas. Learn more about the organization’s leadership team.</t>
+  </si>
+  <si>
+    <t>Food Book Fair launched in 2012 as the first event of its kind: part festival, part conference, set at the intersection of food culture and food systems.
+Dubbed the "Coachella of writing about eating," "a voracious reader's dream," and, simply, "food geek heaven," our event remains ceaselessly inspired by food media — books, of course, but also print and online magazines, television, film and radio.
+Our dynamic programs include panel discussions, a pop-up bookstore, #Foodieodicals, cooking demos, conceptual literary dinners, film screenings and much more.</t>
+  </si>
+  <si>
+    <t>Edgemere Farm is a half-acre urban farm located in the beachside community of Far Rockaway, Queens. In 2013 its founders transformed an underutilized lot on Beach 45th Street into a lush and productive space, where a wide variety of fresh and organically grown vegetables, flowers and herbs are now cultivated. Bees, chickens and many varieties of pollinators use the farm as home base as well. 
+The farm is a self-sustaining enterprise and acts as a zero-profit business. Profits are reinvested into the farm for future projects and operation costs. In 2015 we co-founded the East Rockaway Growing Coalition, in order to further our mission of increasing capacity for the production of food on the peninsula. To that end, we strive to be a place where we are teaching and learning about growing plants with neighbors and friends of all ages and backgrounds.</t>
+  </si>
+  <si>
+    <t>Sure We Can is a non-profit recycling center, community space and sustainability hub in Brooklyn where canners, students and neighbors come together through recycling, composting, gardening, art and other initiatives. Our mission is to support the local community, particularly the most vulnerable residents, and promote social inclusion, environmental awareness and economic empowerment.
+For over 9 years, Sure We Can has supported canners, who are people that make a living collecting cans and bottles from the streets and redeeming them for 5 cents each. Today, it has evolved into a community center that promotes a sustainable urban culture and facilitates a circular economy.</t>
+  </si>
+  <si>
+    <t>Farm Sanctuary was founded in 1986 to combat the abuses of factory farming and encourage a new awareness and understanding about farm animals. Today, Farm Sanctuary is the nation’s largest and most effective farm animal rescue and protection organization. We have rescued thousands of animals and cared for them at our sanctuaries in Watkins Glen, New York; Northern California (Orland); and the Los Angeles area. At Farm Sanctuary, these animals are our friends, not our food. We educate millions of people about their plight and the effects of factory farming on our health and environment. We advocate for laws and policies to prevent suffering and promote compassion, and we reach out to legislators and businesses to bring about institutional reforms.
+Farm Sanctuary is committed to ending cruelty to farm animals and promoting compassionate vegan living through rescue, education, and advocacy efforts. Please join us. A compassionate world begins with you!</t>
+  </si>
+  <si>
+    <t>Brooklyn Grange is the leading rooftop farming and intensive green roofing business in the US. We operate the world’s largest rooftop soil farms, located on two roofs in New York City, and grow over 50,000 lbs of organically-cultivated produce per year. In addition to growing and distributing fresh local vegetables and herbs, Brooklyn Grange also hosts events and educational programming, provides urban farming and green roof consulting and installation services to clients worldwide, and partners with numerous non-profit organizations throughout New York to promote healthy and strong local communities.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Eat Well Guide® is a curated directory of over 25,000 hand-picked restaurants, farms, markets and other sources of local, sustainable food throughout the US.
+These days, it's hard to trust that the food you're eating was produced in a safe, humane and sustainable manner. We built the Eat Well Guide to make it easier to find good food and to support local farmers, restaurateurs and others who are doing their best by their customers, their workers and the planet. We personally vet every business that goes into the Guide, and we never charge or accept money in exchange for inclusion. 
+The Guide's thousands of listings include restaurants, farms, farmers' markets, stores and more. Search by location and/or category, or check out our city guides to find tailored listings for restaurants and other sustainable vendors in cities across the US.
+</t>
+  </si>
+  <si>
+    <t>A First-of-its-Kind National Destination and Marketplace - Agrilicious is the go-to source for all things local food. Its mission is to expand the family-farmer connection, while celebrating the food experiences and the benefits this brings about.</t>
+  </si>
+  <si>
+    <t>One mini-grant went to Laura Sansone, who has used it to make her Micro Textile Lab — an invention which she is now bringing to Greenmarkets around the city. Laura uses the Micro Textile Lab to teach people natural dyeing, spinning and weaving. You can follow Laura’s progress in the accompanying blog.</t>
+  </si>
+  <si>
+    <t>LocalHarvest connects people looking for good food with the farmers who produce it.
+Buying local is about enjoying real food, grown yourself or purchased from people you trust. It's about developing strong local economies and producing food on a human scale. It's about eating seasonally, practicing the art of cooking, and sitting down to enjoy meals together. It requires ample local and regional producers, processors, and distributors. As we see it, the goal of the local food movement is to create thriving community-based food systems that will make high quality local food available to everyone.
+To that end, LocalHarvest makes millions of introductions a year. Hear what some of our members have to say about us.
+We make it easy to find good food.</t>
+  </si>
+  <si>
+    <t>We have a vision: it’s of a world where good food is the default—not the exception. 
+That’s why we set out on our mission — to build a more informed community around good food. 
+That’s why we’re here: to connect a community of good eaters. Together, we can spread our knowledge about good eating and make the information more accessible to all. It starts by empowering the community to ask what’s on our plates. When we do that, we are all able to make healthier food choices—not only for ourselves, but for others. 
+When we do this, in unison, that’s when we’ve made a food stand.</t>
+  </si>
+  <si>
+    <t>Join Chefs Collaborative, expand your network, and connect with hundreds of like-minded chefs and food professionals across the country who care about sourcing, cooking, and serving better food and are doing their part to create a better food system. Donate or become a Member today!
+MISSION: Chefs Collaborative is a national nonprofit network with a mission to inspire, educate, and celebrate chefs and food professionals building a better food system.</t>
+  </si>
+  <si>
+    <t>Comfood is an email discussion list on all aspects of community food systems and beyond.</t>
+  </si>
+  <si>
+    <t>Sea to Table partners with local fishermen from small-scale sustainable wild fisheries, finding better markets for their catch. Delivering overnight, direct from the source, reducing time and cost, allowing diners to know the ’who, how and where’ of the impossibly fresh fish they enjoy, creating a direct connection from fisherman to chef. #eatbetterfish
+In 2012 we were proud to become a Certified B Corp.</t>
+  </si>
+  <si>
+    <t>We use homegrown non-gmo popcorn and season with all natural, gluten free, and vegan ingredients. There is no butter or cheese! BjornQorn's special flavor comes from nutritional yeast, which is a high protein and high B-vitamin seasoning that is popular in vegan cuisine, but is especially great on popcorn.</t>
+  </si>
+  <si>
+    <t>Botanical Colors supplies artisans and industry with the materials and know-how to dye textiles in a way that uses less water, is non-toxic and biodegradeable and draws its incomparable color palette from humble plants and natural sources. All colors are sustainably derived, many from agricultural and food waste products.
+We offer only the most robust dyes that perform on natural fibers with aplomb.</t>
+  </si>
+  <si>
+    <t>The mission of Guerrilla Cartography is to widely promote the cartographic arts and facilitate an expansion of the art, methods, and thematic scope of cartography, through collaborative projects, hosting theme-based community workshops and symposiums, and mounting public exhibitions. Founded on the idea that a new paradigm for cooperative and collaborative knowledge-caching and sharing could have a transformative effect on the awareness and dissemination of spatial information, Guerrilla Cartography formed in 2012 to create Food: An Atlas.
+The food atlas project was an experiment in guerrilla cartography and publishing. An open call for maps was shared and re-shared through a network of people who care about geography or food (or both) and the cartographers and researchers decided by their submissions what would be in the atlas.
+The atlas was published by a consortium of supporters using a crowd-funding platform—the people made the atlas, literally gave it form. The project garnered a lot of media attention—for its content and its methodology—and we continue to receive requests for content to mount public and web-based exhibits.
+As a registered California 501(c)(3) nonprofit, Guerrilla Cartography is committed to a free and open distribution of information. We sell volumes to support our organization but always allow free download of our content and pledge a share of our printed volumes to schools and libraries at no cost.
+Our experiment in guerrilla cartography created more than an atlas. With more than 120 collaborators from 15 countries, the first guerrilla cartography project created a community—one that continues to grow. Please go to our Call for Maps to see how you can contribute to Water: An Atlas.</t>
+  </si>
+  <si>
+    <t>Food forests are arguably the oldest form of gardening, generated through companion planting methods. But their importance is so much more than their history. Food forests are a way to diversify plant life through supportive planting; each plant building, supporting, and sustaining the next, each plant an important part of its created ecosystem. The system being built through food forests extends to our community as well. This form of gardening puts us back into direct contact with our needed resources, invites us to care for these resources that will in turn care for us, for our communities. 
+Food forests are a naturally regenerating, resilient, and effective agro-ecosystems, which can, over time, provide free, fresh food. However, food forests on New York City's public land have been off-limits for almost a century for fear that a glut of foragers may destroy an ecosystem. But Swale imagines a different world, a different solution.
+By creating a floating food forest, we create a different set of rules.</t>
+  </si>
+  <si>
+    <t>The Tree of 40 Fruit is an ongoing series of hybridized fruit trees by contemporary artist Sam Van Aken. Each unique Tree of 40 Fruit grows over forty different types of stone fruit including peaches, plums, apricots, nectarines, cherries, and almonds. Sculpted through the process of grafting, the Tree of 40 Fruit blossom in variegated tones of pink, crimson and white in spring, and in summer bear a multitude of fruit. Primarily composed of native and antique varieties the Tree of 40 Fruit are a form of conservsation, preserving heirloom stone fruit varieties that are not commercially produced or available.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOP IS AN ECOSYSTEM RESTORATION AND EDUCATION PROJECT aimed at restoring one billion live oysters to New York Harbor and engaging hundreds of thousands of school children through restoration based STEM education programs. Students at New York Harbor School have been growing and restoring oysters in New York Harbor for the last six years. They have learned to SCUBA dive safely, raise oyster larvae, operate and maintain vessels, build and operate commercial-scaled oyster nurseries, design underwater monitoring equipment and conduct long-term authentic research projects all in the murky, contaminated, fast moving waters of one of the busiest ports in the country. Together and with the help of many partners these students have restored over eleven million oysters. Thirty-six public schools have partnered with the project to provide authentic, place-based science and math lessons through the lens of oyster restoration. Each year, thousands of students participate in these learning opportunities.
+</t>
+  </si>
+  <si>
+    <t>Sanctuary for Weedy Species is a living collection of more than three hundred wild/invasive/exotic or otherwise uncultivated young plants transplanted from Bushwick’s urban soil to the Gallery at Industry City. At least forty species of plants hailing from various temperate and subtropical climates around the world live in the sanctuary. Some evolved right here in the New York City area, others originated in Central America, Northern Africa, or the mountains of Japan. Although they have diverse origins, all have made the city their home. They are well-adapted to living alongside humans, although we often tend to ignore, malign or even intentionally destroy them. In Bushwick, the open earth they occupy is rapidly receding as new parking lots, condominiums, and other development projects fill in the neighborhood’s remaining “vacant” spaces. This weedy sanctuary provides the opportunity to see these plants up close in an unusual context. I invite you to take a break from winter in the city. Come relocate and rehabilitate alongside the sanctuary inhabitants, and imagine for a moment a vision of urban ecology that takes what is, not what was, as its starting point.</t>
+  </si>
+  <si>
+    <t>Taking the atmosphere as its object of study, this project delves into an investigation of the present notions of nature intertwined with social and technological systems. It maps the layers and flows of the infosphere, tracing the immaterial work of social systems inscribing themselves into the materiality of the planet, and remaking it. It explores the notion of science as able to understand, predict, model and perhaps even control natural processes.
+The project is carried out by constructing and deploying devices and participatory practices that probe the knowledge, technology, ethics and ideologies of our culture. Public interventions demonstrate intricacy of interactions of social and natural systems and encourage public dialogue about atmospheric disruption. They range from organizing citizen observers to create a crowdsourced image of the sky that is equal and opposite to the image taken by a satellite at the same time, to founding a biotech startup which proposes the use of biosphere for data transfer and storage, to modifying the atmosphere one cloud at a time, to designing practices for employing body and senses in regulated athleticism which trains us for the impending transformation and the acute uncertainties associated with it.</t>
+  </si>
+  <si>
+    <t>The Urban Design Lab (UDL) is a research unit of Columbia University’s Earth Institute created in 2005 to address the need for a design-based approach to shaping the long range future of sustainable urbanism. While drawing on the resources of The Earth Institute, principal collaborators also engage the Graduate School of Architecture, Planning and Preservation (GSAPP) and the Fu Foundation of Engineering and Applied Science (SEAS). New York City and its region is a core model for solving problems related to sustainable urban futures everywhere, and the UDL’s work cuts across The Earth Institute’s themes of: Climate and Society; Water; Energy; Poverty; Ecosystems; Global Health; Food; Ecology; Nutrition; Hazards and Risk; and Urbanization.The UDL’s collaborators are academics and professionals in urban design, planning, architecture, historic preservation, real estate, public health, environmental science, climatology, engineering, ecology, education, business, economics, social science, humanities, and law.Since its inception, the UDL has assisted New York City communities in tackling environmental remediation, high performance and green building design, micro-infrastructure, public health, climate change, and sustainable economic development. It has also worked in numerous other global locations including Ghana, Kenya, People’s Republic of China, and India.</t>
+  </si>
+  <si>
+    <t>The New York City Food Policy Center develops intersectoral, innovative and evidence-based solutions to preventing diet-related diseases and promoting food security in New York and other cities. The Center works with policy makers, community organizations, advocates and the public to create healthier, more sustainable food environments and to use food to promote community and economic development. Through interdisciplinary research, policy analysis, evaluation and education, we leverage the expertise and passion of the students, faculty and staff of Hunter College and CUNY. The Center aims to make New York a model for smart, fair food policy.</t>
+  </si>
+  <si>
+    <t>To date, The Food Security Lab has comprised 16 months of research within a community called Kanana in Gugulethu, Cape Town, South Africa. The research focused on how people living within households that generally earn a monthly income of R4,000 or less manage their food requirements. It examined: why they purchase the food they do; where they shop and how often; beyond resource constraints, what influences their food purchasing choices; at what income level is it possible to secure a high quality regular diet; and what are the environmental, social and psychological factors that may prevent a strategic approach to food purchases and consumption? At the centre of this research was an exploration of how the local/immediate food suppliers (spaza shops, street vendors, informal cooking facilities) contribute to the food ecosystem. As such, the Lab also included an in depth review of the spaza shops in particular, the stock they carry and why, their supply chains and a range of consumer behaviour within the shops.</t>
+  </si>
+  <si>
+    <t>We are a team of designers, dietitians, and creative technologists with a simple mission: reimagine food data by making it smart, simple, and personalized. Until now, this info has often been unapproachable, confusing, and rarely tells the complete story.
+That’s why we built the food data platform we’ve always wanted. We think of it as our dream label. We love it, and hope you do too. If you have any suggestions or feedback, or want to get involved, please email us. We'd love to hear from you!</t>
   </si>
 </sst>
 </file>
@@ -774,7 +986,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -805,6 +1017,82 @@
       <color theme="4"/>
       <name val="Arial"/>
     </font>
+    <font>
+      <sz val="15.6"/>
+      <color rgb="FF000000"/>
+      <name val="Proxima-nova"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF333333"/>
+      <name val="Junction Light"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF333333"/>
+      <name val="Helvetica"/>
+    </font>
+    <font>
+      <sz val="16.8"/>
+      <color rgb="FF222222"/>
+      <name val="Lora"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF1A1A1A"/>
+      <name val="Roboto Slab"/>
+    </font>
+    <font>
+      <sz val="14.4"/>
+      <color rgb="FF303030"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14.4"/>
+      <color rgb="FF434343"/>
+      <name val="Lato Regular"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF666666"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13.2"/>
+      <color rgb="FF333333"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="22.8"/>
+      <color rgb="FFFCFCFC"/>
+      <name val="Proxima-nova"/>
+    </font>
+    <font>
+      <sz val="13.2"/>
+      <color rgb="FF686868"/>
+      <name val="Open Sans"/>
+    </font>
+    <font>
+      <sz val="21.6"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Graphik Web"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -827,7 +1115,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -837,6 +1125,23 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1136,11 +1441,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O65"/>
+  <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="69" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1158,11 +1463,11 @@
     <col min="11" max="11" width="13.5" style="4" customWidth="1"/>
     <col min="12" max="12" width="25.5" style="4" customWidth="1"/>
     <col min="13" max="13" width="19.5" style="4" customWidth="1"/>
-    <col min="14" max="14" width="9.83203125" style="4" customWidth="1"/>
+    <col min="14" max="14" width="18" style="4" customWidth="1"/>
     <col min="15" max="16384" width="69" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -1199,19 +1504,19 @@
       <c r="L1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="7" t="s">
         <v>117</v>
       </c>
       <c r="N1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:14" s="3" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>122</v>
@@ -1220,7 +1525,7 @@
         <v>122</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>202</v>
@@ -1233,21 +1538,17 @@
         <v>207</v>
       </c>
       <c r="L2" s="1"/>
-      <c r="M2" s="1" t="s">
-        <v>213</v>
+      <c r="M2" s="8" t="s">
+        <v>245</v>
       </c>
       <c r="N2" s="1"/>
-      <c r="O2" s="3" t="b">
-        <f>ISNUMBER(SEARCH("N",K2))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>122</v>
@@ -1256,7 +1557,7 @@
         <v>122</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>202</v>
@@ -1269,19 +1570,17 @@
         <v>207</v>
       </c>
       <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+      <c r="M3" s="7" t="s">
+        <v>244</v>
+      </c>
       <c r="N3" s="1"/>
-      <c r="O3" s="3" t="b">
-        <f t="shared" ref="O3:O64" si="0">ISNUMBER(SEARCH("N",K3))</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="4" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>105</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>135</v>
+        <v>185</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -1290,7 +1589,7 @@
         <v>2</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>197</v>
+        <v>106</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>202</v>
@@ -1303,19 +1602,17 @@
         <v>207</v>
       </c>
       <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
+      <c r="M4" s="9" t="s">
+        <v>247</v>
+      </c>
       <c r="N4" s="1"/>
-      <c r="O4" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="5" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>105</v>
+        <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>185</v>
+        <v>135</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1324,7 +1621,7 @@
         <v>2</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>202</v>
@@ -1337,19 +1634,17 @@
         <v>207</v>
       </c>
       <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
+      <c r="M5" s="10" t="s">
+        <v>246</v>
+      </c>
       <c r="N5" s="1"/>
-      <c r="O5" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="6" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1358,38 +1653,34 @@
         <v>7</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1">
-        <v>40.697844000000003</v>
-      </c>
-      <c r="J6" s="1">
-        <v>-73.928105700000003</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
       <c r="K6" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
+      <c r="M6" s="11" t="s">
+        <v>253</v>
+      </c>
       <c r="N6" s="1"/>
-      <c r="O6" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="7" spans="1:14" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>167</v>
+        <v>142</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1398,38 +1689,36 @@
         <v>7</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G7" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1">
-        <v>40.756689799999997</v>
+        <v>40.697844000000003</v>
       </c>
       <c r="J7" s="1">
-        <v>-73.982206099999999</v>
+        <v>-73.928105700000003</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
+      <c r="M7" s="12" t="s">
+        <v>254</v>
+      </c>
       <c r="N7" s="1"/>
-      <c r="O7" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>6</v>
+        <v>84</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>136</v>
+        <v>174</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1438,38 +1727,36 @@
         <v>7</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>8</v>
+        <v>85</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1">
-        <v>40.673388000000003</v>
+        <v>40.746540600000003</v>
       </c>
       <c r="J8" s="1">
-        <v>-73.970131199999997</v>
+        <v>-73.987167999999997</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="M8" s="13" t="s">
+        <v>256</v>
+      </c>
       <c r="N8" s="1"/>
-      <c r="O8" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>84</v>
+        <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>174</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1478,36 +1765,36 @@
         <v>7</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1">
-        <v>40.746540600000003</v>
+        <v>40.7501715</v>
       </c>
       <c r="J9" s="1">
-        <v>-73.987167999999997</v>
+        <v>-73.978671399999996</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="M9" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="L9" s="1"/>
+      <c r="M9" s="14" t="s">
+        <v>249</v>
+      </c>
       <c r="N9" s="1"/>
-      <c r="O9" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="10" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>176</v>
+        <v>138</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -1516,36 +1803,36 @@
         <v>7</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
+        <v>12</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="H10" s="1"/>
       <c r="I10" s="1">
-        <v>41.035102299999998</v>
+        <v>40.706347999999998</v>
       </c>
       <c r="J10" s="1">
-        <v>-73.865513300000003</v>
+        <v>-74.015600500000005</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>220</v>
-      </c>
-      <c r="M10" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="L10" s="1"/>
+      <c r="M10" s="15" t="s">
+        <v>250</v>
+      </c>
       <c r="N10" s="1"/>
-      <c r="O10" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>90</v>
+        <v>13</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>177</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -1554,40 +1841,30 @@
         <v>7</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>221</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>202</v>
+      </c>
+      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-      <c r="I11" s="1">
-        <v>42.964111199999998</v>
-      </c>
-      <c r="J11" s="1">
-        <v>-77.351081600000001</v>
-      </c>
-      <c r="K11" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="N11" s="1" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>179</v>
+        <v>167</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -1596,38 +1873,36 @@
         <v>7</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>94</v>
+        <v>72</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H12" s="1"/>
       <c r="I12" s="1">
-        <v>40.710155</v>
+        <v>40.756689799999997</v>
       </c>
       <c r="J12" s="1">
-        <v>-74.005423300000004</v>
+        <v>-73.982206099999999</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
+      <c r="M12" s="17" t="s">
+        <v>255</v>
+      </c>
       <c r="N12" s="1"/>
-      <c r="O12" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -1636,38 +1911,36 @@
         <v>7</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1">
-        <v>40.714171</v>
+        <v>41.453638699999999</v>
       </c>
       <c r="J13" s="1">
-        <v>-74.0182997</v>
+        <v>-73.867494399999998</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
+      <c r="M13" s="7" t="s">
+        <v>261</v>
+      </c>
       <c r="N13" s="1"/>
-      <c r="O13" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>137</v>
+        <v>179</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -1676,38 +1949,36 @@
         <v>7</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>10</v>
+        <v>94</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G14" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H14" s="1"/>
       <c r="I14" s="1">
-        <v>40.7501715</v>
+        <v>40.710155</v>
       </c>
       <c r="J14" s="1">
-        <v>-73.978671399999996</v>
+        <v>-74.005423300000004</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
+      <c r="M14" s="7" t="s">
+        <v>259</v>
+      </c>
       <c r="N14" s="1"/>
-      <c r="O14" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="15" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>101</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>183</v>
+        <v>140</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -1716,38 +1987,36 @@
         <v>7</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>102</v>
+        <v>16</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H15" s="1"/>
       <c r="I15" s="1">
-        <v>41.453638699999999</v>
+        <v>40.758123400000002</v>
       </c>
       <c r="J15" s="1">
-        <v>-73.867494399999998</v>
+        <v>-73.985218000000003</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
+      <c r="M15" s="18" t="s">
+        <v>252</v>
+      </c>
       <c r="N15" s="1"/>
-      <c r="O15" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>11</v>
+        <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>138</v>
+        <v>176</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -1756,38 +2025,36 @@
         <v>7</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>12</v>
+        <v>89</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>213</v>
+      </c>
+      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1">
-        <v>40.706347999999998</v>
+        <v>41.035102299999998</v>
       </c>
       <c r="J16" s="1">
-        <v>-74.015600500000005</v>
+        <v>-73.865513300000003</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M16" s="7" t="s">
+        <v>257</v>
+      </c>
       <c r="N16" s="1"/>
-      <c r="O16" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>201</v>
+        <v>90</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>195</v>
+        <v>177</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>7</v>
@@ -1796,40 +2063,38 @@
         <v>7</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>225</v>
+        <v>208</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1">
-        <v>38.116871199999999</v>
+        <v>42.964111199999998</v>
       </c>
       <c r="J17" s="1">
-        <v>-122.4026746</v>
+        <v>-77.351081600000001</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="O17" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="L17" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="M17" s="19" t="s">
+        <v>258</v>
+      </c>
+      <c r="N17" s="1"/>
+    </row>
+    <row r="18" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>139</v>
+        <v>180</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -1838,32 +2103,36 @@
         <v>7</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="G18" s="1"/>
+        <v>213</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>208</v>
+      </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="1"/>
-      <c r="K18" s="1"/>
+      <c r="I18" s="1">
+        <v>40.714171</v>
+      </c>
+      <c r="J18" s="1">
+        <v>-74.0182997</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>214</v>
+      </c>
       <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="O18" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M18" s="19" t="s">
+        <v>260</v>
+      </c>
+      <c r="N18" s="1"/>
+    </row>
+    <row r="19" spans="1:14" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -1872,38 +2141,36 @@
         <v>7</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="F19" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="1">
-        <v>40.758123400000002</v>
+        <v>40.673388000000003</v>
       </c>
       <c r="J19" s="1">
-        <v>-73.985218000000003</v>
+        <v>-73.970131199999997</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
+      <c r="M19" s="20" t="s">
+        <v>248</v>
+      </c>
       <c r="N19" s="1"/>
-      <c r="O19" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>17</v>
+        <v>201</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>141</v>
+        <v>195</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>7</v>
@@ -1912,36 +2179,38 @@
         <v>7</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>18</v>
+        <v>223</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>217</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="I20" s="1"/>
-      <c r="J20" s="1"/>
+        <v>224</v>
+      </c>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
+        <v>38.116871199999999</v>
+      </c>
+      <c r="J20" s="1">
+        <v>-122.4026746</v>
+      </c>
       <c r="K20" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M20" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="N20" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>22</v>
@@ -1950,38 +2219,36 @@
         <v>22</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H21" s="1"/>
       <c r="I21" s="1">
-        <v>40.738852799999997</v>
+        <v>40.746928599999997</v>
       </c>
       <c r="J21" s="1">
-        <v>-73.991700499999993</v>
+        <v>-73.995262100000005</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
+      <c r="M21" s="7" t="s">
+        <v>266</v>
+      </c>
       <c r="N21" s="1"/>
-      <c r="O21" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>144</v>
+        <v>196</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>22</v>
@@ -1990,36 +2257,36 @@
         <v>22</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>25</v>
+        <v>230</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1"/>
+        <v>208</v>
+      </c>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
+        <v>38.3292827</v>
+      </c>
+      <c r="J22" s="1">
+        <v>-122.7264224</v>
+      </c>
       <c r="K22" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L22" s="1"/>
-      <c r="M22" s="1"/>
+      <c r="M22" s="7" t="s">
+        <v>275</v>
+      </c>
       <c r="N22" s="1"/>
-      <c r="O22" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C23" s="1" t="s">
         <v>22</v>
@@ -2028,36 +2295,34 @@
         <v>22</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>226</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>228</v>
       </c>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L23" s="1"/>
-      <c r="M23" s="1"/>
+      <c r="M23" s="7" t="s">
+        <v>264</v>
+      </c>
       <c r="N23" s="1"/>
-      <c r="O23" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>22</v>
@@ -2066,38 +2331,36 @@
         <v>22</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G24" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H24" s="1"/>
       <c r="I24" s="1">
-        <v>40.746928599999997</v>
+        <v>40.744409099999999</v>
       </c>
       <c r="J24" s="1">
-        <v>-73.995262100000005</v>
+        <v>-73.989344200000005</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L24" s="1"/>
-      <c r="M24" s="1"/>
+      <c r="M24" s="7" t="s">
+        <v>272</v>
+      </c>
       <c r="N24" s="1"/>
-      <c r="O24" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>22</v>
@@ -2106,38 +2369,36 @@
         <v>22</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>208</v>
+        <v>228</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1">
-        <v>40.6574034</v>
+        <v>40.753600499999997</v>
       </c>
       <c r="J25" s="1">
-        <v>-73.964279599999998</v>
+        <v>-73.985421299999999</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L25" s="1"/>
-      <c r="M25" s="1"/>
+      <c r="M25" s="7" t="s">
+        <v>268</v>
+      </c>
       <c r="N25" s="1"/>
-      <c r="O25" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="C26" s="1" t="s">
         <v>22</v>
@@ -2146,38 +2407,36 @@
         <v>22</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>33</v>
+        <v>63</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>229</v>
       </c>
       <c r="H26" s="1"/>
       <c r="I26" s="1">
-        <v>40.753600499999997</v>
+        <v>40.718848000000001</v>
       </c>
       <c r="J26" s="1">
-        <v>-73.985421299999999</v>
+        <v>-73.951768799999996</v>
       </c>
       <c r="K26" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L26" s="1"/>
-      <c r="M26" s="1"/>
+      <c r="M26" s="7" t="s">
+        <v>273</v>
+      </c>
       <c r="N26" s="1"/>
-      <c r="O26" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>22</v>
@@ -2186,38 +2445,36 @@
         <v>22</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>223</v>
+        <v>208</v>
       </c>
       <c r="H27" s="1"/>
       <c r="I27" s="1">
-        <v>41.103059000000002</v>
+        <v>40.741050899999998</v>
       </c>
       <c r="J27" s="1">
-        <v>-73.831280699999994</v>
+        <v>-73.995106199999995</v>
       </c>
       <c r="K27" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L27" s="1"/>
-      <c r="M27" s="1"/>
+      <c r="M27" s="21" t="s">
+        <v>271</v>
+      </c>
       <c r="N27" s="1"/>
-      <c r="O27" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>36</v>
+        <v>103</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>150</v>
+        <v>184</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>22</v>
@@ -2226,38 +2483,36 @@
         <v>22</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>37</v>
+        <v>104</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H28" s="1"/>
       <c r="I28" s="1">
-        <v>40.980346699999998</v>
+        <v>42.453453099999997</v>
       </c>
       <c r="J28" s="1">
-        <v>-74.161793900000006</v>
+        <v>-76.475691400000002</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L28" s="1"/>
-      <c r="M28" s="1"/>
+      <c r="M28" s="7" t="s">
+        <v>274</v>
+      </c>
       <c r="N28" s="1"/>
-      <c r="O28" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="1:14" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="C29" s="1" t="s">
         <v>22</v>
@@ -2266,38 +2521,36 @@
         <v>22</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H29" s="1"/>
       <c r="I29" s="1">
-        <v>40.741050899999998</v>
+        <v>40.738852799999997</v>
       </c>
       <c r="J29" s="1">
-        <v>-73.995106199999995</v>
+        <v>-73.991700499999993</v>
       </c>
       <c r="K29" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L29" s="1"/>
-      <c r="M29" s="1"/>
+      <c r="M29" s="22" t="s">
+        <v>263</v>
+      </c>
       <c r="N29" s="1"/>
-      <c r="O29" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="30" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C30" s="1" t="s">
         <v>22</v>
@@ -2306,38 +2559,36 @@
         <v>22</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H30" s="1"/>
       <c r="I30" s="1">
-        <v>40.744409099999999</v>
+        <v>41.103059000000002</v>
       </c>
       <c r="J30" s="1">
-        <v>-73.989344200000005</v>
+        <v>-73.831280699999994</v>
       </c>
       <c r="K30" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L30" s="1"/>
-      <c r="M30" s="1"/>
+      <c r="M30" s="7" t="s">
+        <v>269</v>
+      </c>
       <c r="N30" s="1"/>
-      <c r="O30" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="31" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>62</v>
+        <v>26</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="C31" s="1" t="s">
         <v>22</v>
@@ -2346,38 +2597,34 @@
         <v>22</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="H31" s="1"/>
-      <c r="I31" s="1">
-        <v>40.718848000000001</v>
-      </c>
-      <c r="J31" s="1">
-        <v>-73.951768799999996</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L31" s="1"/>
-      <c r="M31" s="1"/>
+      <c r="M31" s="23" t="s">
+        <v>265</v>
+      </c>
       <c r="N31" s="1"/>
-      <c r="O31" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="32" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>103</v>
+        <v>36</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
       <c r="C32" s="1" t="s">
         <v>22</v>
@@ -2386,38 +2633,36 @@
         <v>22</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>104</v>
+        <v>37</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H32" s="1"/>
       <c r="I32" s="1">
-        <v>42.453453099999997</v>
+        <v>40.980346699999998</v>
       </c>
       <c r="J32" s="1">
-        <v>-76.475691400000002</v>
+        <v>-74.161793900000006</v>
       </c>
       <c r="K32" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L32" s="1"/>
-      <c r="M32" s="1"/>
+      <c r="M32" s="7" t="s">
+        <v>270</v>
+      </c>
       <c r="N32" s="1"/>
-      <c r="O32" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="33" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>131</v>
+        <v>30</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="C33" s="1" t="s">
         <v>22</v>
@@ -2426,33 +2671,31 @@
         <v>22</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>231</v>
+        <v>31</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1">
-        <v>38.3292827</v>
+        <v>40.6574034</v>
       </c>
       <c r="J33" s="1">
-        <v>-122.7264224</v>
+        <v>-73.964279599999998</v>
       </c>
       <c r="K33" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L33" s="1"/>
-      <c r="M33" s="1"/>
+      <c r="M33" s="7" t="s">
+        <v>267</v>
+      </c>
       <c r="N33" s="1"/>
-      <c r="O33" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -2469,7 +2712,7 @@
         <v>43</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>208</v>
@@ -2482,22 +2725,20 @@
         <v>-73.960265699999994</v>
       </c>
       <c r="K34" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L34" s="1"/>
-      <c r="M34" s="1"/>
+      <c r="M34" s="7" t="s">
+        <v>276</v>
+      </c>
       <c r="N34" s="1"/>
-      <c r="O34" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="35" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C35" s="1" t="s">
         <v>126</v>
@@ -2506,38 +2747,36 @@
         <v>126</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>208</v>
+        <v>222</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1">
-        <v>40.5953631</v>
+        <v>40.703459700000003</v>
       </c>
       <c r="J35" s="1">
-        <v>-73.778727700000005</v>
+        <v>-73.973968299999996</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L35" s="1"/>
-      <c r="M35" s="1"/>
+      <c r="M35" s="7" t="s">
+        <v>280</v>
+      </c>
       <c r="N35" s="1"/>
-      <c r="O35" s="3" t="b">
-        <f>ISNUMBER(SEARCH("N",K35))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="36" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>126</v>
@@ -2546,33 +2785,31 @@
         <v>126</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>232</v>
+        <v>208</v>
       </c>
       <c r="H36" s="1"/>
       <c r="I36" s="1">
-        <v>40.7054817</v>
+        <v>40.5953631</v>
       </c>
       <c r="J36" s="1">
-        <v>-73.940463300000005</v>
+        <v>-73.778727700000005</v>
       </c>
       <c r="K36" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
+      <c r="M36" s="7" t="s">
+        <v>277</v>
+      </c>
       <c r="N36" s="1"/>
-      <c r="O36" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2589,10 +2826,10 @@
         <v>49</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1">
@@ -2602,22 +2839,20 @@
         <v>-77.029713900000004</v>
       </c>
       <c r="K37" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
+      <c r="M37" s="7" t="s">
+        <v>279</v>
+      </c>
       <c r="N37" s="1"/>
-      <c r="O37" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="38" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>126</v>
@@ -2626,38 +2861,36 @@
         <v>126</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F38" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
       <c r="H38" s="1"/>
       <c r="I38" s="1">
-        <v>40.703459700000003</v>
+        <v>40.7054817</v>
       </c>
       <c r="J38" s="1">
-        <v>-73.973968299999996</v>
+        <v>-73.940463300000005</v>
       </c>
       <c r="K38" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
+      <c r="M38" s="7" t="s">
+        <v>278</v>
+      </c>
       <c r="N38" s="1"/>
-      <c r="O38" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="39" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C39" s="1" t="s">
         <v>125</v>
@@ -2666,7 +2899,7 @@
         <v>125</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F39" s="1" t="s">
         <v>202</v>
@@ -2679,19 +2912,17 @@
         <v>207</v>
       </c>
       <c r="L39" s="1"/>
-      <c r="M39" s="1"/>
+      <c r="M39" s="7" t="s">
+        <v>282</v>
+      </c>
       <c r="N39" s="1"/>
-      <c r="O39" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="40" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>125</v>
@@ -2700,7 +2931,7 @@
         <v>125</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F40" s="1" t="s">
         <v>202</v>
@@ -2713,19 +2944,17 @@
         <v>207</v>
       </c>
       <c r="L40" s="1"/>
-      <c r="M40" s="1"/>
+      <c r="M40" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="N40" s="1"/>
-      <c r="O40" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>125</v>
@@ -2734,7 +2963,7 @@
         <v>125</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>202</v>
@@ -2747,14 +2976,12 @@
         <v>207</v>
       </c>
       <c r="L41" s="1"/>
-      <c r="M41" s="1"/>
+      <c r="M41" s="7" t="s">
+        <v>285</v>
+      </c>
       <c r="N41" s="1"/>
-      <c r="O41" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="42" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -2781,19 +3008,17 @@
         <v>207</v>
       </c>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="M42" s="7" t="s">
+        <v>284</v>
+      </c>
       <c r="N42" s="1"/>
-      <c r="O42" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="43" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>125</v>
@@ -2802,7 +3027,7 @@
         <v>125</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>202</v>
@@ -2815,14 +3040,12 @@
         <v>207</v>
       </c>
       <c r="L43" s="1"/>
-      <c r="M43" s="1"/>
+      <c r="M43" s="7" t="s">
+        <v>283</v>
+      </c>
       <c r="N43" s="1"/>
-      <c r="O43" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="44" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -2847,19 +3070,15 @@
         <v>207</v>
       </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
+      <c r="M44" s="7"/>
       <c r="N44" s="1"/>
-      <c r="O44" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="45" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>130</v>
+        <v>108</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C45" s="1" t="s">
         <v>202</v>
@@ -2879,19 +3098,15 @@
         <v>207</v>
       </c>
       <c r="L45" s="1"/>
-      <c r="M45" s="1"/>
+      <c r="M45" s="7"/>
       <c r="N45" s="1"/>
-      <c r="O45" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="46" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C46" s="1" t="s">
         <v>202</v>
@@ -2911,19 +3126,15 @@
         <v>207</v>
       </c>
       <c r="L46" s="1"/>
-      <c r="M46" s="1"/>
+      <c r="M46" s="7"/>
       <c r="N46" s="1"/>
-      <c r="O46" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="47" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="47" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>108</v>
+        <v>130</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C47" s="1" t="s">
         <v>202</v>
@@ -2943,19 +3154,15 @@
         <v>207</v>
       </c>
       <c r="L47" s="1"/>
-      <c r="M47" s="1"/>
+      <c r="M47" s="7"/>
       <c r="N47" s="1"/>
-      <c r="O47" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="48" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C48" s="1" t="s">
         <v>202</v>
@@ -2975,19 +3182,15 @@
         <v>207</v>
       </c>
       <c r="L48" s="1"/>
-      <c r="M48" s="1"/>
+      <c r="M48" s="7"/>
       <c r="N48" s="1"/>
-      <c r="O48" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="49" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="49" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C49" s="1" t="s">
         <v>202</v>
@@ -3007,14 +3210,10 @@
         <v>207</v>
       </c>
       <c r="L49" s="1"/>
-      <c r="M49" s="1"/>
+      <c r="M49" s="7"/>
       <c r="N49" s="1"/>
-      <c r="O49" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="50" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3041,14 +3240,12 @@
         <v>207</v>
       </c>
       <c r="L50" s="1"/>
-      <c r="M50" s="1"/>
+      <c r="M50" s="7" t="s">
+        <v>286</v>
+      </c>
       <c r="N50" s="1"/>
-      <c r="O50" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="51" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -3075,14 +3272,12 @@
         <v>207</v>
       </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="1"/>
+      <c r="M51" s="7" t="s">
+        <v>287</v>
+      </c>
       <c r="N51" s="1"/>
-      <c r="O51" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="52" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -3109,14 +3304,12 @@
         <v>207</v>
       </c>
       <c r="L52" s="1"/>
-      <c r="M52" s="1"/>
+      <c r="M52" s="7" t="s">
+        <v>288</v>
+      </c>
       <c r="N52" s="1"/>
-      <c r="O52" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="53" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
@@ -3143,14 +3336,12 @@
         <v>207</v>
       </c>
       <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
+      <c r="M53" s="7" t="s">
+        <v>289</v>
+      </c>
       <c r="N53" s="1"/>
-      <c r="O53" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="54" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
@@ -3167,7 +3358,7 @@
         <v>87</v>
       </c>
       <c r="F54" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
@@ -3177,19 +3368,17 @@
         <v>207</v>
       </c>
       <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
+      <c r="M54" s="7" t="s">
+        <v>290</v>
+      </c>
       <c r="N54" s="1"/>
-      <c r="O54" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="55" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C55" s="1" t="s">
         <v>128</v>
@@ -3198,30 +3387,38 @@
         <v>128</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F55" s="1"/>
-      <c r="G55" s="1"/>
+        <v>83</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="1"/>
-      <c r="J55" s="1"/>
+      <c r="I55" s="1">
+        <v>40.690819900000001</v>
+      </c>
+      <c r="J55" s="1">
+        <v>-74.022680699999995</v>
+      </c>
       <c r="K55" s="1" t="s">
-        <v>233</v>
-      </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="M55" s="7" t="s">
+        <v>294</v>
+      </c>
       <c r="N55" s="1"/>
-      <c r="O55" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="56" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>234</v>
+        <v>109</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="C56" s="1" t="s">
         <v>128</v>
@@ -3230,40 +3427,36 @@
         <v>128</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>79</v>
+        <v>203</v>
       </c>
       <c r="F56" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1">
-        <v>40.689577</v>
+        <v>40.687550000000002</v>
       </c>
       <c r="J56" s="1">
-        <v>-74.023066</v>
+        <v>-73.962578699999995</v>
       </c>
       <c r="K56" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="O56" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M56" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C57" s="1" t="s">
         <v>128</v>
@@ -3272,36 +3465,28 @@
         <v>128</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="F57" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="F57" s="1"/>
+      <c r="G57" s="1"/>
+      <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="L57" s="1"/>
-      <c r="M57" s="1"/>
+      <c r="M57" s="7" t="s">
+        <v>291</v>
+      </c>
       <c r="N57" s="1"/>
-      <c r="O57" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="58" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>82</v>
+        <v>233</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C58" s="1" t="s">
         <v>128</v>
@@ -3310,40 +3495,38 @@
         <v>128</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H58" s="1"/>
       <c r="I58" s="1">
-        <v>40.690819900000001</v>
+        <v>40.689577</v>
       </c>
       <c r="J58" s="1">
-        <v>-74.022680699999995</v>
+        <v>-74.023066</v>
       </c>
       <c r="K58" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L58" s="1" t="s">
-        <v>239</v>
-      </c>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>214</v>
+      </c>
+      <c r="L58" s="1"/>
+      <c r="M58" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="N58" s="1" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C59" s="1" t="s">
         <v>128</v>
@@ -3352,38 +3535,32 @@
         <v>128</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F59" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>240</v>
+        <v>202</v>
       </c>
       <c r="H59" s="1"/>
-      <c r="I59" s="1">
-        <v>40.687550000000002</v>
-      </c>
-      <c r="J59" s="1">
-        <v>-73.962578699999995</v>
-      </c>
+      <c r="I59" s="1"/>
+      <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
-        <v>215</v>
+        <v>232</v>
       </c>
       <c r="L59" s="1"/>
-      <c r="M59" s="1"/>
+      <c r="M59" s="7" t="s">
+        <v>296</v>
+      </c>
       <c r="N59" s="1"/>
-      <c r="O59" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="60" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>205</v>
+        <v>80</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C60" s="1" t="s">
         <v>128</v>
@@ -3392,111 +3569,109 @@
         <v>128</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>204</v>
+        <v>81</v>
       </c>
       <c r="F60" s="1" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H60" s="1"/>
+        <v>236</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>237</v>
+      </c>
       <c r="I60" s="1"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
       <c r="L60" s="1"/>
-      <c r="M60" s="1"/>
+      <c r="M60" s="7" t="s">
+        <v>293</v>
+      </c>
       <c r="N60" s="1"/>
-      <c r="O60" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="61" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H61" s="1"/>
       <c r="I61" s="1">
-        <v>40.810788700000003</v>
+        <v>40.799954399999997</v>
       </c>
       <c r="J61" s="1">
-        <v>-73.965878000000004</v>
+        <v>-73.9414886</v>
       </c>
       <c r="K61" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L61" s="1"/>
-      <c r="M61" s="1"/>
+        <v>214</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="M61" s="7" t="s">
+        <v>298</v>
+      </c>
       <c r="N61" s="1"/>
-      <c r="O61" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="62" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="62" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>168</v>
+        <v>194</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>74</v>
+        <v>111</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H62" s="1"/>
       <c r="I62" s="1">
-        <v>40.799954399999997</v>
+        <v>40.807497300000001</v>
       </c>
       <c r="J62" s="1">
-        <v>-73.9414886</v>
+        <v>-73.946339100000003</v>
       </c>
       <c r="K62" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="M62" s="1"/>
+        <v>243</v>
+      </c>
+      <c r="M62" s="7" t="s">
+        <v>112</v>
+      </c>
       <c r="N62" s="1"/>
-      <c r="O62" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="63" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>91</v>
       </c>
@@ -3504,16 +3679,16 @@
         <v>178</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>92</v>
       </c>
       <c r="F63" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>208</v>
@@ -3526,61 +3701,53 @@
         <v>18.4198153</v>
       </c>
       <c r="K63" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="M63" s="1"/>
+        <v>242</v>
+      </c>
+      <c r="M63" s="7" t="s">
+        <v>299</v>
+      </c>
       <c r="N63" s="1"/>
-      <c r="O63" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="64" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>110</v>
+        <v>69</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>194</v>
+        <v>166</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>111</v>
+        <v>70</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>208</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1">
-        <v>40.807497300000001</v>
+        <v>40.810788700000003</v>
       </c>
       <c r="J64" s="1">
-        <v>-73.946339100000003</v>
+        <v>-73.965878000000004</v>
       </c>
       <c r="K64" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="L64" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="M64" s="1" t="s">
-        <v>112</v>
+        <v>214</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="7" t="s">
+        <v>297</v>
       </c>
       <c r="N64" s="1"/>
-      <c r="O64" s="3" t="b">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
@@ -3599,7 +3766,7 @@
         <v>100</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G65" s="1" t="s">
         <v>208</v>
@@ -3611,7 +3778,9 @@
         <v>207</v>
       </c>
       <c r="L65" s="1"/>
-      <c r="M65" s="1"/>
+      <c r="M65" s="7" t="s">
+        <v>300</v>
+      </c>
       <c r="N65" s="1"/>
     </row>
   </sheetData>
@@ -3629,64 +3798,65 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
-    <hyperlink ref="E5" r:id="rId4"/>
-    <hyperlink ref="E8" r:id="rId5"/>
-    <hyperlink ref="E14" r:id="rId6"/>
-    <hyperlink ref="E16" r:id="rId7"/>
-    <hyperlink ref="E18" r:id="rId8"/>
-    <hyperlink ref="E19" r:id="rId9"/>
-    <hyperlink ref="E20" r:id="rId10"/>
-    <hyperlink ref="E6" r:id="rId11"/>
-    <hyperlink ref="E7" r:id="rId12"/>
-    <hyperlink ref="E9" r:id="rId13"/>
-    <hyperlink ref="E10" r:id="rId14"/>
-    <hyperlink ref="E11" r:id="rId15"/>
-    <hyperlink ref="E12" r:id="rId16"/>
-    <hyperlink ref="E13" r:id="rId17"/>
-    <hyperlink ref="E15" r:id="rId18"/>
-    <hyperlink ref="E17" r:id="rId19"/>
-    <hyperlink ref="E21" r:id="rId20"/>
-    <hyperlink ref="E22" r:id="rId21"/>
-    <hyperlink ref="E23" r:id="rId22"/>
-    <hyperlink ref="E24" r:id="rId23"/>
-    <hyperlink ref="E25" r:id="rId24"/>
-    <hyperlink ref="E26" r:id="rId25"/>
-    <hyperlink ref="E27" r:id="rId26"/>
-    <hyperlink ref="E28" r:id="rId27"/>
-    <hyperlink ref="E29" r:id="rId28"/>
-    <hyperlink ref="E30" r:id="rId29"/>
-    <hyperlink ref="E31" r:id="rId30"/>
-    <hyperlink ref="E32" r:id="rId31"/>
-    <hyperlink ref="E33" r:id="rId32"/>
+    <hyperlink ref="E3" r:id="rId1"/>
+    <hyperlink ref="E2" r:id="rId2"/>
+    <hyperlink ref="E5" r:id="rId3"/>
+    <hyperlink ref="E4" r:id="rId4"/>
+    <hyperlink ref="E19" r:id="rId5"/>
+    <hyperlink ref="E9" r:id="rId6"/>
+    <hyperlink ref="E10" r:id="rId7"/>
+    <hyperlink ref="E11" r:id="rId8"/>
+    <hyperlink ref="E15" r:id="rId9"/>
+    <hyperlink ref="E6" r:id="rId10"/>
+    <hyperlink ref="E7" r:id="rId11"/>
+    <hyperlink ref="E12" r:id="rId12"/>
+    <hyperlink ref="E8" r:id="rId13"/>
+    <hyperlink ref="E16" r:id="rId14"/>
+    <hyperlink ref="E17" r:id="rId15"/>
+    <hyperlink ref="E14" r:id="rId16"/>
+    <hyperlink ref="E18" r:id="rId17"/>
+    <hyperlink ref="E13" r:id="rId18"/>
+    <hyperlink ref="E20" r:id="rId19"/>
+    <hyperlink ref="E29" r:id="rId20"/>
+    <hyperlink ref="E23" r:id="rId21"/>
+    <hyperlink ref="E31" r:id="rId22"/>
+    <hyperlink ref="E21" r:id="rId23"/>
+    <hyperlink ref="E33" r:id="rId24"/>
+    <hyperlink ref="E25" r:id="rId25"/>
+    <hyperlink ref="E30" r:id="rId26"/>
+    <hyperlink ref="E32" r:id="rId27"/>
+    <hyperlink ref="E27" r:id="rId28"/>
+    <hyperlink ref="E24" r:id="rId29"/>
+    <hyperlink ref="E26" r:id="rId30"/>
+    <hyperlink ref="E28" r:id="rId31"/>
+    <hyperlink ref="E22" r:id="rId32"/>
     <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E35" r:id="rId34"/>
-    <hyperlink ref="E36" r:id="rId35"/>
+    <hyperlink ref="E36" r:id="rId34"/>
+    <hyperlink ref="E38" r:id="rId35"/>
     <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E38" r:id="rId37"/>
-    <hyperlink ref="E39" r:id="rId38"/>
-    <hyperlink ref="E40" r:id="rId39"/>
-    <hyperlink ref="E41" r:id="rId40"/>
+    <hyperlink ref="E35" r:id="rId37"/>
+    <hyperlink ref="E40" r:id="rId38"/>
+    <hyperlink ref="E39" r:id="rId39"/>
+    <hyperlink ref="E43" r:id="rId40"/>
     <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E43" r:id="rId42"/>
+    <hyperlink ref="E41" r:id="rId42"/>
     <hyperlink ref="E50" r:id="rId43"/>
     <hyperlink ref="E51" r:id="rId44"/>
     <hyperlink ref="E52" r:id="rId45"/>
     <hyperlink ref="E53" r:id="rId46"/>
     <hyperlink ref="E54" r:id="rId47"/>
-    <hyperlink ref="E55" r:id="rId48"/>
-    <hyperlink ref="E56" r:id="rId49"/>
-    <hyperlink ref="E57" r:id="rId50"/>
-    <hyperlink ref="E58" r:id="rId51"/>
-    <hyperlink ref="E59" r:id="rId52"/>
-    <hyperlink ref="E60" r:id="rId53"/>
-    <hyperlink ref="E61" r:id="rId54"/>
-    <hyperlink ref="E62" r:id="rId55"/>
+    <hyperlink ref="E57" r:id="rId48"/>
+    <hyperlink ref="E58" r:id="rId49"/>
+    <hyperlink ref="E60" r:id="rId50"/>
+    <hyperlink ref="E55" r:id="rId51"/>
+    <hyperlink ref="E56" r:id="rId52"/>
+    <hyperlink ref="E59" r:id="rId53"/>
+    <hyperlink ref="E64" r:id="rId54"/>
+    <hyperlink ref="E61" r:id="rId55"/>
     <hyperlink ref="E63" r:id="rId56"/>
-    <hyperlink ref="E64" r:id="rId57"/>
+    <hyperlink ref="E62" r:id="rId57"/>
     <hyperlink ref="E65" r:id="rId58"/>
+    <hyperlink ref="M10" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/app/data/src/projectlist.xlsx
+++ b/app/data/src/projectlist.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="36840" windowHeight="18980" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="projectlist.csv" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">projectlist.csv!$A$1:$N$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">projectlist.csv!$A$1:$O$1</definedName>
   </definedNames>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="566" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="314">
   <si>
     <t>Lucky Peach</t>
   </si>
@@ -977,6 +977,45 @@
   <si>
     <t>We are a team of designers, dietitians, and creative technologists with a simple mission: reimagine food data by making it smart, simple, and personalized. Until now, this info has often been unapproachable, confusing, and rarely tells the complete story.
 That’s why we built the food data platform we’ve always wanted. We think of it as our dream label. We love it, and hope you do too. If you have any suggestions or feedback, or want to get involved, please email us. We'd love to hear from you!</t>
+  </si>
+  <si>
+    <t>keywords</t>
+  </si>
+  <si>
+    <t>education, farming, production, compost, farmer's market</t>
+  </si>
+  <si>
+    <t>compost, food waste</t>
+  </si>
+  <si>
+    <t>food collection, food waste</t>
+  </si>
+  <si>
+    <t>food collection</t>
+  </si>
+  <si>
+    <t>food collection, food poverty</t>
+  </si>
+  <si>
+    <t>education, health</t>
+  </si>
+  <si>
+    <t>education, farming, local</t>
+  </si>
+  <si>
+    <t>compost, community gardens, farmer's market, education</t>
+  </si>
+  <si>
+    <t>csa, urban ag, community gardens, local</t>
+  </si>
+  <si>
+    <t>farming, advocacy, training</t>
+  </si>
+  <si>
+    <t>sustainability, training, restaurant</t>
+  </si>
+  <si>
+    <t>research, health, food poverty</t>
   </si>
 </sst>
 </file>
@@ -1441,11 +1480,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N65"/>
+  <dimension ref="A1:O990"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="69" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1453,21 +1492,21 @@
     <col min="1" max="1" width="53" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="23.5" style="4" customWidth="1"/>
-    <col min="5" max="5" width="47.83203125" style="6" customWidth="1"/>
-    <col min="6" max="6" width="15.1640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="19.83203125" style="5" customWidth="1"/>
-    <col min="8" max="8" width="16.83203125" style="5" customWidth="1"/>
-    <col min="9" max="9" width="17.1640625" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="4" customWidth="1"/>
-    <col min="11" max="11" width="13.5" style="4" customWidth="1"/>
-    <col min="12" max="12" width="25.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="19.5" style="4" customWidth="1"/>
-    <col min="14" max="14" width="18" style="4" customWidth="1"/>
-    <col min="15" max="16384" width="69" style="4"/>
+    <col min="4" max="5" width="23.5" style="4" customWidth="1"/>
+    <col min="6" max="6" width="47.83203125" style="6" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" style="6" customWidth="1"/>
+    <col min="8" max="8" width="19.83203125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="16.83203125" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.1640625" style="4" customWidth="1"/>
+    <col min="11" max="11" width="12.5" style="4" customWidth="1"/>
+    <col min="12" max="12" width="13.5" style="4" customWidth="1"/>
+    <col min="13" max="13" width="25.5" style="4" customWidth="1"/>
+    <col min="14" max="14" width="19.5" style="4" customWidth="1"/>
+    <col min="15" max="15" width="18" style="4" customWidth="1"/>
+    <col min="16" max="16384" width="69" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -1481,37 +1520,40 @@
         <v>123</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="M1" s="7" t="s">
+      <c r="N1" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="3" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" s="3" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1524,26 +1566,27 @@
       <c r="D2" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1"/>
+      <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="1"/>
+      <c r="L2" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="8" t="s">
+      <c r="M2" s="1"/>
+      <c r="N2" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="N2" s="1"/>
-    </row>
-    <row r="3" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O2" s="1"/>
+    </row>
+    <row r="3" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1556,26 +1599,27 @@
       <c r="D3" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1"/>
+      <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
-      <c r="K3" s="1" t="s">
+      <c r="K3" s="1"/>
+      <c r="L3" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L3" s="1"/>
-      <c r="M3" s="7" t="s">
+      <c r="M3" s="1"/>
+      <c r="N3" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="N3" s="1"/>
-    </row>
-    <row r="4" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
@@ -1588,26 +1632,27 @@
       <c r="D4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1"/>
+      <c r="F4" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
-      <c r="K4" s="1" t="s">
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L4" s="1"/>
-      <c r="M4" s="9" t="s">
+      <c r="M4" s="1"/>
+      <c r="N4" s="9" t="s">
         <v>247</v>
       </c>
-      <c r="N4" s="1"/>
-    </row>
-    <row r="5" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1620,26 +1665,27 @@
       <c r="D5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" s="1"/>
+      <c r="F5" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G5" s="1"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="1"/>
+      <c r="L5" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L5" s="1"/>
-      <c r="M5" s="10" t="s">
+      <c r="M5" s="1"/>
+      <c r="N5" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="N5" s="1"/>
-    </row>
-    <row r="6" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O5" s="1"/>
+    </row>
+    <row r="6" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1652,30 +1698,33 @@
       <c r="D6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E6" s="2" t="s">
+      <c r="E6" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="F6" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="I6" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="K6" s="1" t="s">
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L6" s="1"/>
-      <c r="M6" s="11" t="s">
+      <c r="M6" s="1"/>
+      <c r="N6" s="11" t="s">
         <v>253</v>
       </c>
-      <c r="N6" s="1"/>
-    </row>
-    <row r="7" spans="1:14" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="O6" s="1"/>
+    </row>
+    <row r="7" spans="1:15" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1688,32 +1737,35 @@
       <c r="D7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E7" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1">
         <v>40.697844000000003</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <v>-73.928105700000003</v>
       </c>
-      <c r="K7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L7" s="1"/>
-      <c r="M7" s="12" t="s">
+      <c r="M7" s="1"/>
+      <c r="N7" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="N7" s="1"/>
-    </row>
-    <row r="8" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O7" s="1"/>
+    </row>
+    <row r="8" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
@@ -1726,32 +1778,35 @@
       <c r="D8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="E8" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F8" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-      <c r="I8" s="1">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1">
         <v>40.746540600000003</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <v>-73.987167999999997</v>
       </c>
-      <c r="K8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="M8" s="13" t="s">
+      <c r="N8" s="13" t="s">
         <v>256</v>
       </c>
-      <c r="N8" s="1"/>
-    </row>
-    <row r="9" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O8" s="1"/>
+    </row>
+    <row r="9" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1764,32 +1819,35 @@
       <c r="D9" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E9" s="2" t="s">
+      <c r="E9" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1">
         <v>40.7501715</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <v>-73.978671399999996</v>
       </c>
-      <c r="K9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L9" s="1"/>
-      <c r="M9" s="14" t="s">
+      <c r="M9" s="1"/>
+      <c r="N9" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="N9" s="1"/>
-    </row>
-    <row r="10" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O9" s="1"/>
+    </row>
+    <row r="10" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1802,32 +1860,35 @@
       <c r="D10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="E10" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1">
         <v>40.706347999999998</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <v>-74.015600500000005</v>
       </c>
-      <c r="K10" s="1" t="s">
+      <c r="L10" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L10" s="1"/>
-      <c r="M10" s="15" t="s">
+      <c r="M10" s="1"/>
+      <c r="N10" s="15" t="s">
         <v>250</v>
       </c>
-      <c r="N10" s="1"/>
-    </row>
-    <row r="11" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O10" s="1"/>
+    </row>
+    <row r="11" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1840,26 +1901,27 @@
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="2" t="s">
+      <c r="E11" s="1"/>
+      <c r="F11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
-      <c r="M11" s="16" t="s">
+      <c r="M11" s="1"/>
+      <c r="N11" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="O11" s="1" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -1872,32 +1934,35 @@
       <c r="D12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1">
         <v>40.756689799999997</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <v>-73.982206099999999</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L12" s="1"/>
-      <c r="M12" s="17" t="s">
+      <c r="M12" s="1"/>
+      <c r="N12" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="N12" s="1"/>
-    </row>
-    <row r="13" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O12" s="1"/>
+    </row>
+    <row r="13" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -1910,32 +1975,35 @@
       <c r="D13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F13" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="H13" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1">
         <v>41.453638699999999</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <v>-73.867494399999998</v>
       </c>
-      <c r="K13" s="1" t="s">
+      <c r="L13" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L13" s="1"/>
-      <c r="M13" s="7" t="s">
+      <c r="M13" s="1"/>
+      <c r="N13" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="N13" s="1"/>
-    </row>
-    <row r="14" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O13" s="1"/>
+    </row>
+    <row r="14" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -1948,32 +2016,35 @@
       <c r="D14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="H14" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1">
         <v>40.710155</v>
       </c>
-      <c r="J14" s="1">
+      <c r="K14" s="1">
         <v>-74.005423300000004</v>
       </c>
-      <c r="K14" s="1" t="s">
+      <c r="L14" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L14" s="1"/>
-      <c r="M14" s="7" t="s">
+      <c r="M14" s="1"/>
+      <c r="N14" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="N14" s="1"/>
-    </row>
-    <row r="15" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O14" s="1"/>
+    </row>
+    <row r="15" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -1986,32 +2057,35 @@
       <c r="D15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="F15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="H15" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1">
         <v>40.758123400000002</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <v>-73.985218000000003</v>
       </c>
-      <c r="K15" s="1" t="s">
+      <c r="L15" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L15" s="1"/>
-      <c r="M15" s="18" t="s">
+      <c r="M15" s="1"/>
+      <c r="N15" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="N15" s="1"/>
-    </row>
-    <row r="16" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O15" s="1"/>
+    </row>
+    <row r="16" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -2024,32 +2098,33 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1"/>
+      <c r="F16" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1">
         <v>41.035102299999998</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <v>-73.865513300000003</v>
       </c>
-      <c r="K16" s="1" t="s">
+      <c r="L16" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="M16" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="M16" s="7" t="s">
+      <c r="N16" s="7" t="s">
         <v>257</v>
       </c>
-      <c r="N16" s="1"/>
-    </row>
-    <row r="17" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O16" s="1"/>
+    </row>
+    <row r="17" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
@@ -2062,34 +2137,37 @@
       <c r="D17" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E17" s="2" t="s">
+      <c r="E17" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="F17" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="H17" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1">
         <v>42.964111199999998</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <v>-77.351081600000001</v>
       </c>
-      <c r="K17" s="1" t="s">
+      <c r="L17" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="M17" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="M17" s="19" t="s">
+      <c r="N17" s="19" t="s">
         <v>258</v>
       </c>
-      <c r="N17" s="1"/>
-    </row>
-    <row r="18" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O17" s="1"/>
+    </row>
+    <row r="18" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>95</v>
       </c>
@@ -2102,32 +2180,35 @@
       <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E18" s="2" t="s">
+      <c r="E18" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="H18" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1">
         <v>40.714171</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <v>-74.0182997</v>
       </c>
-      <c r="K18" s="1" t="s">
+      <c r="L18" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L18" s="1"/>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="1"/>
+      <c r="N18" s="19" t="s">
         <v>260</v>
       </c>
-      <c r="N18" s="1"/>
-    </row>
-    <row r="19" spans="1:14" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="O18" s="1"/>
+    </row>
+    <row r="19" spans="1:15" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -2140,32 +2221,33 @@
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="E19" s="1"/>
+      <c r="F19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="H19" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1">
         <v>40.673388000000003</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <v>-73.970131199999997</v>
       </c>
-      <c r="K19" s="1" t="s">
+      <c r="L19" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L19" s="1"/>
-      <c r="M19" s="20" t="s">
+      <c r="M19" s="1"/>
+      <c r="N19" s="20" t="s">
         <v>248</v>
       </c>
-      <c r="N19" s="1"/>
-    </row>
-    <row r="20" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O19" s="1"/>
+    </row>
+    <row r="20" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>201</v>
       </c>
@@ -2178,34 +2260,37 @@
       <c r="D20" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E20" s="2" t="s">
+      <c r="E20" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F20" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="H20" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="H20" s="1"/>
-      <c r="I20" s="1">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1">
         <v>38.116871199999999</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <v>-122.4026746</v>
       </c>
-      <c r="K20" s="1" t="s">
+      <c r="L20" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L20" s="1"/>
-      <c r="M20" s="18" t="s">
+      <c r="M20" s="1"/>
+      <c r="N20" s="18" t="s">
         <v>262</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="O20" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2218,32 +2303,33 @@
       <c r="D21" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="2" t="s">
+      <c r="E21" s="1"/>
+      <c r="F21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="H21" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H21" s="1"/>
-      <c r="I21" s="1">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1">
         <v>40.746928599999997</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <v>-73.995262100000005</v>
       </c>
-      <c r="K21" s="1" t="s">
+      <c r="L21" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L21" s="1"/>
-      <c r="M21" s="7" t="s">
+      <c r="M21" s="1"/>
+      <c r="N21" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="N21" s="1"/>
-    </row>
-    <row r="22" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O21" s="1"/>
+    </row>
+    <row r="22" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>131</v>
       </c>
@@ -2256,32 +2342,33 @@
       <c r="D22" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="2" t="s">
+      <c r="E22" s="1"/>
+      <c r="F22" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="F22" s="1" t="s">
+      <c r="G22" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="H22" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H22" s="1"/>
-      <c r="I22" s="1">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1">
         <v>38.3292827</v>
       </c>
-      <c r="J22" s="1">
+      <c r="K22" s="1">
         <v>-122.7264224</v>
       </c>
-      <c r="K22" s="1" t="s">
+      <c r="L22" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L22" s="1"/>
-      <c r="M22" s="7" t="s">
+      <c r="M22" s="1"/>
+      <c r="N22" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="N22" s="1"/>
-    </row>
-    <row r="23" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O22" s="1"/>
+    </row>
+    <row r="23" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2294,30 +2381,31 @@
       <c r="D23" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="2" t="s">
+      <c r="E23" s="1"/>
+      <c r="F23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="H23" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="I23" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="I23" s="1"/>
       <c r="J23" s="1"/>
-      <c r="K23" s="1" t="s">
+      <c r="K23" s="1"/>
+      <c r="L23" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L23" s="1"/>
-      <c r="M23" s="7" t="s">
+      <c r="M23" s="1"/>
+      <c r="N23" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="N23" s="1"/>
-    </row>
-    <row r="24" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O23" s="1"/>
+    </row>
+    <row r="24" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2330,32 +2418,33 @@
       <c r="D24" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="E24" s="1"/>
+      <c r="F24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="H24" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H24" s="1"/>
-      <c r="I24" s="1">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1">
         <v>40.744409099999999</v>
       </c>
-      <c r="J24" s="1">
+      <c r="K24" s="1">
         <v>-73.989344200000005</v>
       </c>
-      <c r="K24" s="1" t="s">
+      <c r="L24" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L24" s="1"/>
-      <c r="M24" s="7" t="s">
+      <c r="M24" s="1"/>
+      <c r="N24" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="N24" s="1"/>
-    </row>
-    <row r="25" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O24" s="1"/>
+    </row>
+    <row r="25" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2368,32 +2457,33 @@
       <c r="D25" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="E25" s="1"/>
+      <c r="F25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F25" s="1" t="s">
+      <c r="G25" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="H25" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="H25" s="1"/>
-      <c r="I25" s="1">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1">
         <v>40.753600499999997</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1">
         <v>-73.985421299999999</v>
       </c>
-      <c r="K25" s="1" t="s">
+      <c r="L25" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L25" s="1"/>
-      <c r="M25" s="7" t="s">
+      <c r="M25" s="1"/>
+      <c r="N25" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="N25" s="1"/>
-    </row>
-    <row r="26" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O25" s="1"/>
+    </row>
+    <row r="26" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -2406,32 +2496,33 @@
       <c r="D26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="2" t="s">
+      <c r="E26" s="1"/>
+      <c r="F26" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="F26" s="1" t="s">
+      <c r="G26" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="H26" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="H26" s="1"/>
-      <c r="I26" s="1">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1">
         <v>40.718848000000001</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1">
         <v>-73.951768799999996</v>
       </c>
-      <c r="K26" s="1" t="s">
+      <c r="L26" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L26" s="1"/>
-      <c r="M26" s="7" t="s">
+      <c r="M26" s="1"/>
+      <c r="N26" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="N26" s="1"/>
-    </row>
-    <row r="27" spans="1:14" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="O26" s="1"/>
+    </row>
+    <row r="27" spans="1:15" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -2444,32 +2535,33 @@
       <c r="D27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="2" t="s">
+      <c r="E27" s="1"/>
+      <c r="F27" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="H27" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H27" s="1"/>
-      <c r="I27" s="1">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1">
         <v>40.741050899999998</v>
       </c>
-      <c r="J27" s="1">
+      <c r="K27" s="1">
         <v>-73.995106199999995</v>
       </c>
-      <c r="K27" s="1" t="s">
+      <c r="L27" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L27" s="1"/>
-      <c r="M27" s="21" t="s">
+      <c r="M27" s="1"/>
+      <c r="N27" s="21" t="s">
         <v>271</v>
       </c>
-      <c r="N27" s="1"/>
-    </row>
-    <row r="28" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O27" s="1"/>
+    </row>
+    <row r="28" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
@@ -2482,32 +2574,33 @@
       <c r="D28" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="E28" s="1"/>
+      <c r="F28" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="H28" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H28" s="1"/>
-      <c r="I28" s="1">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1">
         <v>42.453453099999997</v>
       </c>
-      <c r="J28" s="1">
+      <c r="K28" s="1">
         <v>-76.475691400000002</v>
       </c>
-      <c r="K28" s="1" t="s">
+      <c r="L28" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L28" s="1"/>
-      <c r="M28" s="7" t="s">
+      <c r="M28" s="1"/>
+      <c r="N28" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="N28" s="1"/>
-    </row>
-    <row r="29" spans="1:14" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="O28" s="1"/>
+    </row>
+    <row r="29" spans="1:15" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -2520,32 +2613,33 @@
       <c r="D29" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="2" t="s">
+      <c r="E29" s="1"/>
+      <c r="F29" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="1" t="s">
+      <c r="G29" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="H29" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H29" s="1"/>
-      <c r="I29" s="1">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1">
         <v>40.738852799999997</v>
       </c>
-      <c r="J29" s="1">
+      <c r="K29" s="1">
         <v>-73.991700499999993</v>
       </c>
-      <c r="K29" s="1" t="s">
+      <c r="L29" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L29" s="1"/>
-      <c r="M29" s="22" t="s">
+      <c r="M29" s="1"/>
+      <c r="N29" s="22" t="s">
         <v>263</v>
       </c>
-      <c r="N29" s="1"/>
-    </row>
-    <row r="30" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O29" s="1"/>
+    </row>
+    <row r="30" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -2558,32 +2652,33 @@
       <c r="D30" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F30" s="1" t="s">
+      <c r="G30" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="H30" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H30" s="1"/>
-      <c r="I30" s="1">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1">
         <v>41.103059000000002</v>
       </c>
-      <c r="J30" s="1">
+      <c r="K30" s="1">
         <v>-73.831280699999994</v>
       </c>
-      <c r="K30" s="1" t="s">
+      <c r="L30" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L30" s="1"/>
-      <c r="M30" s="7" t="s">
+      <c r="M30" s="1"/>
+      <c r="N30" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="N30" s="1"/>
-    </row>
-    <row r="31" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O30" s="1"/>
+    </row>
+    <row r="31" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2596,30 +2691,31 @@
       <c r="D31" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="2" t="s">
+      <c r="E31" s="1"/>
+      <c r="F31" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="1" t="s">
+      <c r="G31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="I31" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
-      <c r="K31" s="1" t="s">
+      <c r="K31" s="1"/>
+      <c r="L31" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L31" s="1"/>
-      <c r="M31" s="23" t="s">
+      <c r="M31" s="1"/>
+      <c r="N31" s="23" t="s">
         <v>265</v>
       </c>
-      <c r="N31" s="1"/>
-    </row>
-    <row r="32" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O31" s="1"/>
+    </row>
+    <row r="32" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -2632,32 +2728,33 @@
       <c r="D32" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="2" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="F32" s="1" t="s">
+      <c r="G32" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="H32" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1">
+      <c r="I32" s="1"/>
+      <c r="J32" s="1">
         <v>40.980346699999998</v>
       </c>
-      <c r="J32" s="1">
+      <c r="K32" s="1">
         <v>-74.161793900000006</v>
       </c>
-      <c r="K32" s="1" t="s">
+      <c r="L32" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L32" s="1"/>
-      <c r="M32" s="7" t="s">
+      <c r="M32" s="1"/>
+      <c r="N32" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="N32" s="1"/>
-    </row>
-    <row r="33" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O32" s="1"/>
+    </row>
+    <row r="33" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -2670,32 +2767,33 @@
       <c r="D33" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="2" t="s">
+      <c r="E33" s="1"/>
+      <c r="F33" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="1" t="s">
+      <c r="G33" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="H33" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H33" s="1"/>
-      <c r="I33" s="1">
+      <c r="I33" s="1"/>
+      <c r="J33" s="1">
         <v>40.6574034</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1">
         <v>-73.964279599999998</v>
       </c>
-      <c r="K33" s="1" t="s">
+      <c r="L33" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L33" s="1"/>
-      <c r="M33" s="7" t="s">
+      <c r="M33" s="1"/>
+      <c r="N33" s="7" t="s">
         <v>267</v>
       </c>
-      <c r="N33" s="1"/>
-    </row>
-    <row r="34" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O33" s="1"/>
+    </row>
+    <row r="34" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -2708,32 +2806,33 @@
       <c r="D34" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="E34" s="1"/>
+      <c r="F34" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="F34" s="1" t="s">
+      <c r="G34" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="H34" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H34" s="1"/>
-      <c r="I34" s="1">
+      <c r="I34" s="1"/>
+      <c r="J34" s="1">
         <v>40.722031800000003</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1">
         <v>-73.960265699999994</v>
       </c>
-      <c r="K34" s="1" t="s">
+      <c r="L34" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L34" s="1"/>
-      <c r="M34" s="7" t="s">
+      <c r="M34" s="1"/>
+      <c r="N34" s="7" t="s">
         <v>276</v>
       </c>
-      <c r="N34" s="1"/>
-    </row>
-    <row r="35" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O34" s="1"/>
+    </row>
+    <row r="35" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2746,32 +2845,33 @@
       <c r="D35" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E35" s="2" t="s">
+      <c r="E35" s="1"/>
+      <c r="F35" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="F35" s="1" t="s">
+      <c r="G35" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="H35" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H35" s="1"/>
-      <c r="I35" s="1">
+      <c r="I35" s="1"/>
+      <c r="J35" s="1">
         <v>40.703459700000003</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1">
         <v>-73.973968299999996</v>
       </c>
-      <c r="K35" s="1" t="s">
+      <c r="L35" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L35" s="1"/>
-      <c r="M35" s="7" t="s">
+      <c r="M35" s="1"/>
+      <c r="N35" s="7" t="s">
         <v>280</v>
       </c>
-      <c r="N35" s="1"/>
-    </row>
-    <row r="36" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O35" s="1"/>
+    </row>
+    <row r="36" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -2784,32 +2884,33 @@
       <c r="D36" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E36" s="2" t="s">
+      <c r="E36" s="1"/>
+      <c r="F36" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="F36" s="1" t="s">
+      <c r="G36" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="H36" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H36" s="1"/>
-      <c r="I36" s="1">
+      <c r="I36" s="1"/>
+      <c r="J36" s="1">
         <v>40.5953631</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1">
         <v>-73.778727700000005</v>
       </c>
-      <c r="K36" s="1" t="s">
+      <c r="L36" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="7" t="s">
+      <c r="M36" s="1"/>
+      <c r="N36" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="N36" s="1"/>
-    </row>
-    <row r="37" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O36" s="1"/>
+    </row>
+    <row r="37" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2822,32 +2923,33 @@
       <c r="D37" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="E37" s="1"/>
+      <c r="F37" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F37" s="1" t="s">
+      <c r="G37" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="H37" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="H37" s="1"/>
-      <c r="I37" s="1">
+      <c r="I37" s="1"/>
+      <c r="J37" s="1">
         <v>42.385263999999999</v>
       </c>
-      <c r="J37" s="1">
+      <c r="K37" s="1">
         <v>-77.029713900000004</v>
       </c>
-      <c r="K37" s="1" t="s">
+      <c r="L37" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="7" t="s">
+      <c r="M37" s="1"/>
+      <c r="N37" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="N37" s="1"/>
-    </row>
-    <row r="38" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O37" s="1"/>
+    </row>
+    <row r="38" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2860,32 +2962,33 @@
       <c r="D38" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="E38" s="2" t="s">
+      <c r="E38" s="1"/>
+      <c r="F38" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="F38" s="1" t="s">
+      <c r="G38" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="H38" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="H38" s="1"/>
-      <c r="I38" s="1">
+      <c r="I38" s="1"/>
+      <c r="J38" s="1">
         <v>40.7054817</v>
       </c>
-      <c r="J38" s="1">
+      <c r="K38" s="1">
         <v>-73.940463300000005</v>
       </c>
-      <c r="K38" s="1" t="s">
+      <c r="L38" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="7" t="s">
+      <c r="M38" s="1"/>
+      <c r="N38" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="N38" s="1"/>
-    </row>
-    <row r="39" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O38" s="1"/>
+    </row>
+    <row r="39" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -2898,26 +3001,27 @@
       <c r="D39" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E39" s="2" t="s">
+      <c r="E39" s="1"/>
+      <c r="F39" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G39" s="1"/>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
-      <c r="K39" s="1" t="s">
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L39" s="1"/>
-      <c r="M39" s="7" t="s">
+      <c r="M39" s="1"/>
+      <c r="N39" s="7" t="s">
         <v>282</v>
       </c>
-      <c r="N39" s="1"/>
-    </row>
-    <row r="40" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O39" s="1"/>
+    </row>
+    <row r="40" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -2930,26 +3034,27 @@
       <c r="D40" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1"/>
+      <c r="F40" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F40" s="1" t="s">
+      <c r="G40" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G40" s="1"/>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
-      <c r="K40" s="1" t="s">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L40" s="1"/>
-      <c r="M40" s="7" t="s">
+      <c r="M40" s="1"/>
+      <c r="N40" s="7" t="s">
         <v>281</v>
       </c>
-      <c r="N40" s="1"/>
-    </row>
-    <row r="41" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O40" s="1"/>
+    </row>
+    <row r="41" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
@@ -2962,26 +3067,27 @@
       <c r="D41" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E41" s="2" t="s">
+      <c r="E41" s="1"/>
+      <c r="F41" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="1" t="s">
+      <c r="G41" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
-      <c r="K41" s="1" t="s">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L41" s="1"/>
-      <c r="M41" s="7" t="s">
+      <c r="M41" s="1"/>
+      <c r="N41" s="7" t="s">
         <v>285</v>
       </c>
-      <c r="N41" s="1"/>
-    </row>
-    <row r="42" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O41" s="1"/>
+    </row>
+    <row r="42" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -2994,26 +3100,27 @@
       <c r="D42" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="E42" s="1"/>
+      <c r="F42" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F42" s="1" t="s">
+      <c r="G42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
-      <c r="K42" s="1" t="s">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L42" s="1"/>
-      <c r="M42" s="7" t="s">
+      <c r="M42" s="1"/>
+      <c r="N42" s="7" t="s">
         <v>284</v>
       </c>
-      <c r="N42" s="1"/>
-    </row>
-    <row r="43" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O42" s="1"/>
+    </row>
+    <row r="43" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -3026,26 +3133,27 @@
       <c r="D43" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="E43" s="2" t="s">
+      <c r="E43" s="1"/>
+      <c r="F43" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="F43" s="1" t="s">
+      <c r="G43" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
-      <c r="K43" s="1" t="s">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L43" s="1"/>
-      <c r="M43" s="7" t="s">
+      <c r="M43" s="1"/>
+      <c r="N43" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="N43" s="1"/>
-    </row>
-    <row r="44" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O43" s="1"/>
+    </row>
+    <row r="44" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -3059,21 +3167,22 @@
         <v>202</v>
       </c>
       <c r="E44" s="1"/>
-      <c r="F44" s="1" t="s">
+      <c r="F44" s="1"/>
+      <c r="G44" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G44" s="1"/>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
-      <c r="K44" s="1" t="s">
+      <c r="K44" s="1"/>
+      <c r="L44" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L44" s="1"/>
-      <c r="M44" s="7"/>
-      <c r="N44" s="1"/>
-    </row>
-    <row r="45" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M44" s="1"/>
+      <c r="N44" s="7"/>
+      <c r="O44" s="1"/>
+    </row>
+    <row r="45" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -3087,21 +3196,22 @@
         <v>202</v>
       </c>
       <c r="E45" s="1"/>
-      <c r="F45" s="1" t="s">
+      <c r="F45" s="1"/>
+      <c r="G45" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
-      <c r="K45" s="1" t="s">
+      <c r="K45" s="1"/>
+      <c r="L45" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L45" s="1"/>
-      <c r="M45" s="7"/>
-      <c r="N45" s="1"/>
-    </row>
-    <row r="46" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M45" s="1"/>
+      <c r="N45" s="7"/>
+      <c r="O45" s="1"/>
+    </row>
+    <row r="46" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>199</v>
       </c>
@@ -3115,21 +3225,22 @@
         <v>202</v>
       </c>
       <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
+      <c r="F46" s="1"/>
+      <c r="G46" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G46" s="1"/>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
-      <c r="K46" s="1" t="s">
+      <c r="K46" s="1"/>
+      <c r="L46" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L46" s="1"/>
-      <c r="M46" s="7"/>
-      <c r="N46" s="1"/>
-    </row>
-    <row r="47" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M46" s="1"/>
+      <c r="N46" s="7"/>
+      <c r="O46" s="1"/>
+    </row>
+    <row r="47" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>130</v>
       </c>
@@ -3143,21 +3254,22 @@
         <v>202</v>
       </c>
       <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
+      <c r="F47" s="1"/>
+      <c r="G47" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G47" s="1"/>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
-      <c r="K47" s="1" t="s">
+      <c r="K47" s="1"/>
+      <c r="L47" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L47" s="1"/>
-      <c r="M47" s="7"/>
-      <c r="N47" s="1"/>
-    </row>
-    <row r="48" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M47" s="1"/>
+      <c r="N47" s="7"/>
+      <c r="O47" s="1"/>
+    </row>
+    <row r="48" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>200</v>
       </c>
@@ -3171,21 +3283,22 @@
         <v>202</v>
       </c>
       <c r="E48" s="1"/>
-      <c r="F48" s="1" t="s">
+      <c r="F48" s="1"/>
+      <c r="G48" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G48" s="1"/>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
-      <c r="K48" s="1" t="s">
+      <c r="K48" s="1"/>
+      <c r="L48" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L48" s="1"/>
-      <c r="M48" s="7"/>
-      <c r="N48" s="1"/>
-    </row>
-    <row r="49" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M48" s="1"/>
+      <c r="N48" s="7"/>
+      <c r="O48" s="1"/>
+    </row>
+    <row r="49" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>198</v>
       </c>
@@ -3199,21 +3312,22 @@
         <v>202</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1" t="s">
+      <c r="F49" s="1"/>
+      <c r="G49" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G49" s="1"/>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
-      <c r="K49" s="1" t="s">
+      <c r="K49" s="1"/>
+      <c r="L49" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L49" s="1"/>
-      <c r="M49" s="7"/>
-      <c r="N49" s="1"/>
-    </row>
-    <row r="50" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="M49" s="1"/>
+      <c r="N49" s="7"/>
+      <c r="O49" s="1"/>
+    </row>
+    <row r="50" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3226,26 +3340,27 @@
       <c r="D50" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1"/>
+      <c r="F50" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F50" s="1" t="s">
+      <c r="G50" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G50" s="1"/>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
-      <c r="K50" s="1" t="s">
+      <c r="K50" s="1"/>
+      <c r="L50" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L50" s="1"/>
-      <c r="M50" s="7" t="s">
+      <c r="M50" s="1"/>
+      <c r="N50" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="N50" s="1"/>
-    </row>
-    <row r="51" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O50" s="1"/>
+    </row>
+    <row r="51" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -3258,26 +3373,27 @@
       <c r="D51" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E51" s="2" t="s">
+      <c r="E51" s="1"/>
+      <c r="F51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G51" s="1"/>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
-      <c r="K51" s="1" t="s">
+      <c r="K51" s="1"/>
+      <c r="L51" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L51" s="1"/>
-      <c r="M51" s="7" t="s">
+      <c r="M51" s="1"/>
+      <c r="N51" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="N51" s="1"/>
-    </row>
-    <row r="52" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O51" s="1"/>
+    </row>
+    <row r="52" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -3290,26 +3406,27 @@
       <c r="D52" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E52" s="2" t="s">
+      <c r="E52" s="1"/>
+      <c r="F52" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="F52" s="1" t="s">
+      <c r="G52" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
-      <c r="K52" s="1" t="s">
+      <c r="K52" s="1"/>
+      <c r="L52" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L52" s="1"/>
-      <c r="M52" s="7" t="s">
+      <c r="M52" s="1"/>
+      <c r="N52" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="N52" s="1"/>
-    </row>
-    <row r="53" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O52" s="1"/>
+    </row>
+    <row r="53" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
@@ -3322,26 +3439,27 @@
       <c r="D53" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="E53" s="1"/>
+      <c r="F53" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="F53" s="1" t="s">
+      <c r="G53" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
-      <c r="K53" s="1" t="s">
+      <c r="K53" s="1"/>
+      <c r="L53" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="7" t="s">
+      <c r="M53" s="1"/>
+      <c r="N53" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="N53" s="1"/>
-    </row>
-    <row r="54" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O53" s="1"/>
+    </row>
+    <row r="54" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
@@ -3354,26 +3472,27 @@
       <c r="D54" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="E54" s="2" t="s">
+      <c r="E54" s="1"/>
+      <c r="F54" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="F54" s="1" t="s">
+      <c r="G54" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
       <c r="J54" s="1"/>
-      <c r="K54" s="1" t="s">
+      <c r="K54" s="1"/>
+      <c r="L54" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="7" t="s">
+      <c r="M54" s="1"/>
+      <c r="N54" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="N54" s="1"/>
-    </row>
-    <row r="55" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O54" s="1"/>
+    </row>
+    <row r="55" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -3386,34 +3505,35 @@
       <c r="D55" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="E55" s="1"/>
+      <c r="F55" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="F55" s="1" t="s">
+      <c r="G55" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="H55" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H55" s="1"/>
-      <c r="I55" s="1">
+      <c r="I55" s="1"/>
+      <c r="J55" s="1">
         <v>40.690819900000001</v>
       </c>
-      <c r="J55" s="1">
+      <c r="K55" s="1">
         <v>-74.022680699999995</v>
       </c>
-      <c r="K55" s="1" t="s">
+      <c r="L55" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="M55" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="M55" s="7" t="s">
+      <c r="N55" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="N55" s="1"/>
-    </row>
-    <row r="56" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O55" s="1"/>
+    </row>
+    <row r="56" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
@@ -3426,32 +3546,33 @@
       <c r="D56" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E56" s="2" t="s">
+      <c r="E56" s="1"/>
+      <c r="F56" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="F56" s="1" t="s">
+      <c r="G56" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="H56" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="H56" s="1"/>
-      <c r="I56" s="1">
+      <c r="I56" s="1"/>
+      <c r="J56" s="1">
         <v>40.687550000000002</v>
       </c>
-      <c r="J56" s="1">
+      <c r="K56" s="1">
         <v>-73.962578699999995</v>
       </c>
-      <c r="K56" s="1" t="s">
+      <c r="L56" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="7" t="s">
+      <c r="M56" s="1"/>
+      <c r="N56" s="7" t="s">
         <v>295</v>
       </c>
-      <c r="N56" s="1"/>
-    </row>
-    <row r="57" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O56" s="1"/>
+    </row>
+    <row r="57" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
@@ -3464,24 +3585,25 @@
       <c r="D57" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E57" s="2" t="s">
+      <c r="E57" s="1"/>
+      <c r="F57" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="F57" s="1"/>
       <c r="G57" s="1"/>
       <c r="H57" s="1"/>
       <c r="I57" s="1"/>
       <c r="J57" s="1"/>
-      <c r="K57" s="1" t="s">
+      <c r="K57" s="1"/>
+      <c r="L57" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="7" t="s">
+      <c r="M57" s="1"/>
+      <c r="N57" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="N57" s="1"/>
-    </row>
-    <row r="58" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O57" s="1"/>
+    </row>
+    <row r="58" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>233</v>
       </c>
@@ -3494,34 +3616,35 @@
       <c r="D58" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E58" s="2" t="s">
+      <c r="E58" s="1"/>
+      <c r="F58" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F58" s="1" t="s">
+      <c r="G58" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="H58" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="H58" s="1"/>
-      <c r="I58" s="1">
+      <c r="I58" s="1"/>
+      <c r="J58" s="1">
         <v>40.689577</v>
       </c>
-      <c r="J58" s="1">
+      <c r="K58" s="1">
         <v>-74.023066</v>
       </c>
-      <c r="K58" s="1" t="s">
+      <c r="L58" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L58" s="1"/>
-      <c r="M58" s="7" t="s">
+      <c r="M58" s="1"/>
+      <c r="N58" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="O58" s="1" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="59" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>205</v>
       </c>
@@ -3534,28 +3657,29 @@
       <c r="D59" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E59" s="2" t="s">
+      <c r="E59" s="1"/>
+      <c r="F59" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="F59" s="1" t="s">
+      <c r="G59" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="H59" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="H59" s="1"/>
       <c r="I59" s="1"/>
       <c r="J59" s="1"/>
-      <c r="K59" s="1" t="s">
+      <c r="K59" s="1"/>
+      <c r="L59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="L59" s="1"/>
-      <c r="M59" s="7" t="s">
+      <c r="M59" s="1"/>
+      <c r="N59" s="7" t="s">
         <v>296</v>
       </c>
-      <c r="N59" s="1"/>
-    </row>
-    <row r="60" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O59" s="1"/>
+    </row>
+    <row r="60" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>80</v>
       </c>
@@ -3568,30 +3692,31 @@
       <c r="D60" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="E60" s="2" t="s">
+      <c r="E60" s="1"/>
+      <c r="F60" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="G60" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="H60" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="I60" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="I60" s="1"/>
       <c r="J60" s="1"/>
-      <c r="K60" s="1" t="s">
+      <c r="K60" s="1"/>
+      <c r="L60" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L60" s="1"/>
-      <c r="M60" s="7" t="s">
+      <c r="M60" s="1"/>
+      <c r="N60" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="N60" s="1"/>
-    </row>
-    <row r="61" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O60" s="1"/>
+    </row>
+    <row r="61" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -3604,34 +3729,35 @@
       <c r="D61" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E61" s="2" t="s">
+      <c r="E61" s="1"/>
+      <c r="F61" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="F61" s="1" t="s">
+      <c r="G61" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="H61" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H61" s="1"/>
-      <c r="I61" s="1">
+      <c r="I61" s="1"/>
+      <c r="J61" s="1">
         <v>40.799954399999997</v>
       </c>
-      <c r="J61" s="1">
+      <c r="K61" s="1">
         <v>-73.9414886</v>
       </c>
-      <c r="K61" s="1" t="s">
+      <c r="L61" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="M61" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="M61" s="7" t="s">
+      <c r="N61" s="7" t="s">
         <v>298</v>
       </c>
-      <c r="N61" s="1"/>
-    </row>
-    <row r="62" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O61" s="1"/>
+    </row>
+    <row r="62" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>110</v>
       </c>
@@ -3644,34 +3770,35 @@
       <c r="D62" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E62" s="2" t="s">
+      <c r="E62" s="1"/>
+      <c r="F62" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="F62" s="1" t="s">
+      <c r="G62" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="H62" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H62" s="1"/>
-      <c r="I62" s="1">
+      <c r="I62" s="1"/>
+      <c r="J62" s="1">
         <v>40.807497300000001</v>
       </c>
-      <c r="J62" s="1">
+      <c r="K62" s="1">
         <v>-73.946339100000003</v>
       </c>
-      <c r="K62" s="1" t="s">
+      <c r="L62" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="M62" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="M62" s="7" t="s">
+      <c r="N62" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="N62" s="1"/>
-    </row>
-    <row r="63" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O62" s="1"/>
+    </row>
+    <row r="63" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>91</v>
       </c>
@@ -3684,34 +3811,35 @@
       <c r="D63" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E63" s="2" t="s">
+      <c r="E63" s="1"/>
+      <c r="F63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="F63" s="1" t="s">
+      <c r="G63" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H63" s="1"/>
-      <c r="I63" s="1">
+      <c r="I63" s="1"/>
+      <c r="J63" s="1">
         <v>-33.9222082</v>
       </c>
-      <c r="J63" s="1">
+      <c r="K63" s="1">
         <v>18.4198153</v>
       </c>
-      <c r="K63" s="1" t="s">
+      <c r="L63" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="M63" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="M63" s="7" t="s">
+      <c r="N63" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="N63" s="1"/>
-    </row>
-    <row r="64" spans="1:14" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="O63" s="1"/>
+    </row>
+    <row r="64" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -3724,32 +3852,33 @@
       <c r="D64" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E64" s="2" t="s">
+      <c r="E64" s="1"/>
+      <c r="F64" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F64" s="1" t="s">
+      <c r="G64" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="H64" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H64" s="1"/>
-      <c r="I64" s="1">
+      <c r="I64" s="1"/>
+      <c r="J64" s="1">
         <v>40.810788700000003</v>
       </c>
-      <c r="J64" s="1">
+      <c r="K64" s="1">
         <v>-73.965878000000004</v>
       </c>
-      <c r="K64" s="1" t="s">
+      <c r="L64" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="L64" s="1"/>
-      <c r="M64" s="7" t="s">
+      <c r="M64" s="1"/>
+      <c r="N64" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="N64" s="1"/>
-    </row>
-    <row r="65" spans="1:14" ht="17" x14ac:dyDescent="0.2">
+      <c r="O64" s="1"/>
+    </row>
+    <row r="65" spans="1:15" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>99</v>
       </c>
@@ -3762,101 +3891,2877 @@
       <c r="D65" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="E65" s="2" t="s">
+      <c r="E65" s="1"/>
+      <c r="F65" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="F65" s="1" t="s">
+      <c r="G65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="H65" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="H65" s="1"/>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
-      <c r="K65" s="1" t="s">
+      <c r="K65" s="1"/>
+      <c r="L65" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="L65" s="1"/>
-      <c r="M65" s="7" t="s">
+      <c r="M65" s="1"/>
+      <c r="N65" s="7" t="s">
         <v>300</v>
       </c>
-      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+    </row>
+    <row r="66" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E70" s="1"/>
+    </row>
+    <row r="71" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E71" s="1"/>
+    </row>
+    <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E72" s="1"/>
+    </row>
+    <row r="73" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E73" s="1"/>
+    </row>
+    <row r="74" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E74" s="1"/>
+    </row>
+    <row r="75" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E75" s="1"/>
+    </row>
+    <row r="76" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E76" s="1"/>
+    </row>
+    <row r="77" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E77" s="1"/>
+    </row>
+    <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E78" s="1"/>
+    </row>
+    <row r="79" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E79" s="1"/>
+    </row>
+    <row r="80" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="E80" s="1"/>
+    </row>
+    <row r="81" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E81" s="1"/>
+    </row>
+    <row r="82" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E82" s="1"/>
+    </row>
+    <row r="83" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E83" s="1"/>
+    </row>
+    <row r="84" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E84" s="1"/>
+    </row>
+    <row r="85" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E85" s="1"/>
+    </row>
+    <row r="86" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E86" s="1"/>
+    </row>
+    <row r="87" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E87" s="1"/>
+    </row>
+    <row r="88" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E88" s="1"/>
+    </row>
+    <row r="89" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E89" s="1"/>
+    </row>
+    <row r="90" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E90" s="1"/>
+    </row>
+    <row r="91" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E91" s="1"/>
+    </row>
+    <row r="92" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E92" s="1"/>
+    </row>
+    <row r="93" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E93" s="1"/>
+    </row>
+    <row r="94" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E94" s="1"/>
+    </row>
+    <row r="95" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E95" s="1"/>
+    </row>
+    <row r="96" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E96" s="1"/>
+    </row>
+    <row r="97" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E97" s="1"/>
+    </row>
+    <row r="98" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E98" s="1"/>
+    </row>
+    <row r="99" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E99" s="1"/>
+    </row>
+    <row r="100" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E100" s="1"/>
+    </row>
+    <row r="101" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E101" s="1"/>
+    </row>
+    <row r="102" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E102" s="1"/>
+    </row>
+    <row r="103" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E103" s="1"/>
+    </row>
+    <row r="104" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E104" s="1"/>
+    </row>
+    <row r="105" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E105" s="1"/>
+    </row>
+    <row r="106" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E106" s="1"/>
+    </row>
+    <row r="107" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E107" s="1"/>
+    </row>
+    <row r="108" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E108" s="1"/>
+    </row>
+    <row r="109" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E109" s="1"/>
+    </row>
+    <row r="110" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E110" s="1"/>
+    </row>
+    <row r="111" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E111" s="1"/>
+    </row>
+    <row r="112" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E112" s="1"/>
+    </row>
+    <row r="113" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E113" s="1"/>
+    </row>
+    <row r="114" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E114" s="1"/>
+    </row>
+    <row r="115" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E115" s="1"/>
+    </row>
+    <row r="116" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E116" s="1"/>
+    </row>
+    <row r="117" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E117" s="1"/>
+    </row>
+    <row r="118" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E118" s="1"/>
+    </row>
+    <row r="119" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E119" s="1"/>
+    </row>
+    <row r="120" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E120" s="1"/>
+    </row>
+    <row r="121" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E121" s="1"/>
+    </row>
+    <row r="122" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E122" s="1"/>
+    </row>
+    <row r="123" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E123" s="1"/>
+    </row>
+    <row r="124" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E124" s="1"/>
+    </row>
+    <row r="125" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E125" s="1"/>
+    </row>
+    <row r="126" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E126" s="1"/>
+    </row>
+    <row r="127" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E127" s="1"/>
+    </row>
+    <row r="128" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E128" s="1"/>
+    </row>
+    <row r="129" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E129" s="1"/>
+    </row>
+    <row r="130" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E130" s="1"/>
+    </row>
+    <row r="131" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E131" s="1"/>
+    </row>
+    <row r="132" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E132" s="1"/>
+    </row>
+    <row r="133" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E133" s="1"/>
+    </row>
+    <row r="134" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E134" s="1"/>
+    </row>
+    <row r="135" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E135" s="1"/>
+    </row>
+    <row r="136" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E136" s="1"/>
+    </row>
+    <row r="137" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E137" s="1"/>
+    </row>
+    <row r="138" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E138" s="1"/>
+    </row>
+    <row r="139" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E139" s="1"/>
+    </row>
+    <row r="140" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E140" s="1"/>
+    </row>
+    <row r="141" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E141" s="1"/>
+    </row>
+    <row r="142" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E142" s="1"/>
+    </row>
+    <row r="143" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E143" s="1"/>
+    </row>
+    <row r="144" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E144" s="1"/>
+    </row>
+    <row r="145" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E145" s="1"/>
+    </row>
+    <row r="146" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E146" s="1"/>
+    </row>
+    <row r="147" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E147" s="1"/>
+    </row>
+    <row r="148" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E148" s="1"/>
+    </row>
+    <row r="149" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E149" s="1"/>
+    </row>
+    <row r="150" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E150" s="1"/>
+    </row>
+    <row r="151" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E151" s="1"/>
+    </row>
+    <row r="152" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E152" s="1"/>
+    </row>
+    <row r="153" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E153" s="1"/>
+    </row>
+    <row r="154" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E154" s="1"/>
+    </row>
+    <row r="155" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E155" s="1"/>
+    </row>
+    <row r="156" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E156" s="1"/>
+    </row>
+    <row r="157" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E157" s="1"/>
+    </row>
+    <row r="158" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E158" s="1"/>
+    </row>
+    <row r="159" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E159" s="1"/>
+    </row>
+    <row r="160" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E160" s="1"/>
+    </row>
+    <row r="161" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E161" s="1"/>
+    </row>
+    <row r="162" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E162" s="1"/>
+    </row>
+    <row r="163" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E163" s="1"/>
+    </row>
+    <row r="164" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E164" s="1"/>
+    </row>
+    <row r="165" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E165" s="1"/>
+    </row>
+    <row r="166" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E166" s="1"/>
+    </row>
+    <row r="167" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E167" s="1"/>
+    </row>
+    <row r="168" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E168" s="1"/>
+    </row>
+    <row r="169" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E169" s="1"/>
+    </row>
+    <row r="170" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E170" s="1"/>
+    </row>
+    <row r="171" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E171" s="1"/>
+    </row>
+    <row r="172" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E172" s="1"/>
+    </row>
+    <row r="173" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E173" s="1"/>
+    </row>
+    <row r="174" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E174" s="1"/>
+    </row>
+    <row r="175" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E175" s="1"/>
+    </row>
+    <row r="176" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E176" s="1"/>
+    </row>
+    <row r="177" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E177" s="1"/>
+    </row>
+    <row r="178" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E178" s="1"/>
+    </row>
+    <row r="179" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E179" s="1"/>
+    </row>
+    <row r="180" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E180" s="1"/>
+    </row>
+    <row r="181" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E181" s="1"/>
+    </row>
+    <row r="182" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E182" s="1"/>
+    </row>
+    <row r="183" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E183" s="1"/>
+    </row>
+    <row r="184" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E184" s="1"/>
+    </row>
+    <row r="185" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E185" s="1"/>
+    </row>
+    <row r="186" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E186" s="1"/>
+    </row>
+    <row r="187" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E187" s="1"/>
+    </row>
+    <row r="188" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E188" s="1"/>
+    </row>
+    <row r="189" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E189" s="1"/>
+    </row>
+    <row r="190" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E190" s="1"/>
+    </row>
+    <row r="191" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E191" s="1"/>
+    </row>
+    <row r="192" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E192" s="1"/>
+    </row>
+    <row r="193" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E193" s="1"/>
+    </row>
+    <row r="194" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E194" s="1"/>
+    </row>
+    <row r="195" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E195" s="1"/>
+    </row>
+    <row r="196" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E196" s="1"/>
+    </row>
+    <row r="197" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E197" s="1"/>
+    </row>
+    <row r="198" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E198" s="1"/>
+    </row>
+    <row r="199" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E199" s="1"/>
+    </row>
+    <row r="200" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E200" s="1"/>
+    </row>
+    <row r="201" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E201" s="1"/>
+    </row>
+    <row r="202" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E202" s="1"/>
+    </row>
+    <row r="203" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E203" s="1"/>
+    </row>
+    <row r="204" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E204" s="1"/>
+    </row>
+    <row r="205" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E205" s="1"/>
+    </row>
+    <row r="206" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E206" s="1"/>
+    </row>
+    <row r="207" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E207" s="1"/>
+    </row>
+    <row r="208" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E208" s="1"/>
+    </row>
+    <row r="209" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E209" s="1"/>
+    </row>
+    <row r="210" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E210" s="1"/>
+    </row>
+    <row r="211" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E211" s="1"/>
+    </row>
+    <row r="212" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E212" s="1"/>
+    </row>
+    <row r="213" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E213" s="1"/>
+    </row>
+    <row r="214" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E214" s="1"/>
+    </row>
+    <row r="215" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E215" s="1"/>
+    </row>
+    <row r="216" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E216" s="1"/>
+    </row>
+    <row r="217" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E217" s="1"/>
+    </row>
+    <row r="218" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E218" s="1"/>
+    </row>
+    <row r="219" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E219" s="1"/>
+    </row>
+    <row r="220" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E220" s="1"/>
+    </row>
+    <row r="221" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E222" s="1"/>
+    </row>
+    <row r="223" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E223" s="1"/>
+    </row>
+    <row r="224" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E224" s="1"/>
+    </row>
+    <row r="225" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E225" s="1"/>
+    </row>
+    <row r="226" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E226" s="1"/>
+    </row>
+    <row r="227" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E227" s="1"/>
+    </row>
+    <row r="228" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E228" s="1"/>
+    </row>
+    <row r="229" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E229" s="1"/>
+    </row>
+    <row r="230" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E230" s="1"/>
+    </row>
+    <row r="231" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E231" s="1"/>
+    </row>
+    <row r="232" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E232" s="1"/>
+    </row>
+    <row r="233" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E233" s="1"/>
+    </row>
+    <row r="234" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E234" s="1"/>
+    </row>
+    <row r="235" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E235" s="1"/>
+    </row>
+    <row r="236" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E236" s="1"/>
+    </row>
+    <row r="237" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E237" s="1"/>
+    </row>
+    <row r="238" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E238" s="1"/>
+    </row>
+    <row r="239" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E239" s="1"/>
+    </row>
+    <row r="240" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E240" s="1"/>
+    </row>
+    <row r="241" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E241" s="1"/>
+    </row>
+    <row r="242" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E242" s="1"/>
+    </row>
+    <row r="243" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E243" s="1"/>
+    </row>
+    <row r="244" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E245" s="1"/>
+    </row>
+    <row r="246" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E246" s="1"/>
+    </row>
+    <row r="247" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E247" s="1"/>
+    </row>
+    <row r="248" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E248" s="1"/>
+    </row>
+    <row r="249" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E249" s="1"/>
+    </row>
+    <row r="250" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E250" s="1"/>
+    </row>
+    <row r="251" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E251" s="1"/>
+    </row>
+    <row r="252" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E252" s="1"/>
+    </row>
+    <row r="253" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E253" s="1"/>
+    </row>
+    <row r="254" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E255" s="1"/>
+    </row>
+    <row r="256" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E256" s="1"/>
+    </row>
+    <row r="257" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E257" s="1"/>
+    </row>
+    <row r="258" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E258" s="1"/>
+    </row>
+    <row r="259" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E259" s="1"/>
+    </row>
+    <row r="260" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E260" s="1"/>
+    </row>
+    <row r="261" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E261" s="1"/>
+    </row>
+    <row r="262" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E262" s="1"/>
+    </row>
+    <row r="263" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E263" s="1"/>
+    </row>
+    <row r="264" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E264" s="1"/>
+    </row>
+    <row r="265" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E265" s="1"/>
+    </row>
+    <row r="266" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E266" s="1"/>
+    </row>
+    <row r="267" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E267" s="1"/>
+    </row>
+    <row r="268" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E268" s="1"/>
+    </row>
+    <row r="269" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E269" s="1"/>
+    </row>
+    <row r="270" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E270" s="1"/>
+    </row>
+    <row r="271" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E271" s="1"/>
+    </row>
+    <row r="272" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E272" s="1"/>
+    </row>
+    <row r="273" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E273" s="1"/>
+    </row>
+    <row r="274" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E274" s="1"/>
+    </row>
+    <row r="275" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E275" s="1"/>
+    </row>
+    <row r="276" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E276" s="1"/>
+    </row>
+    <row r="277" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E277" s="1"/>
+    </row>
+    <row r="278" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E278" s="1"/>
+    </row>
+    <row r="279" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E279" s="1"/>
+    </row>
+    <row r="280" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E280" s="1"/>
+    </row>
+    <row r="281" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E281" s="1"/>
+    </row>
+    <row r="282" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E282" s="1"/>
+    </row>
+    <row r="283" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E283" s="1"/>
+    </row>
+    <row r="284" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E284" s="1"/>
+    </row>
+    <row r="285" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E286" s="1"/>
+    </row>
+    <row r="287" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E287" s="1"/>
+    </row>
+    <row r="288" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E288" s="1"/>
+    </row>
+    <row r="289" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E289" s="1"/>
+    </row>
+    <row r="290" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E290" s="1"/>
+    </row>
+    <row r="291" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E291" s="1"/>
+    </row>
+    <row r="292" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E292" s="1"/>
+    </row>
+    <row r="293" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E293" s="1"/>
+    </row>
+    <row r="294" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E294" s="1"/>
+    </row>
+    <row r="295" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E295" s="1"/>
+    </row>
+    <row r="296" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E296" s="1"/>
+    </row>
+    <row r="297" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E297" s="1"/>
+    </row>
+    <row r="298" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E298" s="1"/>
+    </row>
+    <row r="299" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E299" s="1"/>
+    </row>
+    <row r="300" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E300" s="1"/>
+    </row>
+    <row r="301" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E301" s="1"/>
+    </row>
+    <row r="302" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E302" s="1"/>
+    </row>
+    <row r="303" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E303" s="1"/>
+    </row>
+    <row r="304" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E304" s="1"/>
+    </row>
+    <row r="305" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E305" s="1"/>
+    </row>
+    <row r="306" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E306" s="1"/>
+    </row>
+    <row r="307" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E307" s="1"/>
+    </row>
+    <row r="308" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E308" s="1"/>
+    </row>
+    <row r="309" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E309" s="1"/>
+    </row>
+    <row r="310" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E310" s="1"/>
+    </row>
+    <row r="311" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E311" s="1"/>
+    </row>
+    <row r="312" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E312" s="1"/>
+    </row>
+    <row r="313" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E313" s="1"/>
+    </row>
+    <row r="314" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E314" s="1"/>
+    </row>
+    <row r="315" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E315" s="1"/>
+    </row>
+    <row r="316" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E316" s="1"/>
+    </row>
+    <row r="317" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E317" s="1"/>
+    </row>
+    <row r="318" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E318" s="1"/>
+    </row>
+    <row r="319" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E319" s="1"/>
+    </row>
+    <row r="320" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E320" s="1"/>
+    </row>
+    <row r="321" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E321" s="1"/>
+    </row>
+    <row r="322" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E322" s="1"/>
+    </row>
+    <row r="323" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E323" s="1"/>
+    </row>
+    <row r="324" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E324" s="1"/>
+    </row>
+    <row r="325" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E325" s="1"/>
+    </row>
+    <row r="326" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E326" s="1"/>
+    </row>
+    <row r="327" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E327" s="1"/>
+    </row>
+    <row r="328" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E328" s="1"/>
+    </row>
+    <row r="329" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E329" s="1"/>
+    </row>
+    <row r="330" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E330" s="1"/>
+    </row>
+    <row r="331" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E331" s="1"/>
+    </row>
+    <row r="332" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E332" s="1"/>
+    </row>
+    <row r="333" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E333" s="1"/>
+    </row>
+    <row r="334" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E334" s="1"/>
+    </row>
+    <row r="335" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E335" s="1"/>
+    </row>
+    <row r="336" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E336" s="1"/>
+    </row>
+    <row r="337" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E337" s="1"/>
+    </row>
+    <row r="338" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E338" s="1"/>
+    </row>
+    <row r="339" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E339" s="1"/>
+    </row>
+    <row r="340" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E340" s="1"/>
+    </row>
+    <row r="341" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E341" s="1"/>
+    </row>
+    <row r="342" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E342" s="1"/>
+    </row>
+    <row r="343" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E343" s="1"/>
+    </row>
+    <row r="344" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E344" s="1"/>
+    </row>
+    <row r="345" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E345" s="1"/>
+    </row>
+    <row r="346" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E346" s="1"/>
+    </row>
+    <row r="347" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E347" s="1"/>
+    </row>
+    <row r="348" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E348" s="1"/>
+    </row>
+    <row r="349" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E349" s="1"/>
+    </row>
+    <row r="350" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E350" s="1"/>
+    </row>
+    <row r="351" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E351" s="1"/>
+    </row>
+    <row r="352" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E352" s="1"/>
+    </row>
+    <row r="353" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E353" s="1"/>
+    </row>
+    <row r="354" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E354" s="1"/>
+    </row>
+    <row r="355" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E355" s="1"/>
+    </row>
+    <row r="356" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E356" s="1"/>
+    </row>
+    <row r="357" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E357" s="1"/>
+    </row>
+    <row r="358" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E358" s="1"/>
+    </row>
+    <row r="359" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E359" s="1"/>
+    </row>
+    <row r="360" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E360" s="1"/>
+    </row>
+    <row r="361" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E361" s="1"/>
+    </row>
+    <row r="362" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E362" s="1"/>
+    </row>
+    <row r="363" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E363" s="1"/>
+    </row>
+    <row r="364" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E364" s="1"/>
+    </row>
+    <row r="365" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E365" s="1"/>
+    </row>
+    <row r="366" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E366" s="1"/>
+    </row>
+    <row r="367" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E367" s="1"/>
+    </row>
+    <row r="368" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E368" s="1"/>
+    </row>
+    <row r="369" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E369" s="1"/>
+    </row>
+    <row r="370" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E370" s="1"/>
+    </row>
+    <row r="371" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E371" s="1"/>
+    </row>
+    <row r="372" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E372" s="1"/>
+    </row>
+    <row r="373" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E373" s="1"/>
+    </row>
+    <row r="374" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E374" s="1"/>
+    </row>
+    <row r="375" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E375" s="1"/>
+    </row>
+    <row r="376" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E376" s="1"/>
+    </row>
+    <row r="377" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E377" s="1"/>
+    </row>
+    <row r="378" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E378" s="1"/>
+    </row>
+    <row r="379" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E379" s="1"/>
+    </row>
+    <row r="380" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E380" s="1"/>
+    </row>
+    <row r="381" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E381" s="1"/>
+    </row>
+    <row r="382" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E382" s="1"/>
+    </row>
+    <row r="383" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E383" s="1"/>
+    </row>
+    <row r="384" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E384" s="1"/>
+    </row>
+    <row r="385" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E385" s="1"/>
+    </row>
+    <row r="386" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E386" s="1"/>
+    </row>
+    <row r="387" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E387" s="1"/>
+    </row>
+    <row r="388" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E388" s="1"/>
+    </row>
+    <row r="389" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E389" s="1"/>
+    </row>
+    <row r="390" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E390" s="1"/>
+    </row>
+    <row r="391" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E391" s="1"/>
+    </row>
+    <row r="392" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E392" s="1"/>
+    </row>
+    <row r="393" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E393" s="1"/>
+    </row>
+    <row r="394" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E394" s="1"/>
+    </row>
+    <row r="395" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E395" s="1"/>
+    </row>
+    <row r="396" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E396" s="1"/>
+    </row>
+    <row r="397" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E397" s="1"/>
+    </row>
+    <row r="398" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E398" s="1"/>
+    </row>
+    <row r="399" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E399" s="1"/>
+    </row>
+    <row r="400" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E400" s="1"/>
+    </row>
+    <row r="401" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E401" s="1"/>
+    </row>
+    <row r="402" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E402" s="1"/>
+    </row>
+    <row r="403" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E403" s="1"/>
+    </row>
+    <row r="404" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E404" s="1"/>
+    </row>
+    <row r="405" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E405" s="1"/>
+    </row>
+    <row r="406" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E406" s="1"/>
+    </row>
+    <row r="407" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E407" s="1"/>
+    </row>
+    <row r="408" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E408" s="1"/>
+    </row>
+    <row r="409" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E409" s="1"/>
+    </row>
+    <row r="410" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E410" s="1"/>
+    </row>
+    <row r="411" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E411" s="1"/>
+    </row>
+    <row r="412" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E412" s="1"/>
+    </row>
+    <row r="413" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E413" s="1"/>
+    </row>
+    <row r="414" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E414" s="1"/>
+    </row>
+    <row r="415" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E415" s="1"/>
+    </row>
+    <row r="416" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E416" s="1"/>
+    </row>
+    <row r="417" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E417" s="1"/>
+    </row>
+    <row r="418" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E418" s="1"/>
+    </row>
+    <row r="419" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E419" s="1"/>
+    </row>
+    <row r="420" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E420" s="1"/>
+    </row>
+    <row r="421" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E421" s="1"/>
+    </row>
+    <row r="422" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E422" s="1"/>
+    </row>
+    <row r="423" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E423" s="1"/>
+    </row>
+    <row r="424" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E424" s="1"/>
+    </row>
+    <row r="425" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E425" s="1"/>
+    </row>
+    <row r="426" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E426" s="1"/>
+    </row>
+    <row r="427" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E427" s="1"/>
+    </row>
+    <row r="428" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E428" s="1"/>
+    </row>
+    <row r="429" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E429" s="1"/>
+    </row>
+    <row r="430" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E430" s="1"/>
+    </row>
+    <row r="431" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E431" s="1"/>
+    </row>
+    <row r="432" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E432" s="1"/>
+    </row>
+    <row r="433" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E433" s="1"/>
+    </row>
+    <row r="434" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E434" s="1"/>
+    </row>
+    <row r="435" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E435" s="1"/>
+    </row>
+    <row r="436" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E436" s="1"/>
+    </row>
+    <row r="437" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E437" s="1"/>
+    </row>
+    <row r="438" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E438" s="1"/>
+    </row>
+    <row r="439" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E439" s="1"/>
+    </row>
+    <row r="440" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E440" s="1"/>
+    </row>
+    <row r="441" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E441" s="1"/>
+    </row>
+    <row r="442" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E442" s="1"/>
+    </row>
+    <row r="443" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E443" s="1"/>
+    </row>
+    <row r="444" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E444" s="1"/>
+    </row>
+    <row r="445" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E445" s="1"/>
+    </row>
+    <row r="446" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E446" s="1"/>
+    </row>
+    <row r="447" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E447" s="1"/>
+    </row>
+    <row r="448" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E448" s="1"/>
+    </row>
+    <row r="449" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E449" s="1"/>
+    </row>
+    <row r="450" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E450" s="1"/>
+    </row>
+    <row r="451" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E451" s="1"/>
+    </row>
+    <row r="452" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E452" s="1"/>
+    </row>
+    <row r="453" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E453" s="1"/>
+    </row>
+    <row r="454" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E454" s="1"/>
+    </row>
+    <row r="455" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E455" s="1"/>
+    </row>
+    <row r="456" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E456" s="1"/>
+    </row>
+    <row r="457" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E457" s="1"/>
+    </row>
+    <row r="458" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E458" s="1"/>
+    </row>
+    <row r="459" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E459" s="1"/>
+    </row>
+    <row r="460" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E460" s="1"/>
+    </row>
+    <row r="461" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E461" s="1"/>
+    </row>
+    <row r="462" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E462" s="1"/>
+    </row>
+    <row r="463" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E463" s="1"/>
+    </row>
+    <row r="464" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E464" s="1"/>
+    </row>
+    <row r="465" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E465" s="1"/>
+    </row>
+    <row r="466" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E466" s="1"/>
+    </row>
+    <row r="467" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E467" s="1"/>
+    </row>
+    <row r="468" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E468" s="1"/>
+    </row>
+    <row r="469" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E469" s="1"/>
+    </row>
+    <row r="470" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E470" s="1"/>
+    </row>
+    <row r="471" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E471" s="1"/>
+    </row>
+    <row r="472" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E472" s="1"/>
+    </row>
+    <row r="473" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E473" s="1"/>
+    </row>
+    <row r="474" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E474" s="1"/>
+    </row>
+    <row r="475" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E475" s="1"/>
+    </row>
+    <row r="476" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E476" s="1"/>
+    </row>
+    <row r="477" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E477" s="1"/>
+    </row>
+    <row r="478" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E478" s="1"/>
+    </row>
+    <row r="479" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E479" s="1"/>
+    </row>
+    <row r="480" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E480" s="1"/>
+    </row>
+    <row r="481" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E481" s="1"/>
+    </row>
+    <row r="482" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E482" s="1"/>
+    </row>
+    <row r="483" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E483" s="1"/>
+    </row>
+    <row r="484" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E484" s="1"/>
+    </row>
+    <row r="485" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E485" s="1"/>
+    </row>
+    <row r="486" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E486" s="1"/>
+    </row>
+    <row r="487" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E487" s="1"/>
+    </row>
+    <row r="488" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E488" s="1"/>
+    </row>
+    <row r="489" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E489" s="1"/>
+    </row>
+    <row r="490" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E490" s="1"/>
+    </row>
+    <row r="491" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E491" s="1"/>
+    </row>
+    <row r="492" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E492" s="1"/>
+    </row>
+    <row r="493" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E493" s="1"/>
+    </row>
+    <row r="494" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E494" s="1"/>
+    </row>
+    <row r="495" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E495" s="1"/>
+    </row>
+    <row r="496" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E496" s="1"/>
+    </row>
+    <row r="497" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E497" s="1"/>
+    </row>
+    <row r="498" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E498" s="1"/>
+    </row>
+    <row r="499" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E499" s="1"/>
+    </row>
+    <row r="500" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E500" s="1"/>
+    </row>
+    <row r="501" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E501" s="1"/>
+    </row>
+    <row r="502" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E502" s="1"/>
+    </row>
+    <row r="503" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E503" s="1"/>
+    </row>
+    <row r="504" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E504" s="1"/>
+    </row>
+    <row r="505" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E505" s="1"/>
+    </row>
+    <row r="506" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E506" s="1"/>
+    </row>
+    <row r="507" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E507" s="1"/>
+    </row>
+    <row r="508" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E508" s="1"/>
+    </row>
+    <row r="509" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E509" s="1"/>
+    </row>
+    <row r="510" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E510" s="1"/>
+    </row>
+    <row r="511" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E511" s="1"/>
+    </row>
+    <row r="512" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E512" s="1"/>
+    </row>
+    <row r="513" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E513" s="1"/>
+    </row>
+    <row r="514" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E514" s="1"/>
+    </row>
+    <row r="515" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E515" s="1"/>
+    </row>
+    <row r="516" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E516" s="1"/>
+    </row>
+    <row r="517" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E517" s="1"/>
+    </row>
+    <row r="518" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E518" s="1"/>
+    </row>
+    <row r="519" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E519" s="1"/>
+    </row>
+    <row r="520" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E520" s="1"/>
+    </row>
+    <row r="521" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E521" s="1"/>
+    </row>
+    <row r="522" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E522" s="1"/>
+    </row>
+    <row r="523" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E523" s="1"/>
+    </row>
+    <row r="524" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E524" s="1"/>
+    </row>
+    <row r="525" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E525" s="1"/>
+    </row>
+    <row r="526" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E526" s="1"/>
+    </row>
+    <row r="527" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E527" s="1"/>
+    </row>
+    <row r="528" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E528" s="1"/>
+    </row>
+    <row r="529" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E529" s="1"/>
+    </row>
+    <row r="530" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E530" s="1"/>
+    </row>
+    <row r="531" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E531" s="1"/>
+    </row>
+    <row r="532" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E532" s="1"/>
+    </row>
+    <row r="533" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E533" s="1"/>
+    </row>
+    <row r="534" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E534" s="1"/>
+    </row>
+    <row r="535" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E535" s="1"/>
+    </row>
+    <row r="536" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E536" s="1"/>
+    </row>
+    <row r="537" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E537" s="1"/>
+    </row>
+    <row r="538" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E538" s="1"/>
+    </row>
+    <row r="539" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E539" s="1"/>
+    </row>
+    <row r="540" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E540" s="1"/>
+    </row>
+    <row r="541" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E541" s="1"/>
+    </row>
+    <row r="542" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E542" s="1"/>
+    </row>
+    <row r="543" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E543" s="1"/>
+    </row>
+    <row r="544" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E544" s="1"/>
+    </row>
+    <row r="545" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E545" s="1"/>
+    </row>
+    <row r="546" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E546" s="1"/>
+    </row>
+    <row r="547" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E547" s="1"/>
+    </row>
+    <row r="548" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E548" s="1"/>
+    </row>
+    <row r="549" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E549" s="1"/>
+    </row>
+    <row r="550" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E550" s="1"/>
+    </row>
+    <row r="551" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E551" s="1"/>
+    </row>
+    <row r="552" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E552" s="1"/>
+    </row>
+    <row r="553" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E553" s="1"/>
+    </row>
+    <row r="554" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E554" s="1"/>
+    </row>
+    <row r="555" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E555" s="1"/>
+    </row>
+    <row r="556" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E556" s="1"/>
+    </row>
+    <row r="557" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E557" s="1"/>
+    </row>
+    <row r="558" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E558" s="1"/>
+    </row>
+    <row r="559" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E559" s="1"/>
+    </row>
+    <row r="560" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E560" s="1"/>
+    </row>
+    <row r="561" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E561" s="1"/>
+    </row>
+    <row r="562" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E562" s="1"/>
+    </row>
+    <row r="563" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E563" s="1"/>
+    </row>
+    <row r="564" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E564" s="1"/>
+    </row>
+    <row r="565" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E565" s="1"/>
+    </row>
+    <row r="566" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E566" s="1"/>
+    </row>
+    <row r="567" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E567" s="1"/>
+    </row>
+    <row r="568" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E568" s="1"/>
+    </row>
+    <row r="569" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E569" s="1"/>
+    </row>
+    <row r="570" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E570" s="1"/>
+    </row>
+    <row r="571" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E571" s="1"/>
+    </row>
+    <row r="572" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E572" s="1"/>
+    </row>
+    <row r="573" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E573" s="1"/>
+    </row>
+    <row r="574" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E574" s="1"/>
+    </row>
+    <row r="575" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E575" s="1"/>
+    </row>
+    <row r="576" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E576" s="1"/>
+    </row>
+    <row r="577" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E577" s="1"/>
+    </row>
+    <row r="578" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E578" s="1"/>
+    </row>
+    <row r="579" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E579" s="1"/>
+    </row>
+    <row r="580" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E580" s="1"/>
+    </row>
+    <row r="581" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E581" s="1"/>
+    </row>
+    <row r="582" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E582" s="1"/>
+    </row>
+    <row r="583" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E583" s="1"/>
+    </row>
+    <row r="584" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E584" s="1"/>
+    </row>
+    <row r="585" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E585" s="1"/>
+    </row>
+    <row r="586" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E586" s="1"/>
+    </row>
+    <row r="587" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E587" s="1"/>
+    </row>
+    <row r="588" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E588" s="1"/>
+    </row>
+    <row r="589" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E589" s="1"/>
+    </row>
+    <row r="590" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E590" s="1"/>
+    </row>
+    <row r="591" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E591" s="1"/>
+    </row>
+    <row r="592" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E592" s="1"/>
+    </row>
+    <row r="593" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E593" s="1"/>
+    </row>
+    <row r="594" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E594" s="1"/>
+    </row>
+    <row r="595" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E595" s="1"/>
+    </row>
+    <row r="596" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E596" s="1"/>
+    </row>
+    <row r="597" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E597" s="1"/>
+    </row>
+    <row r="598" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E598" s="1"/>
+    </row>
+    <row r="599" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E599" s="1"/>
+    </row>
+    <row r="600" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E600" s="1"/>
+    </row>
+    <row r="601" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E601" s="1"/>
+    </row>
+    <row r="602" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E602" s="1"/>
+    </row>
+    <row r="603" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E603" s="1"/>
+    </row>
+    <row r="604" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E604" s="1"/>
+    </row>
+    <row r="605" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E605" s="1"/>
+    </row>
+    <row r="606" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E606" s="1"/>
+    </row>
+    <row r="607" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E607" s="1"/>
+    </row>
+    <row r="608" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E608" s="1"/>
+    </row>
+    <row r="609" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E609" s="1"/>
+    </row>
+    <row r="610" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E610" s="1"/>
+    </row>
+    <row r="611" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E611" s="1"/>
+    </row>
+    <row r="612" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E612" s="1"/>
+    </row>
+    <row r="613" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E613" s="1"/>
+    </row>
+    <row r="614" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E614" s="1"/>
+    </row>
+    <row r="615" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E615" s="1"/>
+    </row>
+    <row r="616" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E616" s="1"/>
+    </row>
+    <row r="617" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E617" s="1"/>
+    </row>
+    <row r="618" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E618" s="1"/>
+    </row>
+    <row r="619" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E619" s="1"/>
+    </row>
+    <row r="620" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E620" s="1"/>
+    </row>
+    <row r="621" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E621" s="1"/>
+    </row>
+    <row r="622" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E622" s="1"/>
+    </row>
+    <row r="623" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E623" s="1"/>
+    </row>
+    <row r="624" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E624" s="1"/>
+    </row>
+    <row r="625" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E625" s="1"/>
+    </row>
+    <row r="626" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E626" s="1"/>
+    </row>
+    <row r="627" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E627" s="1"/>
+    </row>
+    <row r="628" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E628" s="1"/>
+    </row>
+    <row r="629" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E629" s="1"/>
+    </row>
+    <row r="630" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E630" s="1"/>
+    </row>
+    <row r="631" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E631" s="1"/>
+    </row>
+    <row r="632" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E632" s="1"/>
+    </row>
+    <row r="633" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E633" s="1"/>
+    </row>
+    <row r="634" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E634" s="1"/>
+    </row>
+    <row r="635" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E635" s="1"/>
+    </row>
+    <row r="636" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E636" s="1"/>
+    </row>
+    <row r="637" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E637" s="1"/>
+    </row>
+    <row r="638" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E638" s="1"/>
+    </row>
+    <row r="639" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E639" s="1"/>
+    </row>
+    <row r="640" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E640" s="1"/>
+    </row>
+    <row r="641" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E641" s="1"/>
+    </row>
+    <row r="642" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E642" s="1"/>
+    </row>
+    <row r="643" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E643" s="1"/>
+    </row>
+    <row r="644" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E644" s="1"/>
+    </row>
+    <row r="645" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E645" s="1"/>
+    </row>
+    <row r="646" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E646" s="1"/>
+    </row>
+    <row r="647" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E647" s="1"/>
+    </row>
+    <row r="648" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E648" s="1"/>
+    </row>
+    <row r="649" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E649" s="1"/>
+    </row>
+    <row r="650" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E650" s="1"/>
+    </row>
+    <row r="651" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E651" s="1"/>
+    </row>
+    <row r="652" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E652" s="1"/>
+    </row>
+    <row r="653" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E653" s="1"/>
+    </row>
+    <row r="654" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E654" s="1"/>
+    </row>
+    <row r="655" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E655" s="1"/>
+    </row>
+    <row r="656" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E656" s="1"/>
+    </row>
+    <row r="657" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E657" s="1"/>
+    </row>
+    <row r="658" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E658" s="1"/>
+    </row>
+    <row r="659" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E659" s="1"/>
+    </row>
+    <row r="660" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E660" s="1"/>
+    </row>
+    <row r="661" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E661" s="1"/>
+    </row>
+    <row r="662" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E662" s="1"/>
+    </row>
+    <row r="663" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E663" s="1"/>
+    </row>
+    <row r="664" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E664" s="1"/>
+    </row>
+    <row r="665" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E665" s="1"/>
+    </row>
+    <row r="666" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E666" s="1"/>
+    </row>
+    <row r="667" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E667" s="1"/>
+    </row>
+    <row r="668" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E668" s="1"/>
+    </row>
+    <row r="669" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E669" s="1"/>
+    </row>
+    <row r="670" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E670" s="1"/>
+    </row>
+    <row r="671" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E671" s="1"/>
+    </row>
+    <row r="672" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E672" s="1"/>
+    </row>
+    <row r="673" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E673" s="1"/>
+    </row>
+    <row r="674" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E674" s="1"/>
+    </row>
+    <row r="675" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E675" s="1"/>
+    </row>
+    <row r="676" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E676" s="1"/>
+    </row>
+    <row r="677" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E677" s="1"/>
+    </row>
+    <row r="678" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E678" s="1"/>
+    </row>
+    <row r="679" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E679" s="1"/>
+    </row>
+    <row r="680" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E680" s="1"/>
+    </row>
+    <row r="681" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E681" s="1"/>
+    </row>
+    <row r="682" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E682" s="1"/>
+    </row>
+    <row r="683" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E683" s="1"/>
+    </row>
+    <row r="684" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E684" s="1"/>
+    </row>
+    <row r="685" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E685" s="1"/>
+    </row>
+    <row r="686" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E686" s="1"/>
+    </row>
+    <row r="687" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E687" s="1"/>
+    </row>
+    <row r="688" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E688" s="1"/>
+    </row>
+    <row r="689" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E689" s="1"/>
+    </row>
+    <row r="690" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E690" s="1"/>
+    </row>
+    <row r="691" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E691" s="1"/>
+    </row>
+    <row r="692" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E692" s="1"/>
+    </row>
+    <row r="693" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E693" s="1"/>
+    </row>
+    <row r="694" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E694" s="1"/>
+    </row>
+    <row r="695" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E695" s="1"/>
+    </row>
+    <row r="696" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E696" s="1"/>
+    </row>
+    <row r="697" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E697" s="1"/>
+    </row>
+    <row r="698" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E698" s="1"/>
+    </row>
+    <row r="699" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E699" s="1"/>
+    </row>
+    <row r="700" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E700" s="1"/>
+    </row>
+    <row r="701" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E701" s="1"/>
+    </row>
+    <row r="702" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E702" s="1"/>
+    </row>
+    <row r="703" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E703" s="1"/>
+    </row>
+    <row r="704" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E704" s="1"/>
+    </row>
+    <row r="705" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E705" s="1"/>
+    </row>
+    <row r="706" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E706" s="1"/>
+    </row>
+    <row r="707" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E707" s="1"/>
+    </row>
+    <row r="708" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E708" s="1"/>
+    </row>
+    <row r="709" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E709" s="1"/>
+    </row>
+    <row r="710" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E710" s="1"/>
+    </row>
+    <row r="711" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E711" s="1"/>
+    </row>
+    <row r="712" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E712" s="1"/>
+    </row>
+    <row r="713" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E713" s="1"/>
+    </row>
+    <row r="714" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E714" s="1"/>
+    </row>
+    <row r="715" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E715" s="1"/>
+    </row>
+    <row r="716" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E716" s="1"/>
+    </row>
+    <row r="717" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E717" s="1"/>
+    </row>
+    <row r="718" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E718" s="1"/>
+    </row>
+    <row r="719" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E719" s="1"/>
+    </row>
+    <row r="720" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E720" s="1"/>
+    </row>
+    <row r="721" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E721" s="1"/>
+    </row>
+    <row r="722" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E722" s="1"/>
+    </row>
+    <row r="723" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E723" s="1"/>
+    </row>
+    <row r="724" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E724" s="1"/>
+    </row>
+    <row r="725" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E725" s="1"/>
+    </row>
+    <row r="726" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E726" s="1"/>
+    </row>
+    <row r="727" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E727" s="1"/>
+    </row>
+    <row r="728" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E728" s="1"/>
+    </row>
+    <row r="729" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E729" s="1"/>
+    </row>
+    <row r="730" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E730" s="1"/>
+    </row>
+    <row r="731" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E731" s="1"/>
+    </row>
+    <row r="732" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E732" s="1"/>
+    </row>
+    <row r="733" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E733" s="1"/>
+    </row>
+    <row r="734" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E734" s="1"/>
+    </row>
+    <row r="735" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E735" s="1"/>
+    </row>
+    <row r="736" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E736" s="1"/>
+    </row>
+    <row r="737" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E737" s="1"/>
+    </row>
+    <row r="738" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E738" s="1"/>
+    </row>
+    <row r="739" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E739" s="1"/>
+    </row>
+    <row r="740" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E740" s="1"/>
+    </row>
+    <row r="741" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E741" s="1"/>
+    </row>
+    <row r="742" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E742" s="1"/>
+    </row>
+    <row r="743" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E743" s="1"/>
+    </row>
+    <row r="744" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E744" s="1"/>
+    </row>
+    <row r="745" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E745" s="1"/>
+    </row>
+    <row r="746" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E746" s="1"/>
+    </row>
+    <row r="747" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E747" s="1"/>
+    </row>
+    <row r="748" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E748" s="1"/>
+    </row>
+    <row r="749" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E749" s="1"/>
+    </row>
+    <row r="750" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E750" s="1"/>
+    </row>
+    <row r="751" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E751" s="1"/>
+    </row>
+    <row r="752" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E752" s="1"/>
+    </row>
+    <row r="753" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E753" s="1"/>
+    </row>
+    <row r="754" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E754" s="1"/>
+    </row>
+    <row r="755" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E755" s="1"/>
+    </row>
+    <row r="756" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E756" s="1"/>
+    </row>
+    <row r="757" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E757" s="1"/>
+    </row>
+    <row r="758" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E758" s="1"/>
+    </row>
+    <row r="759" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E759" s="1"/>
+    </row>
+    <row r="760" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E760" s="1"/>
+    </row>
+    <row r="761" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E761" s="1"/>
+    </row>
+    <row r="762" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E762" s="1"/>
+    </row>
+    <row r="763" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E763" s="1"/>
+    </row>
+    <row r="764" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E764" s="1"/>
+    </row>
+    <row r="765" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E765" s="1"/>
+    </row>
+    <row r="766" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E766" s="1"/>
+    </row>
+    <row r="767" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E767" s="1"/>
+    </row>
+    <row r="768" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E768" s="1"/>
+    </row>
+    <row r="769" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E769" s="1"/>
+    </row>
+    <row r="770" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E770" s="1"/>
+    </row>
+    <row r="771" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E771" s="1"/>
+    </row>
+    <row r="772" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E772" s="1"/>
+    </row>
+    <row r="773" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E773" s="1"/>
+    </row>
+    <row r="774" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E774" s="1"/>
+    </row>
+    <row r="775" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E775" s="1"/>
+    </row>
+    <row r="776" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E776" s="1"/>
+    </row>
+    <row r="777" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E777" s="1"/>
+    </row>
+    <row r="778" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E778" s="1"/>
+    </row>
+    <row r="779" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E779" s="1"/>
+    </row>
+    <row r="780" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E780" s="1"/>
+    </row>
+    <row r="781" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E781" s="1"/>
+    </row>
+    <row r="782" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E782" s="1"/>
+    </row>
+    <row r="783" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E783" s="1"/>
+    </row>
+    <row r="784" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E784" s="1"/>
+    </row>
+    <row r="785" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E785" s="1"/>
+    </row>
+    <row r="786" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E786" s="1"/>
+    </row>
+    <row r="787" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E787" s="1"/>
+    </row>
+    <row r="788" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E788" s="1"/>
+    </row>
+    <row r="789" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E789" s="1"/>
+    </row>
+    <row r="790" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E790" s="1"/>
+    </row>
+    <row r="791" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E791" s="1"/>
+    </row>
+    <row r="792" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E792" s="1"/>
+    </row>
+    <row r="793" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E793" s="1"/>
+    </row>
+    <row r="794" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E794" s="1"/>
+    </row>
+    <row r="795" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E795" s="1"/>
+    </row>
+    <row r="796" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E796" s="1"/>
+    </row>
+    <row r="797" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E797" s="1"/>
+    </row>
+    <row r="798" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E798" s="1"/>
+    </row>
+    <row r="799" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E799" s="1"/>
+    </row>
+    <row r="800" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E800" s="1"/>
+    </row>
+    <row r="801" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E801" s="1"/>
+    </row>
+    <row r="802" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E802" s="1"/>
+    </row>
+    <row r="803" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E803" s="1"/>
+    </row>
+    <row r="804" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E804" s="1"/>
+    </row>
+    <row r="805" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E805" s="1"/>
+    </row>
+    <row r="806" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E806" s="1"/>
+    </row>
+    <row r="807" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E807" s="1"/>
+    </row>
+    <row r="808" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E808" s="1"/>
+    </row>
+    <row r="809" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E809" s="1"/>
+    </row>
+    <row r="810" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E810" s="1"/>
+    </row>
+    <row r="811" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E811" s="1"/>
+    </row>
+    <row r="812" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E812" s="1"/>
+    </row>
+    <row r="813" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E813" s="1"/>
+    </row>
+    <row r="814" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E814" s="1"/>
+    </row>
+    <row r="815" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E815" s="1"/>
+    </row>
+    <row r="816" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E816" s="1"/>
+    </row>
+    <row r="817" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E817" s="1"/>
+    </row>
+    <row r="818" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E818" s="1"/>
+    </row>
+    <row r="819" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E819" s="1"/>
+    </row>
+    <row r="820" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E820" s="1"/>
+    </row>
+    <row r="821" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E821" s="1"/>
+    </row>
+    <row r="822" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E822" s="1"/>
+    </row>
+    <row r="823" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E823" s="1"/>
+    </row>
+    <row r="824" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E824" s="1"/>
+    </row>
+    <row r="825" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E825" s="1"/>
+    </row>
+    <row r="826" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E826" s="1"/>
+    </row>
+    <row r="827" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E827" s="1"/>
+    </row>
+    <row r="828" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E828" s="1"/>
+    </row>
+    <row r="829" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E829" s="1"/>
+    </row>
+    <row r="830" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E830" s="1"/>
+    </row>
+    <row r="831" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E831" s="1"/>
+    </row>
+    <row r="832" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E832" s="1"/>
+    </row>
+    <row r="833" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E833" s="1"/>
+    </row>
+    <row r="834" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E834" s="1"/>
+    </row>
+    <row r="835" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E835" s="1"/>
+    </row>
+    <row r="836" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E836" s="1"/>
+    </row>
+    <row r="837" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E837" s="1"/>
+    </row>
+    <row r="838" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E838" s="1"/>
+    </row>
+    <row r="839" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E839" s="1"/>
+    </row>
+    <row r="840" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E840" s="1"/>
+    </row>
+    <row r="841" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E841" s="1"/>
+    </row>
+    <row r="842" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E842" s="1"/>
+    </row>
+    <row r="843" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E843" s="1"/>
+    </row>
+    <row r="844" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E844" s="1"/>
+    </row>
+    <row r="845" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E845" s="1"/>
+    </row>
+    <row r="846" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E846" s="1"/>
+    </row>
+    <row r="847" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E847" s="1"/>
+    </row>
+    <row r="848" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E848" s="1"/>
+    </row>
+    <row r="849" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E849" s="1"/>
+    </row>
+    <row r="850" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E850" s="1"/>
+    </row>
+    <row r="851" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E851" s="1"/>
+    </row>
+    <row r="852" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E852" s="1"/>
+    </row>
+    <row r="853" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E853" s="1"/>
+    </row>
+    <row r="854" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E854" s="1"/>
+    </row>
+    <row r="855" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E855" s="1"/>
+    </row>
+    <row r="856" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E856" s="1"/>
+    </row>
+    <row r="857" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E857" s="1"/>
+    </row>
+    <row r="858" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E858" s="1"/>
+    </row>
+    <row r="859" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E859" s="1"/>
+    </row>
+    <row r="860" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E860" s="1"/>
+    </row>
+    <row r="861" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E861" s="1"/>
+    </row>
+    <row r="862" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E862" s="1"/>
+    </row>
+    <row r="863" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E863" s="1"/>
+    </row>
+    <row r="864" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E864" s="1"/>
+    </row>
+    <row r="865" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E865" s="1"/>
+    </row>
+    <row r="866" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E866" s="1"/>
+    </row>
+    <row r="867" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E867" s="1"/>
+    </row>
+    <row r="868" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E868" s="1"/>
+    </row>
+    <row r="869" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E869" s="1"/>
+    </row>
+    <row r="870" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E870" s="1"/>
+    </row>
+    <row r="871" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E871" s="1"/>
+    </row>
+    <row r="872" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E872" s="1"/>
+    </row>
+    <row r="873" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E873" s="1"/>
+    </row>
+    <row r="874" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E874" s="1"/>
+    </row>
+    <row r="875" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E875" s="1"/>
+    </row>
+    <row r="876" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E876" s="1"/>
+    </row>
+    <row r="877" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E877" s="1"/>
+    </row>
+    <row r="878" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E878" s="1"/>
+    </row>
+    <row r="879" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E879" s="1"/>
+    </row>
+    <row r="880" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E880" s="1"/>
+    </row>
+    <row r="881" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E881" s="1"/>
+    </row>
+    <row r="882" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E882" s="1"/>
+    </row>
+    <row r="883" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E883" s="1"/>
+    </row>
+    <row r="884" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E884" s="1"/>
+    </row>
+    <row r="885" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E885" s="1"/>
+    </row>
+    <row r="886" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E886" s="1"/>
+    </row>
+    <row r="887" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E887" s="1"/>
+    </row>
+    <row r="888" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E888" s="1"/>
+    </row>
+    <row r="889" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E889" s="1"/>
+    </row>
+    <row r="890" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E890" s="1"/>
+    </row>
+    <row r="891" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E891" s="1"/>
+    </row>
+    <row r="892" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E892" s="1"/>
+    </row>
+    <row r="893" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E893" s="1"/>
+    </row>
+    <row r="894" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E894" s="1"/>
+    </row>
+    <row r="895" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E895" s="1"/>
+    </row>
+    <row r="896" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E896" s="1"/>
+    </row>
+    <row r="897" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E897" s="1"/>
+    </row>
+    <row r="898" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E898" s="1"/>
+    </row>
+    <row r="899" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E899" s="1"/>
+    </row>
+    <row r="900" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E900" s="1"/>
+    </row>
+    <row r="901" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E901" s="1"/>
+    </row>
+    <row r="902" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E902" s="1"/>
+    </row>
+    <row r="903" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E903" s="1"/>
+    </row>
+    <row r="904" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E904" s="1"/>
+    </row>
+    <row r="905" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E905" s="1"/>
+    </row>
+    <row r="906" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E906" s="1"/>
+    </row>
+    <row r="907" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E907" s="1"/>
+    </row>
+    <row r="908" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E908" s="1"/>
+    </row>
+    <row r="909" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E909" s="1"/>
+    </row>
+    <row r="910" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E910" s="1"/>
+    </row>
+    <row r="911" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E911" s="1"/>
+    </row>
+    <row r="912" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E912" s="1"/>
+    </row>
+    <row r="913" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E913" s="1"/>
+    </row>
+    <row r="914" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E914" s="1"/>
+    </row>
+    <row r="915" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E915" s="1"/>
+    </row>
+    <row r="916" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E916" s="1"/>
+    </row>
+    <row r="917" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E917" s="1"/>
+    </row>
+    <row r="918" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E918" s="1"/>
+    </row>
+    <row r="919" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E919" s="1"/>
+    </row>
+    <row r="920" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E920" s="1"/>
+    </row>
+    <row r="921" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E921" s="1"/>
+    </row>
+    <row r="922" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E922" s="1"/>
+    </row>
+    <row r="923" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E923" s="1"/>
+    </row>
+    <row r="924" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E924" s="1"/>
+    </row>
+    <row r="925" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E925" s="1"/>
+    </row>
+    <row r="926" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E926" s="1"/>
+    </row>
+    <row r="927" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E927" s="1"/>
+    </row>
+    <row r="928" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E928" s="1"/>
+    </row>
+    <row r="929" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E929" s="1"/>
+    </row>
+    <row r="930" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E930" s="1"/>
+    </row>
+    <row r="931" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E931" s="1"/>
+    </row>
+    <row r="932" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E932" s="1"/>
+    </row>
+    <row r="933" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E933" s="1"/>
+    </row>
+    <row r="934" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E934" s="1"/>
+    </row>
+    <row r="935" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E935" s="1"/>
+    </row>
+    <row r="936" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E936" s="1"/>
+    </row>
+    <row r="937" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E937" s="1"/>
+    </row>
+    <row r="938" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E938" s="1"/>
+    </row>
+    <row r="939" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E939" s="1"/>
+    </row>
+    <row r="940" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E940" s="1"/>
+    </row>
+    <row r="941" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E941" s="1"/>
+    </row>
+    <row r="942" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E942" s="1"/>
+    </row>
+    <row r="943" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E943" s="1"/>
+    </row>
+    <row r="944" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E944" s="1"/>
+    </row>
+    <row r="945" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E945" s="1"/>
+    </row>
+    <row r="946" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E946" s="1"/>
+    </row>
+    <row r="947" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E947" s="1"/>
+    </row>
+    <row r="948" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E948" s="1"/>
+    </row>
+    <row r="949" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E949" s="1"/>
+    </row>
+    <row r="950" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E950" s="1"/>
+    </row>
+    <row r="951" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E951" s="1"/>
+    </row>
+    <row r="952" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E952" s="1"/>
+    </row>
+    <row r="953" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E953" s="1"/>
+    </row>
+    <row r="954" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E954" s="1"/>
+    </row>
+    <row r="955" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E955" s="1"/>
+    </row>
+    <row r="956" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E956" s="1"/>
+    </row>
+    <row r="957" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E957" s="1"/>
+    </row>
+    <row r="958" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E958" s="1"/>
+    </row>
+    <row r="959" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E959" s="1"/>
+    </row>
+    <row r="960" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E960" s="1"/>
+    </row>
+    <row r="961" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E961" s="1"/>
+    </row>
+    <row r="962" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E962" s="1"/>
+    </row>
+    <row r="963" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E963" s="1"/>
+    </row>
+    <row r="964" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E964" s="1"/>
+    </row>
+    <row r="965" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E965" s="1"/>
+    </row>
+    <row r="966" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E966" s="1"/>
+    </row>
+    <row r="967" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E967" s="1"/>
+    </row>
+    <row r="968" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E968" s="1"/>
+    </row>
+    <row r="969" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E969" s="1"/>
+    </row>
+    <row r="970" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E970" s="1"/>
+    </row>
+    <row r="971" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E971" s="1"/>
+    </row>
+    <row r="972" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E972" s="1"/>
+    </row>
+    <row r="973" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E973" s="1"/>
+    </row>
+    <row r="974" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E974" s="1"/>
+    </row>
+    <row r="975" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E975" s="1"/>
+    </row>
+    <row r="976" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E976" s="1"/>
+    </row>
+    <row r="977" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E977" s="1"/>
+    </row>
+    <row r="978" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E978" s="1"/>
+    </row>
+    <row r="979" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E979" s="1"/>
+    </row>
+    <row r="980" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E980" s="1"/>
+    </row>
+    <row r="981" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E981" s="1"/>
+    </row>
+    <row r="982" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E982" s="1"/>
+    </row>
+    <row r="983" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E983" s="1"/>
+    </row>
+    <row r="984" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E984" s="1"/>
+    </row>
+    <row r="985" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E985" s="1"/>
+    </row>
+    <row r="986" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E986" s="1"/>
+    </row>
+    <row r="987" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E987" s="1"/>
+    </row>
+    <row r="988" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E988" s="1"/>
+    </row>
+    <row r="989" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E989" s="1"/>
+    </row>
+    <row r="990" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="E990" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:N1">
+  <autoFilter ref="A1:O1">
     <sortState ref="A2:N65">
       <sortCondition ref="C1:C65"/>
     </sortState>
   </autoFilter>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="L1:L1048576">
     <cfRule type="containsText" dxfId="1" priority="1" operator="containsText" text="Y">
-      <formula>NOT(ISERROR(SEARCH("Y",K1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("Y",L1)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="N">
-      <formula>NOT(ISERROR(SEARCH("N",K1)))</formula>
+      <formula>NOT(ISERROR(SEARCH("N",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="E3" r:id="rId1"/>
-    <hyperlink ref="E2" r:id="rId2"/>
-    <hyperlink ref="E5" r:id="rId3"/>
-    <hyperlink ref="E4" r:id="rId4"/>
-    <hyperlink ref="E19" r:id="rId5"/>
-    <hyperlink ref="E9" r:id="rId6"/>
-    <hyperlink ref="E10" r:id="rId7"/>
-    <hyperlink ref="E11" r:id="rId8"/>
-    <hyperlink ref="E15" r:id="rId9"/>
-    <hyperlink ref="E6" r:id="rId10"/>
-    <hyperlink ref="E7" r:id="rId11"/>
-    <hyperlink ref="E12" r:id="rId12"/>
-    <hyperlink ref="E8" r:id="rId13"/>
-    <hyperlink ref="E16" r:id="rId14"/>
-    <hyperlink ref="E17" r:id="rId15"/>
-    <hyperlink ref="E14" r:id="rId16"/>
-    <hyperlink ref="E18" r:id="rId17"/>
-    <hyperlink ref="E13" r:id="rId18"/>
-    <hyperlink ref="E20" r:id="rId19"/>
-    <hyperlink ref="E29" r:id="rId20"/>
-    <hyperlink ref="E23" r:id="rId21"/>
-    <hyperlink ref="E31" r:id="rId22"/>
-    <hyperlink ref="E21" r:id="rId23"/>
-    <hyperlink ref="E33" r:id="rId24"/>
-    <hyperlink ref="E25" r:id="rId25"/>
-    <hyperlink ref="E30" r:id="rId26"/>
-    <hyperlink ref="E32" r:id="rId27"/>
-    <hyperlink ref="E27" r:id="rId28"/>
-    <hyperlink ref="E24" r:id="rId29"/>
-    <hyperlink ref="E26" r:id="rId30"/>
-    <hyperlink ref="E28" r:id="rId31"/>
-    <hyperlink ref="E22" r:id="rId32"/>
-    <hyperlink ref="E34" r:id="rId33"/>
-    <hyperlink ref="E36" r:id="rId34"/>
-    <hyperlink ref="E38" r:id="rId35"/>
-    <hyperlink ref="E37" r:id="rId36"/>
-    <hyperlink ref="E35" r:id="rId37"/>
-    <hyperlink ref="E40" r:id="rId38"/>
-    <hyperlink ref="E39" r:id="rId39"/>
-    <hyperlink ref="E43" r:id="rId40"/>
-    <hyperlink ref="E42" r:id="rId41"/>
-    <hyperlink ref="E41" r:id="rId42"/>
-    <hyperlink ref="E50" r:id="rId43"/>
-    <hyperlink ref="E51" r:id="rId44"/>
-    <hyperlink ref="E52" r:id="rId45"/>
-    <hyperlink ref="E53" r:id="rId46"/>
-    <hyperlink ref="E54" r:id="rId47"/>
-    <hyperlink ref="E57" r:id="rId48"/>
-    <hyperlink ref="E58" r:id="rId49"/>
-    <hyperlink ref="E60" r:id="rId50"/>
-    <hyperlink ref="E55" r:id="rId51"/>
-    <hyperlink ref="E56" r:id="rId52"/>
-    <hyperlink ref="E59" r:id="rId53"/>
-    <hyperlink ref="E64" r:id="rId54"/>
-    <hyperlink ref="E61" r:id="rId55"/>
-    <hyperlink ref="E63" r:id="rId56"/>
-    <hyperlink ref="E62" r:id="rId57"/>
-    <hyperlink ref="E65" r:id="rId58"/>
-    <hyperlink ref="M10" r:id="rId59"/>
+    <hyperlink ref="F3" r:id="rId1"/>
+    <hyperlink ref="F2" r:id="rId2"/>
+    <hyperlink ref="F5" r:id="rId3"/>
+    <hyperlink ref="F4" r:id="rId4"/>
+    <hyperlink ref="F19" r:id="rId5"/>
+    <hyperlink ref="F9" r:id="rId6"/>
+    <hyperlink ref="F10" r:id="rId7"/>
+    <hyperlink ref="F11" r:id="rId8"/>
+    <hyperlink ref="F15" r:id="rId9"/>
+    <hyperlink ref="F6" r:id="rId10"/>
+    <hyperlink ref="F7" r:id="rId11"/>
+    <hyperlink ref="F12" r:id="rId12"/>
+    <hyperlink ref="F8" r:id="rId13"/>
+    <hyperlink ref="F16" r:id="rId14"/>
+    <hyperlink ref="F17" r:id="rId15"/>
+    <hyperlink ref="F14" r:id="rId16"/>
+    <hyperlink ref="F18" r:id="rId17"/>
+    <hyperlink ref="F13" r:id="rId18"/>
+    <hyperlink ref="F20" r:id="rId19"/>
+    <hyperlink ref="F29" r:id="rId20"/>
+    <hyperlink ref="F23" r:id="rId21"/>
+    <hyperlink ref="F31" r:id="rId22"/>
+    <hyperlink ref="F21" r:id="rId23"/>
+    <hyperlink ref="F33" r:id="rId24"/>
+    <hyperlink ref="F25" r:id="rId25"/>
+    <hyperlink ref="F30" r:id="rId26"/>
+    <hyperlink ref="F32" r:id="rId27"/>
+    <hyperlink ref="F27" r:id="rId28"/>
+    <hyperlink ref="F24" r:id="rId29"/>
+    <hyperlink ref="F26" r:id="rId30"/>
+    <hyperlink ref="F28" r:id="rId31"/>
+    <hyperlink ref="F22" r:id="rId32"/>
+    <hyperlink ref="F34" r:id="rId33"/>
+    <hyperlink ref="F36" r:id="rId34"/>
+    <hyperlink ref="F38" r:id="rId35"/>
+    <hyperlink ref="F37" r:id="rId36"/>
+    <hyperlink ref="F35" r:id="rId37"/>
+    <hyperlink ref="F40" r:id="rId38"/>
+    <hyperlink ref="F39" r:id="rId39"/>
+    <hyperlink ref="F43" r:id="rId40"/>
+    <hyperlink ref="F42" r:id="rId41"/>
+    <hyperlink ref="F41" r:id="rId42"/>
+    <hyperlink ref="F50" r:id="rId43"/>
+    <hyperlink ref="F51" r:id="rId44"/>
+    <hyperlink ref="F52" r:id="rId45"/>
+    <hyperlink ref="F53" r:id="rId46"/>
+    <hyperlink ref="F54" r:id="rId47"/>
+    <hyperlink ref="F57" r:id="rId48"/>
+    <hyperlink ref="F58" r:id="rId49"/>
+    <hyperlink ref="F60" r:id="rId50"/>
+    <hyperlink ref="F55" r:id="rId51"/>
+    <hyperlink ref="F56" r:id="rId52"/>
+    <hyperlink ref="F59" r:id="rId53"/>
+    <hyperlink ref="F64" r:id="rId54"/>
+    <hyperlink ref="F61" r:id="rId55"/>
+    <hyperlink ref="F63" r:id="rId56"/>
+    <hyperlink ref="F62" r:id="rId57"/>
+    <hyperlink ref="F65" r:id="rId58"/>
+    <hyperlink ref="N10" r:id="rId59"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/app/data/src/projectlist.xlsx
+++ b/app/data/src/projectlist.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="364">
   <si>
     <t>Lucky Peach</t>
   </si>
@@ -1016,6 +1016,158 @@
   </si>
   <si>
     <t>research, health, food poverty</t>
+  </si>
+  <si>
+    <t>shortDesc</t>
+  </si>
+  <si>
+    <t>Civil Eats is a daily news source for critical thought about the American food system.</t>
+  </si>
+  <si>
+    <t>Project Noah is mobilizing a new generation of nature explorers and helping people from around the world appreciate their local wildlife.</t>
+  </si>
+  <si>
+    <t>Added Value Farms is a youth-led urban farming and compost operation in Red Hook, Brooklyn.</t>
+  </si>
+  <si>
+    <t>BK ROT is a community-supported composting operation that generates year-round environmental jobs for local youth in Bushwick, Brooklyn.</t>
+  </si>
+  <si>
+    <t>City Harvest pioneered food rescue in 1982 and, this year, will collect 55 million pounds of excess food to help feed the nearly 1.4 million New Yorkers struggling to put meals on their tables,</t>
+  </si>
+  <si>
+    <t>Citymeals on Wheels raises private funds to ensure no homebound elderly New Yorker will ever go a day without food or human company.</t>
+  </si>
+  <si>
+    <t>Food Bank For New York City has been the city’s major hunger-relief organization working to end hunger throughout the five boroughs for more than 30 years.</t>
+  </si>
+  <si>
+    <t>Food Systems Network NYC is a membership based organization designed to foster communication and cultivate community amongst various stake holders and professionals working across the food system.</t>
+  </si>
+  <si>
+    <t>Glynwood is an agricultural nonprofit organization based in Cold Spring, New York.</t>
+  </si>
+  <si>
+    <t>GrowNYC is the sustainability resource for New Yorkers: providing free tools and services anyone can use in order to improve our City and environment.</t>
+  </si>
+  <si>
+    <t>Just Food empowers and supports community leaders to advocate for and increase access to healthy, locally-grown food, especially in underserved NYC neighborhoods.</t>
+  </si>
+  <si>
+    <t>NESAWG, a project of the Tides Center, is a 12-state network of over 500 participating organizations. Together, we unite farm and food system practitioners and allies to build a sustainable, just and economically vibrant region.</t>
+  </si>
+  <si>
+    <t>NOFA-NY is an organization of farmers, gardeners, and consumers working together to create a sustainable regional food system that's ecologically sound and economically viable.</t>
+  </si>
+  <si>
+    <t>The Sustainable Restaurant Corps (SRC) is a non-profit that helps restaurants in the 5 boroughs of NYC reduce their impact on the environment.</t>
+  </si>
+  <si>
+    <t>Food Empowerment Project (F.E.P.) seeks to create a more just and sustainable world by recognizing the power of one’s food choices.</t>
+  </si>
+  <si>
+    <t>Food Empowerment Project seeks to create a more just and sustainable world by recognizing the power of one’s food choices.</t>
+  </si>
+  <si>
+    <t>Green Bronx Machine builds healthy, equitable, and resilient communities through inspired education, local food systems, and 21st Century workforce development.</t>
+  </si>
+  <si>
+    <t>Our mission is to play a crucial role in improving health and happiness, and through that process, create a ripple effect that transforms the world.</t>
+  </si>
+  <si>
+    <t>The Kids Food Festival is a weekend event focusing on educating families about making balanced food choices through fun and flavorful activities.</t>
+  </si>
+  <si>
+    <t>The Museum of Food and Drink (MOFAD) is on a journey to create the world's first large-scale museum with exhibits you can eat.</t>
+  </si>
+  <si>
+    <t>Natural Gourmet Institute provides exceptional, innovative and interdisciplinary health-supportive culinary education.</t>
+  </si>
+  <si>
+    <t>The North American Food Systems Network (NAFSN) is a new organization founded in 2015 offering leadership and technical skills training, networking, and other professional development opportunities for the burgeoning group of individuals supporting the development of equitable and sustainable local and regional food systems.</t>
+  </si>
+  <si>
+    <t>Stone Barns Center for Food and Agriculture is a nonprofit organization on a mission to create a healthy and sustainable food system.</t>
+  </si>
+  <si>
+    <t>The Creative Kitchen teaches children about food and how to cook in a fun, safe, and educational manner.</t>
+  </si>
+  <si>
+    <t>With Food in Mind develops art-based approaches to food education and food injustice, with a focus on childhood obesity and nutrition disparities in low-income neighborhoods and communities of color.</t>
+  </si>
+  <si>
+    <t>Food Book Fair launched in 2012 as the first event of its kind: part festival, part conference, set at the intersection of food culture and food systems.</t>
+  </si>
+  <si>
+    <t>Brooklyn Grange is the leading rooftop farming and intensive green roofing business in the US.</t>
+  </si>
+  <si>
+    <t>Edgemere Farm is a half-acre urban farm located in the beachside community of Far Rockaway, Queens.</t>
+  </si>
+  <si>
+    <t>Farm Sanctuary was founded in 1986 to combat the abuses of factory farming and encourage a new awareness and understanding about farm animals.</t>
+  </si>
+  <si>
+    <t>Sure We Can is a non-profit recycling center, community space and sustainability hub in Brooklyn where canners, students and neighbors come together through recycling, composting, gardening, art and other initiatives.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The Eat Well Guide® is a curated directory of over 25,000 hand-picked restaurants, farms, markets and other sources of local, sustainable food throughout the US.
+</t>
+  </si>
+  <si>
+    <t>We have a vision: it’s of a world where good food is the default—not the exception.</t>
+  </si>
+  <si>
+    <t>LocalHarvest connects people looking for good food with the farmers who produce it.</t>
+  </si>
+  <si>
+    <t>The Micro Textile Lab teaches people natural dyeing, spinning and weaving</t>
+  </si>
+  <si>
+    <t>Join Chefs Collaborative, expand your network, and connect with hundreds of like-minded chefs and food professionals across the country who care about sourcing, cooking, and serving better food and are doing their part to create a better food system.</t>
+  </si>
+  <si>
+    <t>Sea to Table partners with local fishermen from small-scale sustainable wild fisheries, finding better markets for their catch.</t>
+  </si>
+  <si>
+    <t>We use homegrown non-gmo popcorn and season with all natural, gluten free, and vegan ingredients.</t>
+  </si>
+  <si>
+    <t>Botanical Colors supplies artisans and industry with the materials and know-how to dye textiles in a way that uses less water, is non-toxic and biodegradeable and draws its incomparable color palette from humble plants and natural sources.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BOP is an ecosystem restoration and education project aimed at restoring one billion live oysters to New York Harbor and engaging hundreds of thousands of school children through restoration based STEM education programs.
+</t>
+  </si>
+  <si>
+    <t>Sanctuary for Weedy Species is a living collection of more than three hundred wild/invasive/exotic or otherwise uncultivated young plants transplanted from Bushwick’s urban soil to the Gallery at Industry City.</t>
+  </si>
+  <si>
+    <t>The mission of Guerrilla Cartography is to widely promote the cartographic arts and facilitate an expansion of the art, methods, and thematic scope of cartography, through collaborative projects, hosting theme-based community workshops and symposiums, and mounting public exhibitions.</t>
+  </si>
+  <si>
+    <t>By creating a floating food forest, we create a different set of rules.</t>
+  </si>
+  <si>
+    <t>Taking the atmosphere as its object of study, this project delves into an investigation of the present notions of nature intertwined with social and technological systems.</t>
+  </si>
+  <si>
+    <t>The Tree of 40 Fruit is an ongoing series of hybridized fruit trees by contemporary artist Sam Van Aken.</t>
+  </si>
+  <si>
+    <t>The New York City Food Policy Center develops intersectoral, innovative and evidence-based solutions to preventing diet-related diseases and promoting food security in New York and other cities.</t>
+  </si>
+  <si>
+    <t>Academic research and action center at the CUNY Graduate School of Public Health and Health Policy located in Harlem, NYC.</t>
+  </si>
+  <si>
+    <t>To date, The Food Security Lab has comprised 16 months of research within a community called Kanana in Gugulethu, Cape Town, South Africa.</t>
+  </si>
+  <si>
+    <t>The Urban Design Lab (UDL) is a research unit of Columbia University’s Earth Institute created in 2005 to address the need for a design-based approach to shaping the long range future of sustainable urbanism.</t>
+  </si>
+  <si>
+    <t>We are a team of designers, dietitians, and creative technologists with a simple mission: reimagine food data by making it smart, simple, and personalized. Until now, this info has often been unapproachable, confusing, and rarely tells the complete story.</t>
   </si>
 </sst>
 </file>
@@ -1480,7 +1632,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O990"/>
+  <dimension ref="A1:P990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -1506,7 +1658,7 @@
     <col min="16" max="16384" width="69" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>114</v>
       </c>
@@ -1552,8 +1704,11 @@
       <c r="O1" s="1" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" s="3" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="P1" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" s="3" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1740,11 @@
         <v>245</v>
       </c>
       <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P2" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1618,8 +1776,11 @@
         <v>244</v>
       </c>
       <c r="O3" s="1"/>
-    </row>
-    <row r="4" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P3" s="1" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>105</v>
       </c>
@@ -1651,8 +1812,11 @@
         <v>247</v>
       </c>
       <c r="O4" s="1"/>
-    </row>
-    <row r="5" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P4" s="1" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -1684,8 +1848,11 @@
         <v>246</v>
       </c>
       <c r="O5" s="1"/>
-    </row>
-    <row r="6" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P5" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1723,8 +1890,11 @@
         <v>253</v>
       </c>
       <c r="O6" s="1"/>
-    </row>
-    <row r="7" spans="1:15" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="P6" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>19</v>
       </c>
@@ -1764,8 +1934,11 @@
         <v>254</v>
       </c>
       <c r="O7" s="1"/>
-    </row>
-    <row r="8" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P7" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>84</v>
       </c>
@@ -1805,8 +1978,11 @@
         <v>256</v>
       </c>
       <c r="O8" s="1"/>
-    </row>
-    <row r="9" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P8" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>9</v>
       </c>
@@ -1846,8 +2022,11 @@
         <v>249</v>
       </c>
       <c r="O9" s="1"/>
-    </row>
-    <row r="10" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P9" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>11</v>
       </c>
@@ -1887,8 +2066,11 @@
         <v>250</v>
       </c>
       <c r="O10" s="1"/>
-    </row>
-    <row r="11" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P10" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>13</v>
       </c>
@@ -1920,8 +2102,11 @@
       <c r="O11" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+      <c r="P11" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>71</v>
       </c>
@@ -1961,8 +2146,11 @@
         <v>255</v>
       </c>
       <c r="O12" s="1"/>
-    </row>
-    <row r="13" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P12" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>101</v>
       </c>
@@ -2002,8 +2190,11 @@
         <v>261</v>
       </c>
       <c r="O13" s="1"/>
-    </row>
-    <row r="14" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P13" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>93</v>
       </c>
@@ -2043,8 +2234,11 @@
         <v>259</v>
       </c>
       <c r="O14" s="1"/>
-    </row>
-    <row r="15" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P14" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>15</v>
       </c>
@@ -2084,8 +2278,11 @@
         <v>252</v>
       </c>
       <c r="O15" s="1"/>
-    </row>
-    <row r="16" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P15" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>88</v>
       </c>
@@ -2123,8 +2320,11 @@
         <v>257</v>
       </c>
       <c r="O16" s="1"/>
-    </row>
-    <row r="17" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P16" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>90</v>
       </c>
@@ -2166,8 +2366,11 @@
         <v>258</v>
       </c>
       <c r="O17" s="1"/>
-    </row>
-    <row r="18" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P17" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>95</v>
       </c>
@@ -2207,8 +2410,11 @@
         <v>260</v>
       </c>
       <c r="O18" s="1"/>
-    </row>
-    <row r="19" spans="1:15" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="P18" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>6</v>
       </c>
@@ -2246,8 +2452,11 @@
         <v>248</v>
       </c>
       <c r="O19" s="1"/>
-    </row>
-    <row r="20" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P19" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>201</v>
       </c>
@@ -2289,8 +2498,11 @@
       <c r="O20" s="1" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P20" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>28</v>
       </c>
@@ -2328,8 +2540,11 @@
         <v>266</v>
       </c>
       <c r="O21" s="1"/>
-    </row>
-    <row r="22" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P21" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>131</v>
       </c>
@@ -2367,8 +2582,11 @@
         <v>275</v>
       </c>
       <c r="O22" s="1"/>
-    </row>
-    <row r="23" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P22" s="1" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>24</v>
       </c>
@@ -2404,8 +2622,11 @@
         <v>264</v>
       </c>
       <c r="O23" s="1"/>
-    </row>
-    <row r="24" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P23" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>40</v>
       </c>
@@ -2443,8 +2664,11 @@
         <v>272</v>
       </c>
       <c r="O24" s="1"/>
-    </row>
-    <row r="25" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P24" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>32</v>
       </c>
@@ -2482,8 +2706,11 @@
         <v>268</v>
       </c>
       <c r="O25" s="1"/>
-    </row>
-    <row r="26" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P25" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>62</v>
       </c>
@@ -2521,8 +2748,11 @@
         <v>273</v>
       </c>
       <c r="O26" s="1"/>
-    </row>
-    <row r="27" spans="1:15" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+      <c r="P26" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>38</v>
       </c>
@@ -2560,8 +2790,11 @@
         <v>271</v>
       </c>
       <c r="O27" s="1"/>
-    </row>
-    <row r="28" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P27" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>103</v>
       </c>
@@ -2599,8 +2832,11 @@
         <v>274</v>
       </c>
       <c r="O28" s="1"/>
-    </row>
-    <row r="29" spans="1:15" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+      <c r="P28" s="1" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>21</v>
       </c>
@@ -2638,8 +2874,11 @@
         <v>263</v>
       </c>
       <c r="O29" s="1"/>
-    </row>
-    <row r="30" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P29" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>34</v>
       </c>
@@ -2677,8 +2916,11 @@
         <v>269</v>
       </c>
       <c r="O30" s="1"/>
-    </row>
-    <row r="31" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P30" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2714,8 +2956,11 @@
         <v>265</v>
       </c>
       <c r="O31" s="1"/>
-    </row>
-    <row r="32" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P31" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>36</v>
       </c>
@@ -2753,8 +2998,11 @@
         <v>270</v>
       </c>
       <c r="O32" s="1"/>
-    </row>
-    <row r="33" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P32" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>30</v>
       </c>
@@ -2792,8 +3040,11 @@
         <v>267</v>
       </c>
       <c r="O33" s="1"/>
-    </row>
-    <row r="34" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P33" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>42</v>
       </c>
@@ -2831,8 +3082,11 @@
         <v>276</v>
       </c>
       <c r="O34" s="1"/>
-    </row>
-    <row r="35" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P34" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>50</v>
       </c>
@@ -2870,8 +3124,11 @@
         <v>280</v>
       </c>
       <c r="O35" s="1"/>
-    </row>
-    <row r="36" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P35" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>44</v>
       </c>
@@ -2909,8 +3166,11 @@
         <v>277</v>
       </c>
       <c r="O36" s="1"/>
-    </row>
-    <row r="37" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P36" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>48</v>
       </c>
@@ -2948,8 +3208,11 @@
         <v>279</v>
       </c>
       <c r="O37" s="1"/>
-    </row>
-    <row r="38" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P37" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>46</v>
       </c>
@@ -2987,8 +3250,11 @@
         <v>278</v>
       </c>
       <c r="O38" s="1"/>
-    </row>
-    <row r="39" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P38" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>54</v>
       </c>
@@ -3020,8 +3286,11 @@
         <v>282</v>
       </c>
       <c r="O39" s="1"/>
-    </row>
-    <row r="40" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P39" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>52</v>
       </c>
@@ -3053,8 +3322,11 @@
         <v>281</v>
       </c>
       <c r="O40" s="1"/>
-    </row>
-    <row r="41" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P40" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>60</v>
       </c>
@@ -3086,8 +3358,11 @@
         <v>285</v>
       </c>
       <c r="O41" s="1"/>
-    </row>
-    <row r="42" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P41" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>58</v>
       </c>
@@ -3119,8 +3394,11 @@
         <v>284</v>
       </c>
       <c r="O42" s="1"/>
-    </row>
-    <row r="43" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P42" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>56</v>
       </c>
@@ -3152,8 +3430,11 @@
         <v>283</v>
       </c>
       <c r="O43" s="1"/>
-    </row>
-    <row r="44" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P43" s="1" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>107</v>
       </c>
@@ -3181,8 +3462,9 @@
       <c r="M44" s="1"/>
       <c r="N44" s="7"/>
       <c r="O44" s="1"/>
-    </row>
-    <row r="45" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P44" s="1"/>
+    </row>
+    <row r="45" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>108</v>
       </c>
@@ -3210,8 +3492,9 @@
       <c r="M45" s="1"/>
       <c r="N45" s="7"/>
       <c r="O45" s="1"/>
-    </row>
-    <row r="46" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P45" s="1"/>
+    </row>
+    <row r="46" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>199</v>
       </c>
@@ -3239,8 +3522,9 @@
       <c r="M46" s="1"/>
       <c r="N46" s="7"/>
       <c r="O46" s="1"/>
-    </row>
-    <row r="47" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P46" s="1"/>
+    </row>
+    <row r="47" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>130</v>
       </c>
@@ -3268,8 +3552,9 @@
       <c r="M47" s="1"/>
       <c r="N47" s="7"/>
       <c r="O47" s="1"/>
-    </row>
-    <row r="48" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P47" s="1"/>
+    </row>
+    <row r="48" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>200</v>
       </c>
@@ -3297,8 +3582,9 @@
       <c r="M48" s="1"/>
       <c r="N48" s="7"/>
       <c r="O48" s="1"/>
-    </row>
-    <row r="49" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P48" s="1"/>
+    </row>
+    <row r="49" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>198</v>
       </c>
@@ -3326,8 +3612,9 @@
       <c r="M49" s="1"/>
       <c r="N49" s="7"/>
       <c r="O49" s="1"/>
-    </row>
-    <row r="50" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P49" s="1"/>
+    </row>
+    <row r="50" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>64</v>
       </c>
@@ -3359,8 +3646,11 @@
         <v>286</v>
       </c>
       <c r="O50" s="1"/>
-    </row>
-    <row r="51" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P50" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="51" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>67</v>
       </c>
@@ -3392,8 +3682,11 @@
         <v>287</v>
       </c>
       <c r="O51" s="1"/>
-    </row>
-    <row r="52" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P51" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>97</v>
       </c>
@@ -3425,8 +3718,11 @@
         <v>288</v>
       </c>
       <c r="O52" s="1"/>
-    </row>
-    <row r="53" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P52" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="53" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>75</v>
       </c>
@@ -3458,8 +3754,11 @@
         <v>289</v>
       </c>
       <c r="O53" s="1"/>
-    </row>
-    <row r="54" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P53" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="54" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>86</v>
       </c>
@@ -3491,8 +3790,11 @@
         <v>290</v>
       </c>
       <c r="O54" s="1"/>
-    </row>
-    <row r="55" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P54" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="55" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>82</v>
       </c>
@@ -3532,8 +3834,11 @@
         <v>294</v>
       </c>
       <c r="O55" s="1"/>
-    </row>
-    <row r="56" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P55" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>109</v>
       </c>
@@ -3571,8 +3876,11 @@
         <v>295</v>
       </c>
       <c r="O56" s="1"/>
-    </row>
-    <row r="57" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P56" s="1" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="57" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>77</v>
       </c>
@@ -3602,8 +3910,11 @@
         <v>291</v>
       </c>
       <c r="O57" s="1"/>
-    </row>
-    <row r="58" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P57" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="58" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>233</v>
       </c>
@@ -3643,8 +3954,11 @@
       <c r="O58" s="1" t="s">
         <v>235</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P58" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="59" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>205</v>
       </c>
@@ -3678,8 +3992,11 @@
         <v>296</v>
       </c>
       <c r="O59" s="1"/>
-    </row>
-    <row r="60" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P59" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="60" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>80</v>
       </c>
@@ -3715,8 +4032,11 @@
         <v>293</v>
       </c>
       <c r="O60" s="1"/>
-    </row>
-    <row r="61" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P60" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="61" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>73</v>
       </c>
@@ -3756,8 +4076,11 @@
         <v>298</v>
       </c>
       <c r="O61" s="1"/>
-    </row>
-    <row r="62" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P61" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="62" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>110</v>
       </c>
@@ -3797,8 +4120,11 @@
         <v>112</v>
       </c>
       <c r="O62" s="1"/>
-    </row>
-    <row r="63" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P62" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="63" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>91</v>
       </c>
@@ -3838,8 +4164,11 @@
         <v>299</v>
       </c>
       <c r="O63" s="1"/>
-    </row>
-    <row r="64" spans="1:15" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="P63" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>69</v>
       </c>
@@ -3877,8 +4206,11 @@
         <v>297</v>
       </c>
       <c r="O64" s="1"/>
-    </row>
-    <row r="65" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P64" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>99</v>
       </c>
@@ -3912,2781 +4244,3709 @@
         <v>300</v>
       </c>
       <c r="O65" s="1"/>
-    </row>
-    <row r="66" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P65" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E66" s="1"/>
-    </row>
-    <row r="67" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P66" s="1"/>
+    </row>
+    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E67" s="1"/>
-    </row>
-    <row r="68" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P67" s="1"/>
+    </row>
+    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E68" s="1"/>
-    </row>
-    <row r="69" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P68" s="1"/>
+    </row>
+    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E69" s="1"/>
-    </row>
-    <row r="70" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P69" s="1"/>
+    </row>
+    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E70" s="1"/>
-    </row>
-    <row r="71" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P70" s="1"/>
+    </row>
+    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E71" s="1"/>
-    </row>
-    <row r="72" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P71" s="1"/>
+    </row>
+    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E72" s="1"/>
-    </row>
-    <row r="73" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P72" s="1"/>
+    </row>
+    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E73" s="1"/>
-    </row>
-    <row r="74" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P73" s="1"/>
+    </row>
+    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E74" s="1"/>
-    </row>
-    <row r="75" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P74" s="1"/>
+    </row>
+    <row r="75" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E75" s="1"/>
-    </row>
-    <row r="76" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P75" s="1"/>
+    </row>
+    <row r="76" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E76" s="1"/>
-    </row>
-    <row r="77" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P76" s="1"/>
+    </row>
+    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
-    </row>
-    <row r="78" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P77" s="1"/>
+    </row>
+    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E78" s="1"/>
-    </row>
-    <row r="79" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P78" s="1"/>
+    </row>
+    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E79" s="1"/>
-    </row>
-    <row r="80" spans="1:15" ht="17" x14ac:dyDescent="0.2">
+      <c r="P79" s="1"/>
+    </row>
+    <row r="80" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E80" s="1"/>
-    </row>
-    <row r="81" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P80" s="1"/>
+    </row>
+    <row r="81" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E81" s="1"/>
-    </row>
-    <row r="82" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P81" s="1"/>
+    </row>
+    <row r="82" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E82" s="1"/>
-    </row>
-    <row r="83" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P82" s="1"/>
+    </row>
+    <row r="83" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E83" s="1"/>
-    </row>
-    <row r="84" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P83" s="1"/>
+    </row>
+    <row r="84" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E84" s="1"/>
-    </row>
-    <row r="85" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P84" s="1"/>
+    </row>
+    <row r="85" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E85" s="1"/>
-    </row>
-    <row r="86" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P85" s="1"/>
+    </row>
+    <row r="86" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E86" s="1"/>
-    </row>
-    <row r="87" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P86" s="1"/>
+    </row>
+    <row r="87" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E87" s="1"/>
-    </row>
-    <row r="88" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P87" s="1"/>
+    </row>
+    <row r="88" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E88" s="1"/>
-    </row>
-    <row r="89" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P88" s="1"/>
+    </row>
+    <row r="89" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E89" s="1"/>
-    </row>
-    <row r="90" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P89" s="1"/>
+    </row>
+    <row r="90" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E90" s="1"/>
-    </row>
-    <row r="91" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P90" s="1"/>
+    </row>
+    <row r="91" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E91" s="1"/>
-    </row>
-    <row r="92" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P91" s="1"/>
+    </row>
+    <row r="92" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E92" s="1"/>
-    </row>
-    <row r="93" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P92" s="1"/>
+    </row>
+    <row r="93" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E93" s="1"/>
-    </row>
-    <row r="94" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P93" s="1"/>
+    </row>
+    <row r="94" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E94" s="1"/>
-    </row>
-    <row r="95" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P94" s="1"/>
+    </row>
+    <row r="95" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E95" s="1"/>
-    </row>
-    <row r="96" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P95" s="1"/>
+    </row>
+    <row r="96" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E96" s="1"/>
-    </row>
-    <row r="97" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P96" s="1"/>
+    </row>
+    <row r="97" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E97" s="1"/>
-    </row>
-    <row r="98" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P97" s="1"/>
+    </row>
+    <row r="98" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E98" s="1"/>
-    </row>
-    <row r="99" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P98" s="1"/>
+    </row>
+    <row r="99" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E99" s="1"/>
-    </row>
-    <row r="100" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P99" s="1"/>
+    </row>
+    <row r="100" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E100" s="1"/>
-    </row>
-    <row r="101" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P100" s="1"/>
+    </row>
+    <row r="101" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E101" s="1"/>
-    </row>
-    <row r="102" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P101" s="1"/>
+    </row>
+    <row r="102" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E102" s="1"/>
-    </row>
-    <row r="103" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P102" s="1"/>
+    </row>
+    <row r="103" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E103" s="1"/>
-    </row>
-    <row r="104" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P103" s="1"/>
+    </row>
+    <row r="104" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E104" s="1"/>
-    </row>
-    <row r="105" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P104" s="1"/>
+    </row>
+    <row r="105" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E105" s="1"/>
-    </row>
-    <row r="106" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P105" s="1"/>
+    </row>
+    <row r="106" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E106" s="1"/>
-    </row>
-    <row r="107" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P106" s="1"/>
+    </row>
+    <row r="107" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E107" s="1"/>
-    </row>
-    <row r="108" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P107" s="1"/>
+    </row>
+    <row r="108" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E108" s="1"/>
-    </row>
-    <row r="109" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P108" s="1"/>
+    </row>
+    <row r="109" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E109" s="1"/>
-    </row>
-    <row r="110" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P109" s="1"/>
+    </row>
+    <row r="110" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E110" s="1"/>
-    </row>
-    <row r="111" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P110" s="1"/>
+    </row>
+    <row r="111" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E111" s="1"/>
-    </row>
-    <row r="112" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P111" s="1"/>
+    </row>
+    <row r="112" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E112" s="1"/>
-    </row>
-    <row r="113" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P112" s="1"/>
+    </row>
+    <row r="113" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E113" s="1"/>
-    </row>
-    <row r="114" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P113" s="1"/>
+    </row>
+    <row r="114" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E114" s="1"/>
-    </row>
-    <row r="115" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P114" s="1"/>
+    </row>
+    <row r="115" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E115" s="1"/>
-    </row>
-    <row r="116" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P115" s="1"/>
+    </row>
+    <row r="116" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E116" s="1"/>
-    </row>
-    <row r="117" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P116" s="1"/>
+    </row>
+    <row r="117" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E117" s="1"/>
-    </row>
-    <row r="118" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P117" s="1"/>
+    </row>
+    <row r="118" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E118" s="1"/>
-    </row>
-    <row r="119" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P118" s="1"/>
+    </row>
+    <row r="119" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E119" s="1"/>
-    </row>
-    <row r="120" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P119" s="1"/>
+    </row>
+    <row r="120" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E120" s="1"/>
-    </row>
-    <row r="121" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P120" s="1"/>
+    </row>
+    <row r="121" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E121" s="1"/>
-    </row>
-    <row r="122" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P121" s="1"/>
+    </row>
+    <row r="122" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E122" s="1"/>
-    </row>
-    <row r="123" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P122" s="1"/>
+    </row>
+    <row r="123" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E123" s="1"/>
-    </row>
-    <row r="124" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P123" s="1"/>
+    </row>
+    <row r="124" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E124" s="1"/>
-    </row>
-    <row r="125" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P124" s="1"/>
+    </row>
+    <row r="125" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E125" s="1"/>
-    </row>
-    <row r="126" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P125" s="1"/>
+    </row>
+    <row r="126" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E126" s="1"/>
-    </row>
-    <row r="127" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P126" s="1"/>
+    </row>
+    <row r="127" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E127" s="1"/>
-    </row>
-    <row r="128" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P127" s="1"/>
+    </row>
+    <row r="128" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E128" s="1"/>
-    </row>
-    <row r="129" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P128" s="1"/>
+    </row>
+    <row r="129" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E129" s="1"/>
-    </row>
-    <row r="130" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P129" s="1"/>
+    </row>
+    <row r="130" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E130" s="1"/>
-    </row>
-    <row r="131" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P130" s="1"/>
+    </row>
+    <row r="131" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E131" s="1"/>
-    </row>
-    <row r="132" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P131" s="1"/>
+    </row>
+    <row r="132" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E132" s="1"/>
-    </row>
-    <row r="133" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P132" s="1"/>
+    </row>
+    <row r="133" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E133" s="1"/>
-    </row>
-    <row r="134" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P133" s="1"/>
+    </row>
+    <row r="134" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E134" s="1"/>
-    </row>
-    <row r="135" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P134" s="1"/>
+    </row>
+    <row r="135" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E135" s="1"/>
-    </row>
-    <row r="136" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P135" s="1"/>
+    </row>
+    <row r="136" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E136" s="1"/>
-    </row>
-    <row r="137" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P136" s="1"/>
+    </row>
+    <row r="137" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E137" s="1"/>
-    </row>
-    <row r="138" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P137" s="1"/>
+    </row>
+    <row r="138" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E138" s="1"/>
-    </row>
-    <row r="139" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P138" s="1"/>
+    </row>
+    <row r="139" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E139" s="1"/>
-    </row>
-    <row r="140" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P139" s="1"/>
+    </row>
+    <row r="140" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E140" s="1"/>
-    </row>
-    <row r="141" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P140" s="1"/>
+    </row>
+    <row r="141" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E141" s="1"/>
-    </row>
-    <row r="142" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P141" s="1"/>
+    </row>
+    <row r="142" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E142" s="1"/>
-    </row>
-    <row r="143" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P142" s="1"/>
+    </row>
+    <row r="143" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E143" s="1"/>
-    </row>
-    <row r="144" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P143" s="1"/>
+    </row>
+    <row r="144" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E144" s="1"/>
-    </row>
-    <row r="145" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P144" s="1"/>
+    </row>
+    <row r="145" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E145" s="1"/>
-    </row>
-    <row r="146" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P145" s="1"/>
+    </row>
+    <row r="146" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E146" s="1"/>
-    </row>
-    <row r="147" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P146" s="1"/>
+    </row>
+    <row r="147" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E147" s="1"/>
-    </row>
-    <row r="148" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P147" s="1"/>
+    </row>
+    <row r="148" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E148" s="1"/>
-    </row>
-    <row r="149" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P148" s="1"/>
+    </row>
+    <row r="149" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P149" s="1"/>
+    </row>
+    <row r="150" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E150" s="1"/>
-    </row>
-    <row r="151" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P150" s="1"/>
+    </row>
+    <row r="151" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E151" s="1"/>
-    </row>
-    <row r="152" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P151" s="1"/>
+    </row>
+    <row r="152" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E152" s="1"/>
-    </row>
-    <row r="153" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P152" s="1"/>
+    </row>
+    <row r="153" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E153" s="1"/>
-    </row>
-    <row r="154" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P153" s="1"/>
+    </row>
+    <row r="154" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E154" s="1"/>
-    </row>
-    <row r="155" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P154" s="1"/>
+    </row>
+    <row r="155" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E155" s="1"/>
-    </row>
-    <row r="156" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P155" s="1"/>
+    </row>
+    <row r="156" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E156" s="1"/>
-    </row>
-    <row r="157" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P156" s="1"/>
+    </row>
+    <row r="157" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E157" s="1"/>
-    </row>
-    <row r="158" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P157" s="1"/>
+    </row>
+    <row r="158" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E158" s="1"/>
-    </row>
-    <row r="159" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P158" s="1"/>
+    </row>
+    <row r="159" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E159" s="1"/>
-    </row>
-    <row r="160" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P159" s="1"/>
+    </row>
+    <row r="160" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E160" s="1"/>
-    </row>
-    <row r="161" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P160" s="1"/>
+    </row>
+    <row r="161" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E161" s="1"/>
-    </row>
-    <row r="162" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P161" s="1"/>
+    </row>
+    <row r="162" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E162" s="1"/>
-    </row>
-    <row r="163" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P162" s="1"/>
+    </row>
+    <row r="163" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E163" s="1"/>
-    </row>
-    <row r="164" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P163" s="1"/>
+    </row>
+    <row r="164" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E164" s="1"/>
-    </row>
-    <row r="165" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P164" s="1"/>
+    </row>
+    <row r="165" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E165" s="1"/>
-    </row>
-    <row r="166" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P165" s="1"/>
+    </row>
+    <row r="166" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E166" s="1"/>
-    </row>
-    <row r="167" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P166" s="1"/>
+    </row>
+    <row r="167" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E167" s="1"/>
-    </row>
-    <row r="168" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P167" s="1"/>
+    </row>
+    <row r="168" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E168" s="1"/>
-    </row>
-    <row r="169" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P168" s="1"/>
+    </row>
+    <row r="169" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E169" s="1"/>
-    </row>
-    <row r="170" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P169" s="1"/>
+    </row>
+    <row r="170" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E170" s="1"/>
-    </row>
-    <row r="171" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P170" s="1"/>
+    </row>
+    <row r="171" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E171" s="1"/>
-    </row>
-    <row r="172" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P171" s="1"/>
+    </row>
+    <row r="172" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E172" s="1"/>
-    </row>
-    <row r="173" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P172" s="1"/>
+    </row>
+    <row r="173" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E173" s="1"/>
-    </row>
-    <row r="174" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P173" s="1"/>
+    </row>
+    <row r="174" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E174" s="1"/>
-    </row>
-    <row r="175" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P174" s="1"/>
+    </row>
+    <row r="175" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E175" s="1"/>
-    </row>
-    <row r="176" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P175" s="1"/>
+    </row>
+    <row r="176" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E176" s="1"/>
-    </row>
-    <row r="177" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P176" s="1"/>
+    </row>
+    <row r="177" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E177" s="1"/>
-    </row>
-    <row r="178" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P177" s="1"/>
+    </row>
+    <row r="178" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E178" s="1"/>
-    </row>
-    <row r="179" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P178" s="1"/>
+    </row>
+    <row r="179" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E179" s="1"/>
-    </row>
-    <row r="180" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P179" s="1"/>
+    </row>
+    <row r="180" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E180" s="1"/>
-    </row>
-    <row r="181" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P180" s="1"/>
+    </row>
+    <row r="181" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E181" s="1"/>
-    </row>
-    <row r="182" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P181" s="1"/>
+    </row>
+    <row r="182" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E182" s="1"/>
-    </row>
-    <row r="183" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P182" s="1"/>
+    </row>
+    <row r="183" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E183" s="1"/>
-    </row>
-    <row r="184" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P183" s="1"/>
+    </row>
+    <row r="184" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E184" s="1"/>
-    </row>
-    <row r="185" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P184" s="1"/>
+    </row>
+    <row r="185" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E185" s="1"/>
-    </row>
-    <row r="186" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P185" s="1"/>
+    </row>
+    <row r="186" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E186" s="1"/>
-    </row>
-    <row r="187" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P186" s="1"/>
+    </row>
+    <row r="187" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E187" s="1"/>
-    </row>
-    <row r="188" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P187" s="1"/>
+    </row>
+    <row r="188" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E188" s="1"/>
-    </row>
-    <row r="189" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P188" s="1"/>
+    </row>
+    <row r="189" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E189" s="1"/>
-    </row>
-    <row r="190" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P189" s="1"/>
+    </row>
+    <row r="190" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E190" s="1"/>
-    </row>
-    <row r="191" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P190" s="1"/>
+    </row>
+    <row r="191" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E191" s="1"/>
-    </row>
-    <row r="192" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P191" s="1"/>
+    </row>
+    <row r="192" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E192" s="1"/>
-    </row>
-    <row r="193" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P192" s="1"/>
+    </row>
+    <row r="193" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E193" s="1"/>
-    </row>
-    <row r="194" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P193" s="1"/>
+    </row>
+    <row r="194" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E194" s="1"/>
-    </row>
-    <row r="195" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P194" s="1"/>
+    </row>
+    <row r="195" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E195" s="1"/>
-    </row>
-    <row r="196" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P195" s="1"/>
+    </row>
+    <row r="196" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E196" s="1"/>
-    </row>
-    <row r="197" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P196" s="1"/>
+    </row>
+    <row r="197" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E197" s="1"/>
-    </row>
-    <row r="198" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P197" s="1"/>
+    </row>
+    <row r="198" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E198" s="1"/>
-    </row>
-    <row r="199" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P198" s="1"/>
+    </row>
+    <row r="199" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E199" s="1"/>
-    </row>
-    <row r="200" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P199" s="1"/>
+    </row>
+    <row r="200" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E200" s="1"/>
-    </row>
-    <row r="201" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P200" s="1"/>
+    </row>
+    <row r="201" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E201" s="1"/>
-    </row>
-    <row r="202" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P201" s="1"/>
+    </row>
+    <row r="202" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E202" s="1"/>
-    </row>
-    <row r="203" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P202" s="1"/>
+    </row>
+    <row r="203" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E203" s="1"/>
-    </row>
-    <row r="204" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P203" s="1"/>
+    </row>
+    <row r="204" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E204" s="1"/>
-    </row>
-    <row r="205" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P204" s="1"/>
+    </row>
+    <row r="205" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E205" s="1"/>
-    </row>
-    <row r="206" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P205" s="1"/>
+    </row>
+    <row r="206" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E206" s="1"/>
-    </row>
-    <row r="207" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P206" s="1"/>
+    </row>
+    <row r="207" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E207" s="1"/>
-    </row>
-    <row r="208" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P207" s="1"/>
+    </row>
+    <row r="208" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E208" s="1"/>
-    </row>
-    <row r="209" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P208" s="1"/>
+    </row>
+    <row r="209" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E209" s="1"/>
-    </row>
-    <row r="210" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P209" s="1"/>
+    </row>
+    <row r="210" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E210" s="1"/>
-    </row>
-    <row r="211" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P210" s="1"/>
+    </row>
+    <row r="211" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E211" s="1"/>
-    </row>
-    <row r="212" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P211" s="1"/>
+    </row>
+    <row r="212" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E212" s="1"/>
-    </row>
-    <row r="213" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P212" s="1"/>
+    </row>
+    <row r="213" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E213" s="1"/>
-    </row>
-    <row r="214" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P213" s="1"/>
+    </row>
+    <row r="214" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E214" s="1"/>
-    </row>
-    <row r="215" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P214" s="1"/>
+    </row>
+    <row r="215" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E215" s="1"/>
-    </row>
-    <row r="216" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P215" s="1"/>
+    </row>
+    <row r="216" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E216" s="1"/>
-    </row>
-    <row r="217" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P216" s="1"/>
+    </row>
+    <row r="217" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E217" s="1"/>
-    </row>
-    <row r="218" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P217" s="1"/>
+    </row>
+    <row r="218" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E218" s="1"/>
-    </row>
-    <row r="219" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P218" s="1"/>
+    </row>
+    <row r="219" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E219" s="1"/>
-    </row>
-    <row r="220" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P219" s="1"/>
+    </row>
+    <row r="220" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E220" s="1"/>
-    </row>
-    <row r="221" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P220" s="1"/>
+    </row>
+    <row r="221" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E221" s="1"/>
-    </row>
-    <row r="222" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P221" s="1"/>
+    </row>
+    <row r="222" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E222" s="1"/>
-    </row>
-    <row r="223" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P222" s="1"/>
+    </row>
+    <row r="223" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E223" s="1"/>
-    </row>
-    <row r="224" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P223" s="1"/>
+    </row>
+    <row r="224" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E224" s="1"/>
-    </row>
-    <row r="225" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P224" s="1"/>
+    </row>
+    <row r="225" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E225" s="1"/>
-    </row>
-    <row r="226" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P225" s="1"/>
+    </row>
+    <row r="226" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E226" s="1"/>
-    </row>
-    <row r="227" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P226" s="1"/>
+    </row>
+    <row r="227" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E227" s="1"/>
-    </row>
-    <row r="228" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P227" s="1"/>
+    </row>
+    <row r="228" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E228" s="1"/>
-    </row>
-    <row r="229" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P228" s="1"/>
+    </row>
+    <row r="229" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E229" s="1"/>
-    </row>
-    <row r="230" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P229" s="1"/>
+    </row>
+    <row r="230" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E230" s="1"/>
-    </row>
-    <row r="231" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P230" s="1"/>
+    </row>
+    <row r="231" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E231" s="1"/>
-    </row>
-    <row r="232" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P231" s="1"/>
+    </row>
+    <row r="232" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E232" s="1"/>
-    </row>
-    <row r="233" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P232" s="1"/>
+    </row>
+    <row r="233" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E233" s="1"/>
-    </row>
-    <row r="234" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P233" s="1"/>
+    </row>
+    <row r="234" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E234" s="1"/>
-    </row>
-    <row r="235" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P234" s="1"/>
+    </row>
+    <row r="235" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E235" s="1"/>
-    </row>
-    <row r="236" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P235" s="1"/>
+    </row>
+    <row r="236" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E236" s="1"/>
-    </row>
-    <row r="237" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P236" s="1"/>
+    </row>
+    <row r="237" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E237" s="1"/>
-    </row>
-    <row r="238" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P237" s="1"/>
+    </row>
+    <row r="238" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E238" s="1"/>
-    </row>
-    <row r="239" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P238" s="1"/>
+    </row>
+    <row r="239" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E239" s="1"/>
-    </row>
-    <row r="240" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P239" s="1"/>
+    </row>
+    <row r="240" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E240" s="1"/>
-    </row>
-    <row r="241" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P240" s="1"/>
+    </row>
+    <row r="241" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E241" s="1"/>
-    </row>
-    <row r="242" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P241" s="1"/>
+    </row>
+    <row r="242" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E242" s="1"/>
-    </row>
-    <row r="243" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P242" s="1"/>
+    </row>
+    <row r="243" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E243" s="1"/>
-    </row>
-    <row r="244" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P243" s="1"/>
+    </row>
+    <row r="244" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E244" s="1"/>
-    </row>
-    <row r="245" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P244" s="1"/>
+    </row>
+    <row r="245" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E245" s="1"/>
-    </row>
-    <row r="246" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P245" s="1"/>
+    </row>
+    <row r="246" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E246" s="1"/>
-    </row>
-    <row r="247" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P246" s="1"/>
+    </row>
+    <row r="247" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E247" s="1"/>
-    </row>
-    <row r="248" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P247" s="1"/>
+    </row>
+    <row r="248" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E248" s="1"/>
-    </row>
-    <row r="249" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P248" s="1"/>
+    </row>
+    <row r="249" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E249" s="1"/>
-    </row>
-    <row r="250" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P249" s="1"/>
+    </row>
+    <row r="250" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E250" s="1"/>
-    </row>
-    <row r="251" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P250" s="1"/>
+    </row>
+    <row r="251" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E251" s="1"/>
-    </row>
-    <row r="252" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P251" s="1"/>
+    </row>
+    <row r="252" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E252" s="1"/>
-    </row>
-    <row r="253" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P252" s="1"/>
+    </row>
+    <row r="253" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E253" s="1"/>
-    </row>
-    <row r="254" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P253" s="1"/>
+    </row>
+    <row r="254" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E254" s="1"/>
-    </row>
-    <row r="255" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P254" s="1"/>
+    </row>
+    <row r="255" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E255" s="1"/>
-    </row>
-    <row r="256" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P255" s="1"/>
+    </row>
+    <row r="256" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E256" s="1"/>
-    </row>
-    <row r="257" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P256" s="1"/>
+    </row>
+    <row r="257" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E257" s="1"/>
-    </row>
-    <row r="258" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P257" s="1"/>
+    </row>
+    <row r="258" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E258" s="1"/>
-    </row>
-    <row r="259" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P258" s="1"/>
+    </row>
+    <row r="259" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E259" s="1"/>
-    </row>
-    <row r="260" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P259" s="1"/>
+    </row>
+    <row r="260" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E260" s="1"/>
-    </row>
-    <row r="261" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P260" s="1"/>
+    </row>
+    <row r="261" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E261" s="1"/>
-    </row>
-    <row r="262" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P261" s="1"/>
+    </row>
+    <row r="262" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E262" s="1"/>
-    </row>
-    <row r="263" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P262" s="1"/>
+    </row>
+    <row r="263" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E263" s="1"/>
-    </row>
-    <row r="264" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P263" s="1"/>
+    </row>
+    <row r="264" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E264" s="1"/>
-    </row>
-    <row r="265" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P264" s="1"/>
+    </row>
+    <row r="265" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E265" s="1"/>
-    </row>
-    <row r="266" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P265" s="1"/>
+    </row>
+    <row r="266" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E266" s="1"/>
-    </row>
-    <row r="267" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P266" s="1"/>
+    </row>
+    <row r="267" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E267" s="1"/>
-    </row>
-    <row r="268" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P267" s="1"/>
+    </row>
+    <row r="268" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E268" s="1"/>
-    </row>
-    <row r="269" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P268" s="1"/>
+    </row>
+    <row r="269" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E269" s="1"/>
-    </row>
-    <row r="270" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P269" s="1"/>
+    </row>
+    <row r="270" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E270" s="1"/>
-    </row>
-    <row r="271" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P270" s="1"/>
+    </row>
+    <row r="271" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E271" s="1"/>
-    </row>
-    <row r="272" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P271" s="1"/>
+    </row>
+    <row r="272" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E272" s="1"/>
-    </row>
-    <row r="273" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P272" s="1"/>
+    </row>
+    <row r="273" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E273" s="1"/>
-    </row>
-    <row r="274" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P273" s="1"/>
+    </row>
+    <row r="274" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E274" s="1"/>
-    </row>
-    <row r="275" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P274" s="1"/>
+    </row>
+    <row r="275" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E275" s="1"/>
-    </row>
-    <row r="276" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P275" s="1"/>
+    </row>
+    <row r="276" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E276" s="1"/>
-    </row>
-    <row r="277" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P276" s="1"/>
+    </row>
+    <row r="277" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E277" s="1"/>
-    </row>
-    <row r="278" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P277" s="1"/>
+    </row>
+    <row r="278" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E278" s="1"/>
-    </row>
-    <row r="279" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P278" s="1"/>
+    </row>
+    <row r="279" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E279" s="1"/>
-    </row>
-    <row r="280" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P279" s="1"/>
+    </row>
+    <row r="280" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E280" s="1"/>
-    </row>
-    <row r="281" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P280" s="1"/>
+    </row>
+    <row r="281" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E281" s="1"/>
-    </row>
-    <row r="282" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P281" s="1"/>
+    </row>
+    <row r="282" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E282" s="1"/>
-    </row>
-    <row r="283" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P282" s="1"/>
+    </row>
+    <row r="283" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E283" s="1"/>
-    </row>
-    <row r="284" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P283" s="1"/>
+    </row>
+    <row r="284" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E284" s="1"/>
-    </row>
-    <row r="285" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P284" s="1"/>
+    </row>
+    <row r="285" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E285" s="1"/>
-    </row>
-    <row r="286" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P285" s="1"/>
+    </row>
+    <row r="286" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E286" s="1"/>
-    </row>
-    <row r="287" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P286" s="1"/>
+    </row>
+    <row r="287" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E287" s="1"/>
-    </row>
-    <row r="288" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P287" s="1"/>
+    </row>
+    <row r="288" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E288" s="1"/>
-    </row>
-    <row r="289" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P288" s="1"/>
+    </row>
+    <row r="289" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E289" s="1"/>
-    </row>
-    <row r="290" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P289" s="1"/>
+    </row>
+    <row r="290" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E290" s="1"/>
-    </row>
-    <row r="291" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P290" s="1"/>
+    </row>
+    <row r="291" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E291" s="1"/>
-    </row>
-    <row r="292" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P291" s="1"/>
+    </row>
+    <row r="292" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E292" s="1"/>
-    </row>
-    <row r="293" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P292" s="1"/>
+    </row>
+    <row r="293" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E293" s="1"/>
-    </row>
-    <row r="294" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P293" s="1"/>
+    </row>
+    <row r="294" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E294" s="1"/>
-    </row>
-    <row r="295" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P294" s="1"/>
+    </row>
+    <row r="295" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E295" s="1"/>
-    </row>
-    <row r="296" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P295" s="1"/>
+    </row>
+    <row r="296" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E296" s="1"/>
-    </row>
-    <row r="297" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P296" s="1"/>
+    </row>
+    <row r="297" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E297" s="1"/>
-    </row>
-    <row r="298" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P297" s="1"/>
+    </row>
+    <row r="298" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E298" s="1"/>
-    </row>
-    <row r="299" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P298" s="1"/>
+    </row>
+    <row r="299" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E299" s="1"/>
-    </row>
-    <row r="300" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P299" s="1"/>
+    </row>
+    <row r="300" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E300" s="1"/>
-    </row>
-    <row r="301" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P300" s="1"/>
+    </row>
+    <row r="301" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E301" s="1"/>
-    </row>
-    <row r="302" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P301" s="1"/>
+    </row>
+    <row r="302" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E302" s="1"/>
-    </row>
-    <row r="303" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P302" s="1"/>
+    </row>
+    <row r="303" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E303" s="1"/>
-    </row>
-    <row r="304" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P303" s="1"/>
+    </row>
+    <row r="304" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E304" s="1"/>
-    </row>
-    <row r="305" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P304" s="1"/>
+    </row>
+    <row r="305" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E305" s="1"/>
-    </row>
-    <row r="306" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P305" s="1"/>
+    </row>
+    <row r="306" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E306" s="1"/>
-    </row>
-    <row r="307" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P306" s="1"/>
+    </row>
+    <row r="307" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E307" s="1"/>
-    </row>
-    <row r="308" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P307" s="1"/>
+    </row>
+    <row r="308" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E308" s="1"/>
-    </row>
-    <row r="309" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P308" s="1"/>
+    </row>
+    <row r="309" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E309" s="1"/>
-    </row>
-    <row r="310" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P309" s="1"/>
+    </row>
+    <row r="310" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E310" s="1"/>
-    </row>
-    <row r="311" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P310" s="1"/>
+    </row>
+    <row r="311" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E311" s="1"/>
-    </row>
-    <row r="312" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P311" s="1"/>
+    </row>
+    <row r="312" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E312" s="1"/>
-    </row>
-    <row r="313" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P312" s="1"/>
+    </row>
+    <row r="313" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E313" s="1"/>
-    </row>
-    <row r="314" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P313" s="1"/>
+    </row>
+    <row r="314" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E314" s="1"/>
-    </row>
-    <row r="315" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P314" s="1"/>
+    </row>
+    <row r="315" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E315" s="1"/>
-    </row>
-    <row r="316" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P315" s="1"/>
+    </row>
+    <row r="316" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E316" s="1"/>
-    </row>
-    <row r="317" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P316" s="1"/>
+    </row>
+    <row r="317" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E317" s="1"/>
-    </row>
-    <row r="318" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P317" s="1"/>
+    </row>
+    <row r="318" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E318" s="1"/>
-    </row>
-    <row r="319" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P318" s="1"/>
+    </row>
+    <row r="319" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E319" s="1"/>
-    </row>
-    <row r="320" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P319" s="1"/>
+    </row>
+    <row r="320" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E320" s="1"/>
-    </row>
-    <row r="321" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P320" s="1"/>
+    </row>
+    <row r="321" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E321" s="1"/>
-    </row>
-    <row r="322" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P321" s="1"/>
+    </row>
+    <row r="322" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E322" s="1"/>
-    </row>
-    <row r="323" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P322" s="1"/>
+    </row>
+    <row r="323" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E323" s="1"/>
-    </row>
-    <row r="324" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P323" s="1"/>
+    </row>
+    <row r="324" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E324" s="1"/>
-    </row>
-    <row r="325" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P324" s="1"/>
+    </row>
+    <row r="325" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E325" s="1"/>
-    </row>
-    <row r="326" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P325" s="1"/>
+    </row>
+    <row r="326" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E326" s="1"/>
-    </row>
-    <row r="327" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P326" s="1"/>
+    </row>
+    <row r="327" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E327" s="1"/>
-    </row>
-    <row r="328" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P327" s="1"/>
+    </row>
+    <row r="328" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E328" s="1"/>
-    </row>
-    <row r="329" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P328" s="1"/>
+    </row>
+    <row r="329" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E329" s="1"/>
-    </row>
-    <row r="330" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P329" s="1"/>
+    </row>
+    <row r="330" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E330" s="1"/>
-    </row>
-    <row r="331" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P330" s="1"/>
+    </row>
+    <row r="331" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E331" s="1"/>
-    </row>
-    <row r="332" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P331" s="1"/>
+    </row>
+    <row r="332" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E332" s="1"/>
-    </row>
-    <row r="333" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P332" s="1"/>
+    </row>
+    <row r="333" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E333" s="1"/>
-    </row>
-    <row r="334" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P333" s="1"/>
+    </row>
+    <row r="334" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E334" s="1"/>
-    </row>
-    <row r="335" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P334" s="1"/>
+    </row>
+    <row r="335" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E335" s="1"/>
-    </row>
-    <row r="336" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P335" s="1"/>
+    </row>
+    <row r="336" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E336" s="1"/>
-    </row>
-    <row r="337" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P336" s="1"/>
+    </row>
+    <row r="337" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E337" s="1"/>
-    </row>
-    <row r="338" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P337" s="1"/>
+    </row>
+    <row r="338" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E338" s="1"/>
-    </row>
-    <row r="339" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P338" s="1"/>
+    </row>
+    <row r="339" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E339" s="1"/>
-    </row>
-    <row r="340" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P339" s="1"/>
+    </row>
+    <row r="340" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E340" s="1"/>
-    </row>
-    <row r="341" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P340" s="1"/>
+    </row>
+    <row r="341" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E341" s="1"/>
-    </row>
-    <row r="342" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P341" s="1"/>
+    </row>
+    <row r="342" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E342" s="1"/>
-    </row>
-    <row r="343" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P342" s="1"/>
+    </row>
+    <row r="343" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E343" s="1"/>
-    </row>
-    <row r="344" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P343" s="1"/>
+    </row>
+    <row r="344" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E344" s="1"/>
-    </row>
-    <row r="345" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P344" s="1"/>
+    </row>
+    <row r="345" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E345" s="1"/>
-    </row>
-    <row r="346" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P345" s="1"/>
+    </row>
+    <row r="346" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E346" s="1"/>
-    </row>
-    <row r="347" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P346" s="1"/>
+    </row>
+    <row r="347" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E347" s="1"/>
-    </row>
-    <row r="348" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P347" s="1"/>
+    </row>
+    <row r="348" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E348" s="1"/>
-    </row>
-    <row r="349" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P348" s="1"/>
+    </row>
+    <row r="349" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E349" s="1"/>
-    </row>
-    <row r="350" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P349" s="1"/>
+    </row>
+    <row r="350" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E350" s="1"/>
-    </row>
-    <row r="351" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P350" s="1"/>
+    </row>
+    <row r="351" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E351" s="1"/>
-    </row>
-    <row r="352" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P351" s="1"/>
+    </row>
+    <row r="352" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E352" s="1"/>
-    </row>
-    <row r="353" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P352" s="1"/>
+    </row>
+    <row r="353" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E353" s="1"/>
-    </row>
-    <row r="354" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P353" s="1"/>
+    </row>
+    <row r="354" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E354" s="1"/>
-    </row>
-    <row r="355" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P354" s="1"/>
+    </row>
+    <row r="355" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E355" s="1"/>
-    </row>
-    <row r="356" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P355" s="1"/>
+    </row>
+    <row r="356" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E356" s="1"/>
-    </row>
-    <row r="357" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P356" s="1"/>
+    </row>
+    <row r="357" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E357" s="1"/>
-    </row>
-    <row r="358" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P357" s="1"/>
+    </row>
+    <row r="358" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E358" s="1"/>
-    </row>
-    <row r="359" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P358" s="1"/>
+    </row>
+    <row r="359" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E359" s="1"/>
-    </row>
-    <row r="360" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P359" s="1"/>
+    </row>
+    <row r="360" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E360" s="1"/>
-    </row>
-    <row r="361" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P360" s="1"/>
+    </row>
+    <row r="361" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E361" s="1"/>
-    </row>
-    <row r="362" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P361" s="1"/>
+    </row>
+    <row r="362" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E362" s="1"/>
-    </row>
-    <row r="363" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P362" s="1"/>
+    </row>
+    <row r="363" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E363" s="1"/>
-    </row>
-    <row r="364" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P363" s="1"/>
+    </row>
+    <row r="364" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E364" s="1"/>
-    </row>
-    <row r="365" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P364" s="1"/>
+    </row>
+    <row r="365" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E365" s="1"/>
-    </row>
-    <row r="366" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P365" s="1"/>
+    </row>
+    <row r="366" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E366" s="1"/>
-    </row>
-    <row r="367" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P366" s="1"/>
+    </row>
+    <row r="367" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E367" s="1"/>
-    </row>
-    <row r="368" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P367" s="1"/>
+    </row>
+    <row r="368" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E368" s="1"/>
-    </row>
-    <row r="369" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P368" s="1"/>
+    </row>
+    <row r="369" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E369" s="1"/>
-    </row>
-    <row r="370" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P369" s="1"/>
+    </row>
+    <row r="370" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E370" s="1"/>
-    </row>
-    <row r="371" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P370" s="1"/>
+    </row>
+    <row r="371" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E371" s="1"/>
-    </row>
-    <row r="372" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P371" s="1"/>
+    </row>
+    <row r="372" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E372" s="1"/>
-    </row>
-    <row r="373" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P372" s="1"/>
+    </row>
+    <row r="373" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E373" s="1"/>
-    </row>
-    <row r="374" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P373" s="1"/>
+    </row>
+    <row r="374" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E374" s="1"/>
-    </row>
-    <row r="375" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P374" s="1"/>
+    </row>
+    <row r="375" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E375" s="1"/>
-    </row>
-    <row r="376" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P375" s="1"/>
+    </row>
+    <row r="376" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E376" s="1"/>
-    </row>
-    <row r="377" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P376" s="1"/>
+    </row>
+    <row r="377" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E377" s="1"/>
-    </row>
-    <row r="378" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P377" s="1"/>
+    </row>
+    <row r="378" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E378" s="1"/>
-    </row>
-    <row r="379" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P378" s="1"/>
+    </row>
+    <row r="379" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E379" s="1"/>
-    </row>
-    <row r="380" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P379" s="1"/>
+    </row>
+    <row r="380" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E380" s="1"/>
-    </row>
-    <row r="381" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P380" s="1"/>
+    </row>
+    <row r="381" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E381" s="1"/>
-    </row>
-    <row r="382" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P381" s="1"/>
+    </row>
+    <row r="382" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E382" s="1"/>
-    </row>
-    <row r="383" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P382" s="1"/>
+    </row>
+    <row r="383" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E383" s="1"/>
-    </row>
-    <row r="384" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P383" s="1"/>
+    </row>
+    <row r="384" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E384" s="1"/>
-    </row>
-    <row r="385" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P384" s="1"/>
+    </row>
+    <row r="385" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E385" s="1"/>
-    </row>
-    <row r="386" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P385" s="1"/>
+    </row>
+    <row r="386" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E386" s="1"/>
-    </row>
-    <row r="387" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P386" s="1"/>
+    </row>
+    <row r="387" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E387" s="1"/>
-    </row>
-    <row r="388" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P387" s="1"/>
+    </row>
+    <row r="388" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E388" s="1"/>
-    </row>
-    <row r="389" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P388" s="1"/>
+    </row>
+    <row r="389" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E389" s="1"/>
-    </row>
-    <row r="390" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P389" s="1"/>
+    </row>
+    <row r="390" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E390" s="1"/>
-    </row>
-    <row r="391" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P390" s="1"/>
+    </row>
+    <row r="391" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E391" s="1"/>
-    </row>
-    <row r="392" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P391" s="1"/>
+    </row>
+    <row r="392" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E392" s="1"/>
-    </row>
-    <row r="393" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P392" s="1"/>
+    </row>
+    <row r="393" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E393" s="1"/>
-    </row>
-    <row r="394" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P393" s="1"/>
+    </row>
+    <row r="394" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E394" s="1"/>
-    </row>
-    <row r="395" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P394" s="1"/>
+    </row>
+    <row r="395" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E395" s="1"/>
-    </row>
-    <row r="396" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P395" s="1"/>
+    </row>
+    <row r="396" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E396" s="1"/>
-    </row>
-    <row r="397" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P396" s="1"/>
+    </row>
+    <row r="397" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E397" s="1"/>
-    </row>
-    <row r="398" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P397" s="1"/>
+    </row>
+    <row r="398" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E398" s="1"/>
-    </row>
-    <row r="399" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P398" s="1"/>
+    </row>
+    <row r="399" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E399" s="1"/>
-    </row>
-    <row r="400" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P399" s="1"/>
+    </row>
+    <row r="400" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E400" s="1"/>
-    </row>
-    <row r="401" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P400" s="1"/>
+    </row>
+    <row r="401" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E401" s="1"/>
-    </row>
-    <row r="402" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P401" s="1"/>
+    </row>
+    <row r="402" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E402" s="1"/>
-    </row>
-    <row r="403" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P402" s="1"/>
+    </row>
+    <row r="403" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E403" s="1"/>
-    </row>
-    <row r="404" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P403" s="1"/>
+    </row>
+    <row r="404" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E404" s="1"/>
-    </row>
-    <row r="405" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P404" s="1"/>
+    </row>
+    <row r="405" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E405" s="1"/>
-    </row>
-    <row r="406" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P405" s="1"/>
+    </row>
+    <row r="406" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E406" s="1"/>
-    </row>
-    <row r="407" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P406" s="1"/>
+    </row>
+    <row r="407" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E407" s="1"/>
-    </row>
-    <row r="408" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P407" s="1"/>
+    </row>
+    <row r="408" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E408" s="1"/>
-    </row>
-    <row r="409" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P408" s="1"/>
+    </row>
+    <row r="409" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E409" s="1"/>
-    </row>
-    <row r="410" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P409" s="1"/>
+    </row>
+    <row r="410" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E410" s="1"/>
-    </row>
-    <row r="411" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P410" s="1"/>
+    </row>
+    <row r="411" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E411" s="1"/>
-    </row>
-    <row r="412" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P411" s="1"/>
+    </row>
+    <row r="412" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E412" s="1"/>
-    </row>
-    <row r="413" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P412" s="1"/>
+    </row>
+    <row r="413" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E413" s="1"/>
-    </row>
-    <row r="414" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P413" s="1"/>
+    </row>
+    <row r="414" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E414" s="1"/>
-    </row>
-    <row r="415" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P414" s="1"/>
+    </row>
+    <row r="415" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E415" s="1"/>
-    </row>
-    <row r="416" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P415" s="1"/>
+    </row>
+    <row r="416" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E416" s="1"/>
-    </row>
-    <row r="417" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P416" s="1"/>
+    </row>
+    <row r="417" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E417" s="1"/>
-    </row>
-    <row r="418" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P417" s="1"/>
+    </row>
+    <row r="418" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E418" s="1"/>
-    </row>
-    <row r="419" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P418" s="1"/>
+    </row>
+    <row r="419" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E419" s="1"/>
-    </row>
-    <row r="420" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P419" s="1"/>
+    </row>
+    <row r="420" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E420" s="1"/>
-    </row>
-    <row r="421" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P420" s="1"/>
+    </row>
+    <row r="421" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E421" s="1"/>
-    </row>
-    <row r="422" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P421" s="1"/>
+    </row>
+    <row r="422" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E422" s="1"/>
-    </row>
-    <row r="423" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P422" s="1"/>
+    </row>
+    <row r="423" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E423" s="1"/>
-    </row>
-    <row r="424" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P423" s="1"/>
+    </row>
+    <row r="424" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E424" s="1"/>
-    </row>
-    <row r="425" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P424" s="1"/>
+    </row>
+    <row r="425" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E425" s="1"/>
-    </row>
-    <row r="426" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P425" s="1"/>
+    </row>
+    <row r="426" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E426" s="1"/>
-    </row>
-    <row r="427" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P426" s="1"/>
+    </row>
+    <row r="427" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E427" s="1"/>
-    </row>
-    <row r="428" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P427" s="1"/>
+    </row>
+    <row r="428" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E428" s="1"/>
-    </row>
-    <row r="429" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P428" s="1"/>
+    </row>
+    <row r="429" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E429" s="1"/>
-    </row>
-    <row r="430" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P429" s="1"/>
+    </row>
+    <row r="430" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E430" s="1"/>
-    </row>
-    <row r="431" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P430" s="1"/>
+    </row>
+    <row r="431" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E431" s="1"/>
-    </row>
-    <row r="432" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P431" s="1"/>
+    </row>
+    <row r="432" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E432" s="1"/>
-    </row>
-    <row r="433" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P432" s="1"/>
+    </row>
+    <row r="433" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E433" s="1"/>
-    </row>
-    <row r="434" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P433" s="1"/>
+    </row>
+    <row r="434" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E434" s="1"/>
-    </row>
-    <row r="435" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P434" s="1"/>
+    </row>
+    <row r="435" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E435" s="1"/>
-    </row>
-    <row r="436" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P435" s="1"/>
+    </row>
+    <row r="436" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E436" s="1"/>
-    </row>
-    <row r="437" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P436" s="1"/>
+    </row>
+    <row r="437" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E437" s="1"/>
-    </row>
-    <row r="438" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P437" s="1"/>
+    </row>
+    <row r="438" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E438" s="1"/>
-    </row>
-    <row r="439" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P438" s="1"/>
+    </row>
+    <row r="439" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E439" s="1"/>
-    </row>
-    <row r="440" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P439" s="1"/>
+    </row>
+    <row r="440" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E440" s="1"/>
-    </row>
-    <row r="441" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P440" s="1"/>
+    </row>
+    <row r="441" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E441" s="1"/>
-    </row>
-    <row r="442" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P441" s="1"/>
+    </row>
+    <row r="442" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E442" s="1"/>
-    </row>
-    <row r="443" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P442" s="1"/>
+    </row>
+    <row r="443" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E443" s="1"/>
-    </row>
-    <row r="444" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P443" s="1"/>
+    </row>
+    <row r="444" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E444" s="1"/>
-    </row>
-    <row r="445" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P444" s="1"/>
+    </row>
+    <row r="445" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E445" s="1"/>
-    </row>
-    <row r="446" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P445" s="1"/>
+    </row>
+    <row r="446" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E446" s="1"/>
-    </row>
-    <row r="447" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P446" s="1"/>
+    </row>
+    <row r="447" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E447" s="1"/>
-    </row>
-    <row r="448" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P447" s="1"/>
+    </row>
+    <row r="448" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E448" s="1"/>
-    </row>
-    <row r="449" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P448" s="1"/>
+    </row>
+    <row r="449" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E449" s="1"/>
-    </row>
-    <row r="450" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P449" s="1"/>
+    </row>
+    <row r="450" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E450" s="1"/>
-    </row>
-    <row r="451" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P450" s="1"/>
+    </row>
+    <row r="451" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E451" s="1"/>
-    </row>
-    <row r="452" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P451" s="1"/>
+    </row>
+    <row r="452" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E452" s="1"/>
-    </row>
-    <row r="453" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P452" s="1"/>
+    </row>
+    <row r="453" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E453" s="1"/>
-    </row>
-    <row r="454" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P453" s="1"/>
+    </row>
+    <row r="454" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E454" s="1"/>
-    </row>
-    <row r="455" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P454" s="1"/>
+    </row>
+    <row r="455" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E455" s="1"/>
-    </row>
-    <row r="456" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P455" s="1"/>
+    </row>
+    <row r="456" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E456" s="1"/>
-    </row>
-    <row r="457" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P456" s="1"/>
+    </row>
+    <row r="457" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E457" s="1"/>
-    </row>
-    <row r="458" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P457" s="1"/>
+    </row>
+    <row r="458" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E458" s="1"/>
-    </row>
-    <row r="459" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P458" s="1"/>
+    </row>
+    <row r="459" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E459" s="1"/>
-    </row>
-    <row r="460" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P459" s="1"/>
+    </row>
+    <row r="460" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E460" s="1"/>
-    </row>
-    <row r="461" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P460" s="1"/>
+    </row>
+    <row r="461" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E461" s="1"/>
-    </row>
-    <row r="462" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P461" s="1"/>
+    </row>
+    <row r="462" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E462" s="1"/>
-    </row>
-    <row r="463" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P462" s="1"/>
+    </row>
+    <row r="463" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E463" s="1"/>
-    </row>
-    <row r="464" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P463" s="1"/>
+    </row>
+    <row r="464" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E464" s="1"/>
-    </row>
-    <row r="465" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P464" s="1"/>
+    </row>
+    <row r="465" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E465" s="1"/>
-    </row>
-    <row r="466" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P465" s="1"/>
+    </row>
+    <row r="466" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E466" s="1"/>
-    </row>
-    <row r="467" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P466" s="1"/>
+    </row>
+    <row r="467" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E467" s="1"/>
-    </row>
-    <row r="468" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P467" s="1"/>
+    </row>
+    <row r="468" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E468" s="1"/>
-    </row>
-    <row r="469" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P468" s="1"/>
+    </row>
+    <row r="469" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E469" s="1"/>
-    </row>
-    <row r="470" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P469" s="1"/>
+    </row>
+    <row r="470" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E470" s="1"/>
-    </row>
-    <row r="471" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P470" s="1"/>
+    </row>
+    <row r="471" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E471" s="1"/>
-    </row>
-    <row r="472" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P471" s="1"/>
+    </row>
+    <row r="472" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E472" s="1"/>
-    </row>
-    <row r="473" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P472" s="1"/>
+    </row>
+    <row r="473" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E473" s="1"/>
-    </row>
-    <row r="474" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P473" s="1"/>
+    </row>
+    <row r="474" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E474" s="1"/>
-    </row>
-    <row r="475" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P474" s="1"/>
+    </row>
+    <row r="475" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E475" s="1"/>
-    </row>
-    <row r="476" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P475" s="1"/>
+    </row>
+    <row r="476" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E476" s="1"/>
-    </row>
-    <row r="477" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P476" s="1"/>
+    </row>
+    <row r="477" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E477" s="1"/>
-    </row>
-    <row r="478" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P477" s="1"/>
+    </row>
+    <row r="478" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E478" s="1"/>
-    </row>
-    <row r="479" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P478" s="1"/>
+    </row>
+    <row r="479" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E479" s="1"/>
-    </row>
-    <row r="480" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P479" s="1"/>
+    </row>
+    <row r="480" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E480" s="1"/>
-    </row>
-    <row r="481" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P480" s="1"/>
+    </row>
+    <row r="481" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E481" s="1"/>
-    </row>
-    <row r="482" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P481" s="1"/>
+    </row>
+    <row r="482" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E482" s="1"/>
-    </row>
-    <row r="483" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P482" s="1"/>
+    </row>
+    <row r="483" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E483" s="1"/>
-    </row>
-    <row r="484" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P483" s="1"/>
+    </row>
+    <row r="484" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E484" s="1"/>
-    </row>
-    <row r="485" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P484" s="1"/>
+    </row>
+    <row r="485" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E485" s="1"/>
-    </row>
-    <row r="486" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P485" s="1"/>
+    </row>
+    <row r="486" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E486" s="1"/>
-    </row>
-    <row r="487" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P486" s="1"/>
+    </row>
+    <row r="487" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E487" s="1"/>
-    </row>
-    <row r="488" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P487" s="1"/>
+    </row>
+    <row r="488" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E488" s="1"/>
-    </row>
-    <row r="489" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P488" s="1"/>
+    </row>
+    <row r="489" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E489" s="1"/>
-    </row>
-    <row r="490" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P489" s="1"/>
+    </row>
+    <row r="490" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E490" s="1"/>
-    </row>
-    <row r="491" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P490" s="1"/>
+    </row>
+    <row r="491" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E491" s="1"/>
-    </row>
-    <row r="492" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P491" s="1"/>
+    </row>
+    <row r="492" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E492" s="1"/>
-    </row>
-    <row r="493" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P492" s="1"/>
+    </row>
+    <row r="493" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E493" s="1"/>
-    </row>
-    <row r="494" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P493" s="1"/>
+    </row>
+    <row r="494" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E494" s="1"/>
-    </row>
-    <row r="495" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P494" s="1"/>
+    </row>
+    <row r="495" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E495" s="1"/>
-    </row>
-    <row r="496" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P495" s="1"/>
+    </row>
+    <row r="496" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E496" s="1"/>
-    </row>
-    <row r="497" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P496" s="1"/>
+    </row>
+    <row r="497" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E497" s="1"/>
-    </row>
-    <row r="498" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P497" s="1"/>
+    </row>
+    <row r="498" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E498" s="1"/>
-    </row>
-    <row r="499" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P498" s="1"/>
+    </row>
+    <row r="499" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E499" s="1"/>
-    </row>
-    <row r="500" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P499" s="1"/>
+    </row>
+    <row r="500" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E500" s="1"/>
-    </row>
-    <row r="501" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P500" s="1"/>
+    </row>
+    <row r="501" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E501" s="1"/>
-    </row>
-    <row r="502" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P501" s="1"/>
+    </row>
+    <row r="502" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E502" s="1"/>
-    </row>
-    <row r="503" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P502" s="1"/>
+    </row>
+    <row r="503" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E503" s="1"/>
-    </row>
-    <row r="504" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P503" s="1"/>
+    </row>
+    <row r="504" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E504" s="1"/>
-    </row>
-    <row r="505" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P504" s="1"/>
+    </row>
+    <row r="505" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E505" s="1"/>
-    </row>
-    <row r="506" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P505" s="1"/>
+    </row>
+    <row r="506" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E506" s="1"/>
-    </row>
-    <row r="507" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P506" s="1"/>
+    </row>
+    <row r="507" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E507" s="1"/>
-    </row>
-    <row r="508" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P507" s="1"/>
+    </row>
+    <row r="508" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E508" s="1"/>
-    </row>
-    <row r="509" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P508" s="1"/>
+    </row>
+    <row r="509" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E509" s="1"/>
-    </row>
-    <row r="510" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P509" s="1"/>
+    </row>
+    <row r="510" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E510" s="1"/>
-    </row>
-    <row r="511" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P510" s="1"/>
+    </row>
+    <row r="511" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E511" s="1"/>
-    </row>
-    <row r="512" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P511" s="1"/>
+    </row>
+    <row r="512" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E512" s="1"/>
-    </row>
-    <row r="513" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P512" s="1"/>
+    </row>
+    <row r="513" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E513" s="1"/>
-    </row>
-    <row r="514" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P513" s="1"/>
+    </row>
+    <row r="514" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E514" s="1"/>
-    </row>
-    <row r="515" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P514" s="1"/>
+    </row>
+    <row r="515" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E515" s="1"/>
-    </row>
-    <row r="516" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P515" s="1"/>
+    </row>
+    <row r="516" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E516" s="1"/>
-    </row>
-    <row r="517" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P516" s="1"/>
+    </row>
+    <row r="517" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E517" s="1"/>
-    </row>
-    <row r="518" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P517" s="1"/>
+    </row>
+    <row r="518" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E518" s="1"/>
-    </row>
-    <row r="519" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P518" s="1"/>
+    </row>
+    <row r="519" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E519" s="1"/>
-    </row>
-    <row r="520" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P519" s="1"/>
+    </row>
+    <row r="520" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E520" s="1"/>
-    </row>
-    <row r="521" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P520" s="1"/>
+    </row>
+    <row r="521" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E521" s="1"/>
-    </row>
-    <row r="522" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P521" s="1"/>
+    </row>
+    <row r="522" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E522" s="1"/>
-    </row>
-    <row r="523" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P522" s="1"/>
+    </row>
+    <row r="523" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E523" s="1"/>
-    </row>
-    <row r="524" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P523" s="1"/>
+    </row>
+    <row r="524" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E524" s="1"/>
-    </row>
-    <row r="525" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P524" s="1"/>
+    </row>
+    <row r="525" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E525" s="1"/>
-    </row>
-    <row r="526" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P525" s="1"/>
+    </row>
+    <row r="526" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E526" s="1"/>
-    </row>
-    <row r="527" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P526" s="1"/>
+    </row>
+    <row r="527" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E527" s="1"/>
-    </row>
-    <row r="528" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P527" s="1"/>
+    </row>
+    <row r="528" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E528" s="1"/>
-    </row>
-    <row r="529" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P528" s="1"/>
+    </row>
+    <row r="529" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E529" s="1"/>
-    </row>
-    <row r="530" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P529" s="1"/>
+    </row>
+    <row r="530" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E530" s="1"/>
-    </row>
-    <row r="531" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P530" s="1"/>
+    </row>
+    <row r="531" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E531" s="1"/>
-    </row>
-    <row r="532" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P531" s="1"/>
+    </row>
+    <row r="532" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E532" s="1"/>
-    </row>
-    <row r="533" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P532" s="1"/>
+    </row>
+    <row r="533" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E533" s="1"/>
-    </row>
-    <row r="534" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P533" s="1"/>
+    </row>
+    <row r="534" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E534" s="1"/>
-    </row>
-    <row r="535" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P534" s="1"/>
+    </row>
+    <row r="535" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E535" s="1"/>
-    </row>
-    <row r="536" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P535" s="1"/>
+    </row>
+    <row r="536" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E536" s="1"/>
-    </row>
-    <row r="537" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P536" s="1"/>
+    </row>
+    <row r="537" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E537" s="1"/>
-    </row>
-    <row r="538" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P537" s="1"/>
+    </row>
+    <row r="538" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E538" s="1"/>
-    </row>
-    <row r="539" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P538" s="1"/>
+    </row>
+    <row r="539" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E539" s="1"/>
-    </row>
-    <row r="540" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P539" s="1"/>
+    </row>
+    <row r="540" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E540" s="1"/>
-    </row>
-    <row r="541" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P540" s="1"/>
+    </row>
+    <row r="541" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E541" s="1"/>
-    </row>
-    <row r="542" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P541" s="1"/>
+    </row>
+    <row r="542" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E542" s="1"/>
-    </row>
-    <row r="543" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P542" s="1"/>
+    </row>
+    <row r="543" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E543" s="1"/>
-    </row>
-    <row r="544" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P543" s="1"/>
+    </row>
+    <row r="544" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E544" s="1"/>
-    </row>
-    <row r="545" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P544" s="1"/>
+    </row>
+    <row r="545" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E545" s="1"/>
-    </row>
-    <row r="546" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P545" s="1"/>
+    </row>
+    <row r="546" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E546" s="1"/>
-    </row>
-    <row r="547" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P546" s="1"/>
+    </row>
+    <row r="547" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E547" s="1"/>
-    </row>
-    <row r="548" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P547" s="1"/>
+    </row>
+    <row r="548" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E548" s="1"/>
-    </row>
-    <row r="549" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P548" s="1"/>
+    </row>
+    <row r="549" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E549" s="1"/>
-    </row>
-    <row r="550" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P549" s="1"/>
+    </row>
+    <row r="550" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E550" s="1"/>
-    </row>
-    <row r="551" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P550" s="1"/>
+    </row>
+    <row r="551" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E551" s="1"/>
-    </row>
-    <row r="552" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P551" s="1"/>
+    </row>
+    <row r="552" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E552" s="1"/>
-    </row>
-    <row r="553" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P552" s="1"/>
+    </row>
+    <row r="553" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E553" s="1"/>
-    </row>
-    <row r="554" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P553" s="1"/>
+    </row>
+    <row r="554" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E554" s="1"/>
-    </row>
-    <row r="555" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P554" s="1"/>
+    </row>
+    <row r="555" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E555" s="1"/>
-    </row>
-    <row r="556" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P555" s="1"/>
+    </row>
+    <row r="556" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E556" s="1"/>
-    </row>
-    <row r="557" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P556" s="1"/>
+    </row>
+    <row r="557" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E557" s="1"/>
-    </row>
-    <row r="558" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P557" s="1"/>
+    </row>
+    <row r="558" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E558" s="1"/>
-    </row>
-    <row r="559" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P558" s="1"/>
+    </row>
+    <row r="559" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E559" s="1"/>
-    </row>
-    <row r="560" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P559" s="1"/>
+    </row>
+    <row r="560" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E560" s="1"/>
-    </row>
-    <row r="561" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P560" s="1"/>
+    </row>
+    <row r="561" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E561" s="1"/>
-    </row>
-    <row r="562" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P561" s="1"/>
+    </row>
+    <row r="562" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E562" s="1"/>
-    </row>
-    <row r="563" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P562" s="1"/>
+    </row>
+    <row r="563" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E563" s="1"/>
-    </row>
-    <row r="564" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P563" s="1"/>
+    </row>
+    <row r="564" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E564" s="1"/>
-    </row>
-    <row r="565" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P564" s="1"/>
+    </row>
+    <row r="565" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E565" s="1"/>
-    </row>
-    <row r="566" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P565" s="1"/>
+    </row>
+    <row r="566" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E566" s="1"/>
-    </row>
-    <row r="567" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P566" s="1"/>
+    </row>
+    <row r="567" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E567" s="1"/>
-    </row>
-    <row r="568" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P567" s="1"/>
+    </row>
+    <row r="568" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E568" s="1"/>
-    </row>
-    <row r="569" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P568" s="1"/>
+    </row>
+    <row r="569" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E569" s="1"/>
-    </row>
-    <row r="570" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P569" s="1"/>
+    </row>
+    <row r="570" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E570" s="1"/>
-    </row>
-    <row r="571" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P570" s="1"/>
+    </row>
+    <row r="571" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E571" s="1"/>
-    </row>
-    <row r="572" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P571" s="1"/>
+    </row>
+    <row r="572" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E572" s="1"/>
-    </row>
-    <row r="573" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P572" s="1"/>
+    </row>
+    <row r="573" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E573" s="1"/>
-    </row>
-    <row r="574" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P573" s="1"/>
+    </row>
+    <row r="574" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E574" s="1"/>
-    </row>
-    <row r="575" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P574" s="1"/>
+    </row>
+    <row r="575" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E575" s="1"/>
-    </row>
-    <row r="576" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P575" s="1"/>
+    </row>
+    <row r="576" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E576" s="1"/>
-    </row>
-    <row r="577" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P576" s="1"/>
+    </row>
+    <row r="577" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E577" s="1"/>
-    </row>
-    <row r="578" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P577" s="1"/>
+    </row>
+    <row r="578" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E578" s="1"/>
-    </row>
-    <row r="579" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P578" s="1"/>
+    </row>
+    <row r="579" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E579" s="1"/>
-    </row>
-    <row r="580" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P579" s="1"/>
+    </row>
+    <row r="580" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E580" s="1"/>
-    </row>
-    <row r="581" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P580" s="1"/>
+    </row>
+    <row r="581" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E581" s="1"/>
-    </row>
-    <row r="582" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P581" s="1"/>
+    </row>
+    <row r="582" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E582" s="1"/>
-    </row>
-    <row r="583" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P582" s="1"/>
+    </row>
+    <row r="583" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E583" s="1"/>
-    </row>
-    <row r="584" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P583" s="1"/>
+    </row>
+    <row r="584" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E584" s="1"/>
-    </row>
-    <row r="585" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P584" s="1"/>
+    </row>
+    <row r="585" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E585" s="1"/>
-    </row>
-    <row r="586" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P585" s="1"/>
+    </row>
+    <row r="586" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E586" s="1"/>
-    </row>
-    <row r="587" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P586" s="1"/>
+    </row>
+    <row r="587" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E587" s="1"/>
-    </row>
-    <row r="588" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P587" s="1"/>
+    </row>
+    <row r="588" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E588" s="1"/>
-    </row>
-    <row r="589" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P588" s="1"/>
+    </row>
+    <row r="589" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E589" s="1"/>
-    </row>
-    <row r="590" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P589" s="1"/>
+    </row>
+    <row r="590" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E590" s="1"/>
-    </row>
-    <row r="591" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P590" s="1"/>
+    </row>
+    <row r="591" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E591" s="1"/>
-    </row>
-    <row r="592" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P591" s="1"/>
+    </row>
+    <row r="592" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E592" s="1"/>
-    </row>
-    <row r="593" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P592" s="1"/>
+    </row>
+    <row r="593" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E593" s="1"/>
-    </row>
-    <row r="594" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P593" s="1"/>
+    </row>
+    <row r="594" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E594" s="1"/>
-    </row>
-    <row r="595" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P594" s="1"/>
+    </row>
+    <row r="595" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E595" s="1"/>
-    </row>
-    <row r="596" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P595" s="1"/>
+    </row>
+    <row r="596" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E596" s="1"/>
-    </row>
-    <row r="597" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P596" s="1"/>
+    </row>
+    <row r="597" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E597" s="1"/>
-    </row>
-    <row r="598" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P597" s="1"/>
+    </row>
+    <row r="598" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E598" s="1"/>
-    </row>
-    <row r="599" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P598" s="1"/>
+    </row>
+    <row r="599" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E599" s="1"/>
-    </row>
-    <row r="600" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P599" s="1"/>
+    </row>
+    <row r="600" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E600" s="1"/>
-    </row>
-    <row r="601" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P600" s="1"/>
+    </row>
+    <row r="601" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E601" s="1"/>
-    </row>
-    <row r="602" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P601" s="1"/>
+    </row>
+    <row r="602" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E602" s="1"/>
-    </row>
-    <row r="603" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P602" s="1"/>
+    </row>
+    <row r="603" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E603" s="1"/>
-    </row>
-    <row r="604" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P603" s="1"/>
+    </row>
+    <row r="604" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E604" s="1"/>
-    </row>
-    <row r="605" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P604" s="1"/>
+    </row>
+    <row r="605" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E605" s="1"/>
-    </row>
-    <row r="606" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P605" s="1"/>
+    </row>
+    <row r="606" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E606" s="1"/>
-    </row>
-    <row r="607" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P606" s="1"/>
+    </row>
+    <row r="607" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E607" s="1"/>
-    </row>
-    <row r="608" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P607" s="1"/>
+    </row>
+    <row r="608" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E608" s="1"/>
-    </row>
-    <row r="609" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P608" s="1"/>
+    </row>
+    <row r="609" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E609" s="1"/>
-    </row>
-    <row r="610" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P609" s="1"/>
+    </row>
+    <row r="610" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E610" s="1"/>
-    </row>
-    <row r="611" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P610" s="1"/>
+    </row>
+    <row r="611" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E611" s="1"/>
-    </row>
-    <row r="612" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P611" s="1"/>
+    </row>
+    <row r="612" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E612" s="1"/>
-    </row>
-    <row r="613" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P612" s="1"/>
+    </row>
+    <row r="613" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E613" s="1"/>
-    </row>
-    <row r="614" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P613" s="1"/>
+    </row>
+    <row r="614" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E614" s="1"/>
-    </row>
-    <row r="615" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P614" s="1"/>
+    </row>
+    <row r="615" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E615" s="1"/>
-    </row>
-    <row r="616" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P615" s="1"/>
+    </row>
+    <row r="616" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E616" s="1"/>
-    </row>
-    <row r="617" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P616" s="1"/>
+    </row>
+    <row r="617" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E617" s="1"/>
-    </row>
-    <row r="618" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P617" s="1"/>
+    </row>
+    <row r="618" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E618" s="1"/>
-    </row>
-    <row r="619" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P618" s="1"/>
+    </row>
+    <row r="619" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E619" s="1"/>
-    </row>
-    <row r="620" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P619" s="1"/>
+    </row>
+    <row r="620" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E620" s="1"/>
-    </row>
-    <row r="621" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P620" s="1"/>
+    </row>
+    <row r="621" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E621" s="1"/>
-    </row>
-    <row r="622" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P621" s="1"/>
+    </row>
+    <row r="622" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E622" s="1"/>
-    </row>
-    <row r="623" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P622" s="1"/>
+    </row>
+    <row r="623" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E623" s="1"/>
-    </row>
-    <row r="624" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P623" s="1"/>
+    </row>
+    <row r="624" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E624" s="1"/>
-    </row>
-    <row r="625" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P624" s="1"/>
+    </row>
+    <row r="625" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E625" s="1"/>
-    </row>
-    <row r="626" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P625" s="1"/>
+    </row>
+    <row r="626" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E626" s="1"/>
-    </row>
-    <row r="627" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P626" s="1"/>
+    </row>
+    <row r="627" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E627" s="1"/>
-    </row>
-    <row r="628" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P627" s="1"/>
+    </row>
+    <row r="628" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E628" s="1"/>
-    </row>
-    <row r="629" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P628" s="1"/>
+    </row>
+    <row r="629" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E629" s="1"/>
-    </row>
-    <row r="630" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P629" s="1"/>
+    </row>
+    <row r="630" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E630" s="1"/>
-    </row>
-    <row r="631" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P630" s="1"/>
+    </row>
+    <row r="631" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E631" s="1"/>
-    </row>
-    <row r="632" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P631" s="1"/>
+    </row>
+    <row r="632" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E632" s="1"/>
-    </row>
-    <row r="633" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P632" s="1"/>
+    </row>
+    <row r="633" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E633" s="1"/>
-    </row>
-    <row r="634" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P633" s="1"/>
+    </row>
+    <row r="634" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E634" s="1"/>
-    </row>
-    <row r="635" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P634" s="1"/>
+    </row>
+    <row r="635" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E635" s="1"/>
-    </row>
-    <row r="636" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P635" s="1"/>
+    </row>
+    <row r="636" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E636" s="1"/>
-    </row>
-    <row r="637" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P636" s="1"/>
+    </row>
+    <row r="637" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E637" s="1"/>
-    </row>
-    <row r="638" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P637" s="1"/>
+    </row>
+    <row r="638" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E638" s="1"/>
-    </row>
-    <row r="639" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P638" s="1"/>
+    </row>
+    <row r="639" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E639" s="1"/>
-    </row>
-    <row r="640" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P639" s="1"/>
+    </row>
+    <row r="640" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E640" s="1"/>
-    </row>
-    <row r="641" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P640" s="1"/>
+    </row>
+    <row r="641" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E641" s="1"/>
-    </row>
-    <row r="642" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P641" s="1"/>
+    </row>
+    <row r="642" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E642" s="1"/>
-    </row>
-    <row r="643" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P642" s="1"/>
+    </row>
+    <row r="643" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E643" s="1"/>
-    </row>
-    <row r="644" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P643" s="1"/>
+    </row>
+    <row r="644" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E644" s="1"/>
-    </row>
-    <row r="645" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P644" s="1"/>
+    </row>
+    <row r="645" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E645" s="1"/>
-    </row>
-    <row r="646" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P645" s="1"/>
+    </row>
+    <row r="646" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E646" s="1"/>
-    </row>
-    <row r="647" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P646" s="1"/>
+    </row>
+    <row r="647" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E647" s="1"/>
-    </row>
-    <row r="648" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P647" s="1"/>
+    </row>
+    <row r="648" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E648" s="1"/>
-    </row>
-    <row r="649" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P648" s="1"/>
+    </row>
+    <row r="649" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E649" s="1"/>
-    </row>
-    <row r="650" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P649" s="1"/>
+    </row>
+    <row r="650" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E650" s="1"/>
-    </row>
-    <row r="651" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P650" s="1"/>
+    </row>
+    <row r="651" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E651" s="1"/>
-    </row>
-    <row r="652" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P651" s="1"/>
+    </row>
+    <row r="652" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E652" s="1"/>
-    </row>
-    <row r="653" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P652" s="1"/>
+    </row>
+    <row r="653" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E653" s="1"/>
-    </row>
-    <row r="654" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P653" s="1"/>
+    </row>
+    <row r="654" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E654" s="1"/>
-    </row>
-    <row r="655" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P654" s="1"/>
+    </row>
+    <row r="655" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E655" s="1"/>
-    </row>
-    <row r="656" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P655" s="1"/>
+    </row>
+    <row r="656" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E656" s="1"/>
-    </row>
-    <row r="657" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P656" s="1"/>
+    </row>
+    <row r="657" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E657" s="1"/>
-    </row>
-    <row r="658" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P657" s="1"/>
+    </row>
+    <row r="658" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E658" s="1"/>
-    </row>
-    <row r="659" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P658" s="1"/>
+    </row>
+    <row r="659" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E659" s="1"/>
-    </row>
-    <row r="660" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P659" s="1"/>
+    </row>
+    <row r="660" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E660" s="1"/>
-    </row>
-    <row r="661" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P660" s="1"/>
+    </row>
+    <row r="661" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E661" s="1"/>
-    </row>
-    <row r="662" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P661" s="1"/>
+    </row>
+    <row r="662" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E662" s="1"/>
-    </row>
-    <row r="663" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P662" s="1"/>
+    </row>
+    <row r="663" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E663" s="1"/>
-    </row>
-    <row r="664" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P663" s="1"/>
+    </row>
+    <row r="664" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E664" s="1"/>
-    </row>
-    <row r="665" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P664" s="1"/>
+    </row>
+    <row r="665" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E665" s="1"/>
-    </row>
-    <row r="666" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P665" s="1"/>
+    </row>
+    <row r="666" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E666" s="1"/>
-    </row>
-    <row r="667" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P666" s="1"/>
+    </row>
+    <row r="667" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E667" s="1"/>
-    </row>
-    <row r="668" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P667" s="1"/>
+    </row>
+    <row r="668" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E668" s="1"/>
-    </row>
-    <row r="669" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P668" s="1"/>
+    </row>
+    <row r="669" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E669" s="1"/>
-    </row>
-    <row r="670" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P669" s="1"/>
+    </row>
+    <row r="670" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E670" s="1"/>
-    </row>
-    <row r="671" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P670" s="1"/>
+    </row>
+    <row r="671" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E671" s="1"/>
-    </row>
-    <row r="672" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P671" s="1"/>
+    </row>
+    <row r="672" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E672" s="1"/>
-    </row>
-    <row r="673" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P672" s="1"/>
+    </row>
+    <row r="673" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E673" s="1"/>
-    </row>
-    <row r="674" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P673" s="1"/>
+    </row>
+    <row r="674" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E674" s="1"/>
-    </row>
-    <row r="675" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P674" s="1"/>
+    </row>
+    <row r="675" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E675" s="1"/>
-    </row>
-    <row r="676" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P675" s="1"/>
+    </row>
+    <row r="676" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E676" s="1"/>
-    </row>
-    <row r="677" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P676" s="1"/>
+    </row>
+    <row r="677" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E677" s="1"/>
-    </row>
-    <row r="678" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P677" s="1"/>
+    </row>
+    <row r="678" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E678" s="1"/>
-    </row>
-    <row r="679" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P678" s="1"/>
+    </row>
+    <row r="679" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E679" s="1"/>
-    </row>
-    <row r="680" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P679" s="1"/>
+    </row>
+    <row r="680" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E680" s="1"/>
-    </row>
-    <row r="681" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P680" s="1"/>
+    </row>
+    <row r="681" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E681" s="1"/>
-    </row>
-    <row r="682" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P681" s="1"/>
+    </row>
+    <row r="682" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E682" s="1"/>
-    </row>
-    <row r="683" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P682" s="1"/>
+    </row>
+    <row r="683" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E683" s="1"/>
-    </row>
-    <row r="684" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P683" s="1"/>
+    </row>
+    <row r="684" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E684" s="1"/>
-    </row>
-    <row r="685" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P684" s="1"/>
+    </row>
+    <row r="685" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E685" s="1"/>
-    </row>
-    <row r="686" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P685" s="1"/>
+    </row>
+    <row r="686" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E686" s="1"/>
-    </row>
-    <row r="687" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P686" s="1"/>
+    </row>
+    <row r="687" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E687" s="1"/>
-    </row>
-    <row r="688" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P687" s="1"/>
+    </row>
+    <row r="688" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E688" s="1"/>
-    </row>
-    <row r="689" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P688" s="1"/>
+    </row>
+    <row r="689" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E689" s="1"/>
-    </row>
-    <row r="690" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P689" s="1"/>
+    </row>
+    <row r="690" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E690" s="1"/>
-    </row>
-    <row r="691" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P690" s="1"/>
+    </row>
+    <row r="691" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E691" s="1"/>
-    </row>
-    <row r="692" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P691" s="1"/>
+    </row>
+    <row r="692" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E692" s="1"/>
-    </row>
-    <row r="693" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P692" s="1"/>
+    </row>
+    <row r="693" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E693" s="1"/>
-    </row>
-    <row r="694" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P693" s="1"/>
+    </row>
+    <row r="694" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E694" s="1"/>
-    </row>
-    <row r="695" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P694" s="1"/>
+    </row>
+    <row r="695" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E695" s="1"/>
-    </row>
-    <row r="696" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P695" s="1"/>
+    </row>
+    <row r="696" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E696" s="1"/>
-    </row>
-    <row r="697" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P696" s="1"/>
+    </row>
+    <row r="697" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E697" s="1"/>
-    </row>
-    <row r="698" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P697" s="1"/>
+    </row>
+    <row r="698" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E698" s="1"/>
-    </row>
-    <row r="699" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P698" s="1"/>
+    </row>
+    <row r="699" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E699" s="1"/>
-    </row>
-    <row r="700" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P699" s="1"/>
+    </row>
+    <row r="700" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E700" s="1"/>
-    </row>
-    <row r="701" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P700" s="1"/>
+    </row>
+    <row r="701" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E701" s="1"/>
-    </row>
-    <row r="702" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P701" s="1"/>
+    </row>
+    <row r="702" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E702" s="1"/>
-    </row>
-    <row r="703" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P702" s="1"/>
+    </row>
+    <row r="703" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E703" s="1"/>
-    </row>
-    <row r="704" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P703" s="1"/>
+    </row>
+    <row r="704" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E704" s="1"/>
-    </row>
-    <row r="705" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P704" s="1"/>
+    </row>
+    <row r="705" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E705" s="1"/>
-    </row>
-    <row r="706" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P705" s="1"/>
+    </row>
+    <row r="706" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E706" s="1"/>
-    </row>
-    <row r="707" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P706" s="1"/>
+    </row>
+    <row r="707" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E707" s="1"/>
-    </row>
-    <row r="708" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P707" s="1"/>
+    </row>
+    <row r="708" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E708" s="1"/>
-    </row>
-    <row r="709" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P708" s="1"/>
+    </row>
+    <row r="709" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E709" s="1"/>
-    </row>
-    <row r="710" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P709" s="1"/>
+    </row>
+    <row r="710" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E710" s="1"/>
-    </row>
-    <row r="711" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P710" s="1"/>
+    </row>
+    <row r="711" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E711" s="1"/>
-    </row>
-    <row r="712" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P711" s="1"/>
+    </row>
+    <row r="712" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E712" s="1"/>
-    </row>
-    <row r="713" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P712" s="1"/>
+    </row>
+    <row r="713" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E713" s="1"/>
-    </row>
-    <row r="714" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P713" s="1"/>
+    </row>
+    <row r="714" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E714" s="1"/>
-    </row>
-    <row r="715" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P714" s="1"/>
+    </row>
+    <row r="715" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E715" s="1"/>
-    </row>
-    <row r="716" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P715" s="1"/>
+    </row>
+    <row r="716" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E716" s="1"/>
-    </row>
-    <row r="717" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P716" s="1"/>
+    </row>
+    <row r="717" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E717" s="1"/>
-    </row>
-    <row r="718" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P717" s="1"/>
+    </row>
+    <row r="718" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E718" s="1"/>
-    </row>
-    <row r="719" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P718" s="1"/>
+    </row>
+    <row r="719" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E719" s="1"/>
-    </row>
-    <row r="720" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P719" s="1"/>
+    </row>
+    <row r="720" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E720" s="1"/>
-    </row>
-    <row r="721" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P720" s="1"/>
+    </row>
+    <row r="721" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E721" s="1"/>
-    </row>
-    <row r="722" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P721" s="1"/>
+    </row>
+    <row r="722" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E722" s="1"/>
-    </row>
-    <row r="723" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P722" s="1"/>
+    </row>
+    <row r="723" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E723" s="1"/>
-    </row>
-    <row r="724" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P723" s="1"/>
+    </row>
+    <row r="724" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E724" s="1"/>
-    </row>
-    <row r="725" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P724" s="1"/>
+    </row>
+    <row r="725" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E725" s="1"/>
-    </row>
-    <row r="726" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P725" s="1"/>
+    </row>
+    <row r="726" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E726" s="1"/>
-    </row>
-    <row r="727" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P726" s="1"/>
+    </row>
+    <row r="727" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E727" s="1"/>
-    </row>
-    <row r="728" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P727" s="1"/>
+    </row>
+    <row r="728" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E728" s="1"/>
-    </row>
-    <row r="729" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P728" s="1"/>
+    </row>
+    <row r="729" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E729" s="1"/>
-    </row>
-    <row r="730" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P729" s="1"/>
+    </row>
+    <row r="730" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E730" s="1"/>
-    </row>
-    <row r="731" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P730" s="1"/>
+    </row>
+    <row r="731" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E731" s="1"/>
-    </row>
-    <row r="732" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P731" s="1"/>
+    </row>
+    <row r="732" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E732" s="1"/>
-    </row>
-    <row r="733" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P732" s="1"/>
+    </row>
+    <row r="733" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E733" s="1"/>
-    </row>
-    <row r="734" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P733" s="1"/>
+    </row>
+    <row r="734" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E734" s="1"/>
-    </row>
-    <row r="735" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P734" s="1"/>
+    </row>
+    <row r="735" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E735" s="1"/>
-    </row>
-    <row r="736" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P735" s="1"/>
+    </row>
+    <row r="736" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E736" s="1"/>
-    </row>
-    <row r="737" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P736" s="1"/>
+    </row>
+    <row r="737" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E737" s="1"/>
-    </row>
-    <row r="738" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P737" s="1"/>
+    </row>
+    <row r="738" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E738" s="1"/>
-    </row>
-    <row r="739" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P738" s="1"/>
+    </row>
+    <row r="739" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E739" s="1"/>
-    </row>
-    <row r="740" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P739" s="1"/>
+    </row>
+    <row r="740" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E740" s="1"/>
-    </row>
-    <row r="741" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P740" s="1"/>
+    </row>
+    <row r="741" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E741" s="1"/>
-    </row>
-    <row r="742" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P741" s="1"/>
+    </row>
+    <row r="742" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E742" s="1"/>
-    </row>
-    <row r="743" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P742" s="1"/>
+    </row>
+    <row r="743" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E743" s="1"/>
-    </row>
-    <row r="744" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P743" s="1"/>
+    </row>
+    <row r="744" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E744" s="1"/>
-    </row>
-    <row r="745" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P744" s="1"/>
+    </row>
+    <row r="745" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E745" s="1"/>
-    </row>
-    <row r="746" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P745" s="1"/>
+    </row>
+    <row r="746" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E746" s="1"/>
-    </row>
-    <row r="747" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P746" s="1"/>
+    </row>
+    <row r="747" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E747" s="1"/>
-    </row>
-    <row r="748" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P747" s="1"/>
+    </row>
+    <row r="748" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E748" s="1"/>
-    </row>
-    <row r="749" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P748" s="1"/>
+    </row>
+    <row r="749" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E749" s="1"/>
-    </row>
-    <row r="750" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P749" s="1"/>
+    </row>
+    <row r="750" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E750" s="1"/>
-    </row>
-    <row r="751" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P750" s="1"/>
+    </row>
+    <row r="751" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E751" s="1"/>
-    </row>
-    <row r="752" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P751" s="1"/>
+    </row>
+    <row r="752" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E752" s="1"/>
-    </row>
-    <row r="753" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P752" s="1"/>
+    </row>
+    <row r="753" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E753" s="1"/>
-    </row>
-    <row r="754" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P753" s="1"/>
+    </row>
+    <row r="754" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E754" s="1"/>
-    </row>
-    <row r="755" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P754" s="1"/>
+    </row>
+    <row r="755" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E755" s="1"/>
-    </row>
-    <row r="756" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P755" s="1"/>
+    </row>
+    <row r="756" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E756" s="1"/>
-    </row>
-    <row r="757" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P756" s="1"/>
+    </row>
+    <row r="757" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E757" s="1"/>
-    </row>
-    <row r="758" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P757" s="1"/>
+    </row>
+    <row r="758" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E758" s="1"/>
-    </row>
-    <row r="759" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P758" s="1"/>
+    </row>
+    <row r="759" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E759" s="1"/>
-    </row>
-    <row r="760" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P759" s="1"/>
+    </row>
+    <row r="760" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E760" s="1"/>
-    </row>
-    <row r="761" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P760" s="1"/>
+    </row>
+    <row r="761" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E761" s="1"/>
-    </row>
-    <row r="762" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P761" s="1"/>
+    </row>
+    <row r="762" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E762" s="1"/>
-    </row>
-    <row r="763" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P762" s="1"/>
+    </row>
+    <row r="763" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E763" s="1"/>
-    </row>
-    <row r="764" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P763" s="1"/>
+    </row>
+    <row r="764" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E764" s="1"/>
-    </row>
-    <row r="765" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P764" s="1"/>
+    </row>
+    <row r="765" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E765" s="1"/>
-    </row>
-    <row r="766" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P765" s="1"/>
+    </row>
+    <row r="766" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E766" s="1"/>
-    </row>
-    <row r="767" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P766" s="1"/>
+    </row>
+    <row r="767" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E767" s="1"/>
-    </row>
-    <row r="768" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P767" s="1"/>
+    </row>
+    <row r="768" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E768" s="1"/>
-    </row>
-    <row r="769" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P768" s="1"/>
+    </row>
+    <row r="769" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E769" s="1"/>
-    </row>
-    <row r="770" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P769" s="1"/>
+    </row>
+    <row r="770" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E770" s="1"/>
-    </row>
-    <row r="771" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P770" s="1"/>
+    </row>
+    <row r="771" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E771" s="1"/>
-    </row>
-    <row r="772" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P771" s="1"/>
+    </row>
+    <row r="772" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E772" s="1"/>
-    </row>
-    <row r="773" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P772" s="1"/>
+    </row>
+    <row r="773" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E773" s="1"/>
-    </row>
-    <row r="774" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P773" s="1"/>
+    </row>
+    <row r="774" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E774" s="1"/>
-    </row>
-    <row r="775" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P774" s="1"/>
+    </row>
+    <row r="775" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E775" s="1"/>
-    </row>
-    <row r="776" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P775" s="1"/>
+    </row>
+    <row r="776" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E776" s="1"/>
-    </row>
-    <row r="777" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P776" s="1"/>
+    </row>
+    <row r="777" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E777" s="1"/>
-    </row>
-    <row r="778" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P777" s="1"/>
+    </row>
+    <row r="778" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E778" s="1"/>
-    </row>
-    <row r="779" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P778" s="1"/>
+    </row>
+    <row r="779" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E779" s="1"/>
-    </row>
-    <row r="780" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P779" s="1"/>
+    </row>
+    <row r="780" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E780" s="1"/>
-    </row>
-    <row r="781" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P780" s="1"/>
+    </row>
+    <row r="781" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E781" s="1"/>
-    </row>
-    <row r="782" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P781" s="1"/>
+    </row>
+    <row r="782" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E782" s="1"/>
-    </row>
-    <row r="783" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P782" s="1"/>
+    </row>
+    <row r="783" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E783" s="1"/>
-    </row>
-    <row r="784" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P783" s="1"/>
+    </row>
+    <row r="784" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E784" s="1"/>
-    </row>
-    <row r="785" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P784" s="1"/>
+    </row>
+    <row r="785" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E785" s="1"/>
-    </row>
-    <row r="786" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P785" s="1"/>
+    </row>
+    <row r="786" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E786" s="1"/>
-    </row>
-    <row r="787" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P786" s="1"/>
+    </row>
+    <row r="787" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E787" s="1"/>
-    </row>
-    <row r="788" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P787" s="1"/>
+    </row>
+    <row r="788" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E788" s="1"/>
-    </row>
-    <row r="789" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P788" s="1"/>
+    </row>
+    <row r="789" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E789" s="1"/>
-    </row>
-    <row r="790" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P789" s="1"/>
+    </row>
+    <row r="790" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E790" s="1"/>
-    </row>
-    <row r="791" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P790" s="1"/>
+    </row>
+    <row r="791" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E791" s="1"/>
-    </row>
-    <row r="792" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P791" s="1"/>
+    </row>
+    <row r="792" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E792" s="1"/>
-    </row>
-    <row r="793" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P792" s="1"/>
+    </row>
+    <row r="793" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E793" s="1"/>
-    </row>
-    <row r="794" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P793" s="1"/>
+    </row>
+    <row r="794" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E794" s="1"/>
-    </row>
-    <row r="795" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P794" s="1"/>
+    </row>
+    <row r="795" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E795" s="1"/>
-    </row>
-    <row r="796" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P795" s="1"/>
+    </row>
+    <row r="796" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E796" s="1"/>
-    </row>
-    <row r="797" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P796" s="1"/>
+    </row>
+    <row r="797" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E797" s="1"/>
-    </row>
-    <row r="798" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P797" s="1"/>
+    </row>
+    <row r="798" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E798" s="1"/>
-    </row>
-    <row r="799" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P798" s="1"/>
+    </row>
+    <row r="799" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E799" s="1"/>
-    </row>
-    <row r="800" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P799" s="1"/>
+    </row>
+    <row r="800" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E800" s="1"/>
-    </row>
-    <row r="801" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P800" s="1"/>
+    </row>
+    <row r="801" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E801" s="1"/>
-    </row>
-    <row r="802" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P801" s="1"/>
+    </row>
+    <row r="802" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E802" s="1"/>
-    </row>
-    <row r="803" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P802" s="1"/>
+    </row>
+    <row r="803" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E803" s="1"/>
-    </row>
-    <row r="804" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P803" s="1"/>
+    </row>
+    <row r="804" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E804" s="1"/>
-    </row>
-    <row r="805" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P804" s="1"/>
+    </row>
+    <row r="805" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E805" s="1"/>
-    </row>
-    <row r="806" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P805" s="1"/>
+    </row>
+    <row r="806" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E806" s="1"/>
-    </row>
-    <row r="807" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P806" s="1"/>
+    </row>
+    <row r="807" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E807" s="1"/>
-    </row>
-    <row r="808" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P807" s="1"/>
+    </row>
+    <row r="808" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E808" s="1"/>
-    </row>
-    <row r="809" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P808" s="1"/>
+    </row>
+    <row r="809" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E809" s="1"/>
-    </row>
-    <row r="810" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P809" s="1"/>
+    </row>
+    <row r="810" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E810" s="1"/>
-    </row>
-    <row r="811" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P810" s="1"/>
+    </row>
+    <row r="811" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E811" s="1"/>
-    </row>
-    <row r="812" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P811" s="1"/>
+    </row>
+    <row r="812" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E812" s="1"/>
-    </row>
-    <row r="813" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P812" s="1"/>
+    </row>
+    <row r="813" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E813" s="1"/>
-    </row>
-    <row r="814" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P813" s="1"/>
+    </row>
+    <row r="814" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E814" s="1"/>
-    </row>
-    <row r="815" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P814" s="1"/>
+    </row>
+    <row r="815" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E815" s="1"/>
-    </row>
-    <row r="816" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P815" s="1"/>
+    </row>
+    <row r="816" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E816" s="1"/>
-    </row>
-    <row r="817" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P816" s="1"/>
+    </row>
+    <row r="817" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E817" s="1"/>
-    </row>
-    <row r="818" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P817" s="1"/>
+    </row>
+    <row r="818" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E818" s="1"/>
-    </row>
-    <row r="819" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P818" s="1"/>
+    </row>
+    <row r="819" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E819" s="1"/>
-    </row>
-    <row r="820" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P819" s="1"/>
+    </row>
+    <row r="820" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E820" s="1"/>
-    </row>
-    <row r="821" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P820" s="1"/>
+    </row>
+    <row r="821" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E821" s="1"/>
-    </row>
-    <row r="822" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P821" s="1"/>
+    </row>
+    <row r="822" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E822" s="1"/>
-    </row>
-    <row r="823" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P822" s="1"/>
+    </row>
+    <row r="823" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E823" s="1"/>
-    </row>
-    <row r="824" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P823" s="1"/>
+    </row>
+    <row r="824" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E824" s="1"/>
-    </row>
-    <row r="825" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P824" s="1"/>
+    </row>
+    <row r="825" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E825" s="1"/>
-    </row>
-    <row r="826" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P825" s="1"/>
+    </row>
+    <row r="826" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E826" s="1"/>
-    </row>
-    <row r="827" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P826" s="1"/>
+    </row>
+    <row r="827" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E827" s="1"/>
-    </row>
-    <row r="828" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P827" s="1"/>
+    </row>
+    <row r="828" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E828" s="1"/>
-    </row>
-    <row r="829" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P828" s="1"/>
+    </row>
+    <row r="829" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E829" s="1"/>
-    </row>
-    <row r="830" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P829" s="1"/>
+    </row>
+    <row r="830" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E830" s="1"/>
-    </row>
-    <row r="831" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P830" s="1"/>
+    </row>
+    <row r="831" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E831" s="1"/>
-    </row>
-    <row r="832" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P831" s="1"/>
+    </row>
+    <row r="832" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E832" s="1"/>
-    </row>
-    <row r="833" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P832" s="1"/>
+    </row>
+    <row r="833" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E833" s="1"/>
-    </row>
-    <row r="834" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P833" s="1"/>
+    </row>
+    <row r="834" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E834" s="1"/>
-    </row>
-    <row r="835" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P834" s="1"/>
+    </row>
+    <row r="835" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E835" s="1"/>
-    </row>
-    <row r="836" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P835" s="1"/>
+    </row>
+    <row r="836" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E836" s="1"/>
-    </row>
-    <row r="837" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P836" s="1"/>
+    </row>
+    <row r="837" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E837" s="1"/>
-    </row>
-    <row r="838" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P837" s="1"/>
+    </row>
+    <row r="838" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E838" s="1"/>
-    </row>
-    <row r="839" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P838" s="1"/>
+    </row>
+    <row r="839" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E839" s="1"/>
-    </row>
-    <row r="840" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P839" s="1"/>
+    </row>
+    <row r="840" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E840" s="1"/>
-    </row>
-    <row r="841" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P840" s="1"/>
+    </row>
+    <row r="841" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E841" s="1"/>
-    </row>
-    <row r="842" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P841" s="1"/>
+    </row>
+    <row r="842" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E842" s="1"/>
-    </row>
-    <row r="843" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P842" s="1"/>
+    </row>
+    <row r="843" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E843" s="1"/>
-    </row>
-    <row r="844" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P843" s="1"/>
+    </row>
+    <row r="844" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E844" s="1"/>
-    </row>
-    <row r="845" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P844" s="1"/>
+    </row>
+    <row r="845" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E845" s="1"/>
-    </row>
-    <row r="846" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P845" s="1"/>
+    </row>
+    <row r="846" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E846" s="1"/>
-    </row>
-    <row r="847" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P846" s="1"/>
+    </row>
+    <row r="847" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E847" s="1"/>
-    </row>
-    <row r="848" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P847" s="1"/>
+    </row>
+    <row r="848" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E848" s="1"/>
-    </row>
-    <row r="849" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P848" s="1"/>
+    </row>
+    <row r="849" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E849" s="1"/>
-    </row>
-    <row r="850" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P849" s="1"/>
+    </row>
+    <row r="850" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E850" s="1"/>
-    </row>
-    <row r="851" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P850" s="1"/>
+    </row>
+    <row r="851" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E851" s="1"/>
-    </row>
-    <row r="852" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P851" s="1"/>
+    </row>
+    <row r="852" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E852" s="1"/>
-    </row>
-    <row r="853" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P852" s="1"/>
+    </row>
+    <row r="853" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E853" s="1"/>
-    </row>
-    <row r="854" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P853" s="1"/>
+    </row>
+    <row r="854" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E854" s="1"/>
-    </row>
-    <row r="855" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P854" s="1"/>
+    </row>
+    <row r="855" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E855" s="1"/>
-    </row>
-    <row r="856" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P855" s="1"/>
+    </row>
+    <row r="856" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E856" s="1"/>
-    </row>
-    <row r="857" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P856" s="1"/>
+    </row>
+    <row r="857" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E857" s="1"/>
-    </row>
-    <row r="858" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P857" s="1"/>
+    </row>
+    <row r="858" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E858" s="1"/>
-    </row>
-    <row r="859" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P858" s="1"/>
+    </row>
+    <row r="859" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E859" s="1"/>
-    </row>
-    <row r="860" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P859" s="1"/>
+    </row>
+    <row r="860" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E860" s="1"/>
-    </row>
-    <row r="861" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P860" s="1"/>
+    </row>
+    <row r="861" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E861" s="1"/>
-    </row>
-    <row r="862" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P861" s="1"/>
+    </row>
+    <row r="862" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E862" s="1"/>
-    </row>
-    <row r="863" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P862" s="1"/>
+    </row>
+    <row r="863" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E863" s="1"/>
-    </row>
-    <row r="864" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P863" s="1"/>
+    </row>
+    <row r="864" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E864" s="1"/>
-    </row>
-    <row r="865" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P864" s="1"/>
+    </row>
+    <row r="865" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E865" s="1"/>
-    </row>
-    <row r="866" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P865" s="1"/>
+    </row>
+    <row r="866" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E866" s="1"/>
-    </row>
-    <row r="867" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P866" s="1"/>
+    </row>
+    <row r="867" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E867" s="1"/>
-    </row>
-    <row r="868" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P867" s="1"/>
+    </row>
+    <row r="868" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E868" s="1"/>
-    </row>
-    <row r="869" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P868" s="1"/>
+    </row>
+    <row r="869" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E869" s="1"/>
-    </row>
-    <row r="870" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P869" s="1"/>
+    </row>
+    <row r="870" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E870" s="1"/>
-    </row>
-    <row r="871" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P870" s="1"/>
+    </row>
+    <row r="871" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E871" s="1"/>
-    </row>
-    <row r="872" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P871" s="1"/>
+    </row>
+    <row r="872" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E872" s="1"/>
-    </row>
-    <row r="873" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P872" s="1"/>
+    </row>
+    <row r="873" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E873" s="1"/>
-    </row>
-    <row r="874" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P873" s="1"/>
+    </row>
+    <row r="874" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E874" s="1"/>
-    </row>
-    <row r="875" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P874" s="1"/>
+    </row>
+    <row r="875" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E875" s="1"/>
-    </row>
-    <row r="876" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P875" s="1"/>
+    </row>
+    <row r="876" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E876" s="1"/>
-    </row>
-    <row r="877" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P876" s="1"/>
+    </row>
+    <row r="877" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E877" s="1"/>
-    </row>
-    <row r="878" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P877" s="1"/>
+    </row>
+    <row r="878" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E878" s="1"/>
-    </row>
-    <row r="879" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P878" s="1"/>
+    </row>
+    <row r="879" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E879" s="1"/>
-    </row>
-    <row r="880" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P879" s="1"/>
+    </row>
+    <row r="880" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E880" s="1"/>
-    </row>
-    <row r="881" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P880" s="1"/>
+    </row>
+    <row r="881" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E881" s="1"/>
-    </row>
-    <row r="882" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P881" s="1"/>
+    </row>
+    <row r="882" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E882" s="1"/>
-    </row>
-    <row r="883" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P882" s="1"/>
+    </row>
+    <row r="883" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E883" s="1"/>
-    </row>
-    <row r="884" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P883" s="1"/>
+    </row>
+    <row r="884" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E884" s="1"/>
-    </row>
-    <row r="885" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P884" s="1"/>
+    </row>
+    <row r="885" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E885" s="1"/>
-    </row>
-    <row r="886" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P885" s="1"/>
+    </row>
+    <row r="886" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E886" s="1"/>
-    </row>
-    <row r="887" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P886" s="1"/>
+    </row>
+    <row r="887" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E887" s="1"/>
-    </row>
-    <row r="888" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P887" s="1"/>
+    </row>
+    <row r="888" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E888" s="1"/>
-    </row>
-    <row r="889" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P888" s="1"/>
+    </row>
+    <row r="889" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E889" s="1"/>
-    </row>
-    <row r="890" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P889" s="1"/>
+    </row>
+    <row r="890" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E890" s="1"/>
-    </row>
-    <row r="891" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P890" s="1"/>
+    </row>
+    <row r="891" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E891" s="1"/>
-    </row>
-    <row r="892" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P891" s="1"/>
+    </row>
+    <row r="892" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E892" s="1"/>
-    </row>
-    <row r="893" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P892" s="1"/>
+    </row>
+    <row r="893" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E893" s="1"/>
-    </row>
-    <row r="894" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P893" s="1"/>
+    </row>
+    <row r="894" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E894" s="1"/>
-    </row>
-    <row r="895" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P894" s="1"/>
+    </row>
+    <row r="895" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E895" s="1"/>
-    </row>
-    <row r="896" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P895" s="1"/>
+    </row>
+    <row r="896" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E896" s="1"/>
-    </row>
-    <row r="897" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P896" s="1"/>
+    </row>
+    <row r="897" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E897" s="1"/>
-    </row>
-    <row r="898" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P897" s="1"/>
+    </row>
+    <row r="898" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E898" s="1"/>
-    </row>
-    <row r="899" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P898" s="1"/>
+    </row>
+    <row r="899" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E899" s="1"/>
-    </row>
-    <row r="900" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P899" s="1"/>
+    </row>
+    <row r="900" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E900" s="1"/>
-    </row>
-    <row r="901" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P900" s="1"/>
+    </row>
+    <row r="901" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E901" s="1"/>
-    </row>
-    <row r="902" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P901" s="1"/>
+    </row>
+    <row r="902" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E902" s="1"/>
-    </row>
-    <row r="903" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P902" s="1"/>
+    </row>
+    <row r="903" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E903" s="1"/>
-    </row>
-    <row r="904" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P903" s="1"/>
+    </row>
+    <row r="904" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E904" s="1"/>
-    </row>
-    <row r="905" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P904" s="1"/>
+    </row>
+    <row r="905" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E905" s="1"/>
-    </row>
-    <row r="906" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P905" s="1"/>
+    </row>
+    <row r="906" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E906" s="1"/>
-    </row>
-    <row r="907" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P906" s="1"/>
+    </row>
+    <row r="907" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E907" s="1"/>
-    </row>
-    <row r="908" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P907" s="1"/>
+    </row>
+    <row r="908" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E908" s="1"/>
-    </row>
-    <row r="909" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P908" s="1"/>
+    </row>
+    <row r="909" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E909" s="1"/>
-    </row>
-    <row r="910" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P909" s="1"/>
+    </row>
+    <row r="910" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E910" s="1"/>
-    </row>
-    <row r="911" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P910" s="1"/>
+    </row>
+    <row r="911" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E911" s="1"/>
-    </row>
-    <row r="912" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P911" s="1"/>
+    </row>
+    <row r="912" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E912" s="1"/>
-    </row>
-    <row r="913" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P912" s="1"/>
+    </row>
+    <row r="913" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E913" s="1"/>
-    </row>
-    <row r="914" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P913" s="1"/>
+    </row>
+    <row r="914" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E914" s="1"/>
-    </row>
-    <row r="915" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P914" s="1"/>
+    </row>
+    <row r="915" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E915" s="1"/>
-    </row>
-    <row r="916" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P915" s="1"/>
+    </row>
+    <row r="916" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E916" s="1"/>
-    </row>
-    <row r="917" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P916" s="1"/>
+    </row>
+    <row r="917" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E917" s="1"/>
-    </row>
-    <row r="918" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P917" s="1"/>
+    </row>
+    <row r="918" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E918" s="1"/>
-    </row>
-    <row r="919" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P918" s="1"/>
+    </row>
+    <row r="919" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E919" s="1"/>
-    </row>
-    <row r="920" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P919" s="1"/>
+    </row>
+    <row r="920" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E920" s="1"/>
-    </row>
-    <row r="921" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P920" s="1"/>
+    </row>
+    <row r="921" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E921" s="1"/>
-    </row>
-    <row r="922" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P921" s="1"/>
+    </row>
+    <row r="922" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E922" s="1"/>
-    </row>
-    <row r="923" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P922" s="1"/>
+    </row>
+    <row r="923" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E923" s="1"/>
-    </row>
-    <row r="924" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P923" s="1"/>
+    </row>
+    <row r="924" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E924" s="1"/>
-    </row>
-    <row r="925" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P924" s="1"/>
+    </row>
+    <row r="925" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E925" s="1"/>
-    </row>
-    <row r="926" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P925" s="1"/>
+    </row>
+    <row r="926" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E926" s="1"/>
-    </row>
-    <row r="927" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P926" s="1"/>
+    </row>
+    <row r="927" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E927" s="1"/>
-    </row>
-    <row r="928" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P927" s="1"/>
+    </row>
+    <row r="928" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E928" s="1"/>
-    </row>
-    <row r="929" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P928" s="1"/>
+    </row>
+    <row r="929" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E929" s="1"/>
-    </row>
-    <row r="930" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P929" s="1"/>
+    </row>
+    <row r="930" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E930" s="1"/>
-    </row>
-    <row r="931" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P930" s="1"/>
+    </row>
+    <row r="931" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E931" s="1"/>
-    </row>
-    <row r="932" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P931" s="1"/>
+    </row>
+    <row r="932" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E932" s="1"/>
-    </row>
-    <row r="933" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P932" s="1"/>
+    </row>
+    <row r="933" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E933" s="1"/>
-    </row>
-    <row r="934" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P933" s="1"/>
+    </row>
+    <row r="934" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E934" s="1"/>
-    </row>
-    <row r="935" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P934" s="1"/>
+    </row>
+    <row r="935" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E935" s="1"/>
-    </row>
-    <row r="936" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P935" s="1"/>
+    </row>
+    <row r="936" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E936" s="1"/>
-    </row>
-    <row r="937" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P936" s="1"/>
+    </row>
+    <row r="937" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E937" s="1"/>
-    </row>
-    <row r="938" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P937" s="1"/>
+    </row>
+    <row r="938" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E938" s="1"/>
-    </row>
-    <row r="939" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P938" s="1"/>
+    </row>
+    <row r="939" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E939" s="1"/>
-    </row>
-    <row r="940" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P939" s="1"/>
+    </row>
+    <row r="940" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E940" s="1"/>
-    </row>
-    <row r="941" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P940" s="1"/>
+    </row>
+    <row r="941" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E941" s="1"/>
-    </row>
-    <row r="942" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P941" s="1"/>
+    </row>
+    <row r="942" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E942" s="1"/>
-    </row>
-    <row r="943" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P942" s="1"/>
+    </row>
+    <row r="943" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E943" s="1"/>
-    </row>
-    <row r="944" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P943" s="1"/>
+    </row>
+    <row r="944" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E944" s="1"/>
-    </row>
-    <row r="945" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P944" s="1"/>
+    </row>
+    <row r="945" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E945" s="1"/>
-    </row>
-    <row r="946" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P945" s="1"/>
+    </row>
+    <row r="946" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E946" s="1"/>
-    </row>
-    <row r="947" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P946" s="1"/>
+    </row>
+    <row r="947" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E947" s="1"/>
-    </row>
-    <row r="948" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P947" s="1"/>
+    </row>
+    <row r="948" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E948" s="1"/>
-    </row>
-    <row r="949" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P948" s="1"/>
+    </row>
+    <row r="949" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E949" s="1"/>
-    </row>
-    <row r="950" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P949" s="1"/>
+    </row>
+    <row r="950" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E950" s="1"/>
-    </row>
-    <row r="951" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P950" s="1"/>
+    </row>
+    <row r="951" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E951" s="1"/>
-    </row>
-    <row r="952" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P951" s="1"/>
+    </row>
+    <row r="952" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E952" s="1"/>
-    </row>
-    <row r="953" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P952" s="1"/>
+    </row>
+    <row r="953" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E953" s="1"/>
-    </row>
-    <row r="954" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P953" s="1"/>
+    </row>
+    <row r="954" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E954" s="1"/>
-    </row>
-    <row r="955" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P954" s="1"/>
+    </row>
+    <row r="955" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E955" s="1"/>
-    </row>
-    <row r="956" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P955" s="1"/>
+    </row>
+    <row r="956" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E956" s="1"/>
-    </row>
-    <row r="957" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P956" s="1"/>
+    </row>
+    <row r="957" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E957" s="1"/>
-    </row>
-    <row r="958" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P957" s="1"/>
+    </row>
+    <row r="958" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E958" s="1"/>
-    </row>
-    <row r="959" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P958" s="1"/>
+    </row>
+    <row r="959" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E959" s="1"/>
-    </row>
-    <row r="960" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P959" s="1"/>
+    </row>
+    <row r="960" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E960" s="1"/>
-    </row>
-    <row r="961" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P960" s="1"/>
+    </row>
+    <row r="961" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E961" s="1"/>
-    </row>
-    <row r="962" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P961" s="1"/>
+    </row>
+    <row r="962" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E962" s="1"/>
-    </row>
-    <row r="963" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P962" s="1"/>
+    </row>
+    <row r="963" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E963" s="1"/>
-    </row>
-    <row r="964" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P963" s="1"/>
+    </row>
+    <row r="964" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E964" s="1"/>
-    </row>
-    <row r="965" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P964" s="1"/>
+    </row>
+    <row r="965" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E965" s="1"/>
-    </row>
-    <row r="966" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P965" s="1"/>
+    </row>
+    <row r="966" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E966" s="1"/>
-    </row>
-    <row r="967" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P966" s="1"/>
+    </row>
+    <row r="967" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E967" s="1"/>
-    </row>
-    <row r="968" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P967" s="1"/>
+    </row>
+    <row r="968" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E968" s="1"/>
-    </row>
-    <row r="969" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P968" s="1"/>
+    </row>
+    <row r="969" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E969" s="1"/>
-    </row>
-    <row r="970" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P969" s="1"/>
+    </row>
+    <row r="970" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E970" s="1"/>
-    </row>
-    <row r="971" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P970" s="1"/>
+    </row>
+    <row r="971" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E971" s="1"/>
-    </row>
-    <row r="972" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P971" s="1"/>
+    </row>
+    <row r="972" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E972" s="1"/>
-    </row>
-    <row r="973" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P972" s="1"/>
+    </row>
+    <row r="973" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E973" s="1"/>
-    </row>
-    <row r="974" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P973" s="1"/>
+    </row>
+    <row r="974" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E974" s="1"/>
-    </row>
-    <row r="975" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P974" s="1"/>
+    </row>
+    <row r="975" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E975" s="1"/>
-    </row>
-    <row r="976" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P975" s="1"/>
+    </row>
+    <row r="976" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E976" s="1"/>
-    </row>
-    <row r="977" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P976" s="1"/>
+    </row>
+    <row r="977" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E977" s="1"/>
-    </row>
-    <row r="978" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P977" s="1"/>
+    </row>
+    <row r="978" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E978" s="1"/>
-    </row>
-    <row r="979" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P978" s="1"/>
+    </row>
+    <row r="979" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E979" s="1"/>
-    </row>
-    <row r="980" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P979" s="1"/>
+    </row>
+    <row r="980" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E980" s="1"/>
-    </row>
-    <row r="981" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P980" s="1"/>
+    </row>
+    <row r="981" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E981" s="1"/>
-    </row>
-    <row r="982" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P981" s="1"/>
+    </row>
+    <row r="982" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E982" s="1"/>
-    </row>
-    <row r="983" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P982" s="1"/>
+    </row>
+    <row r="983" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E983" s="1"/>
-    </row>
-    <row r="984" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P983" s="1"/>
+    </row>
+    <row r="984" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E984" s="1"/>
-    </row>
-    <row r="985" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P984" s="1"/>
+    </row>
+    <row r="985" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E985" s="1"/>
-    </row>
-    <row r="986" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P985" s="1"/>
+    </row>
+    <row r="986" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E986" s="1"/>
-    </row>
-    <row r="987" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P986" s="1"/>
+    </row>
+    <row r="987" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E987" s="1"/>
-    </row>
-    <row r="988" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P987" s="1"/>
+    </row>
+    <row r="988" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E988" s="1"/>
-    </row>
-    <row r="989" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P988" s="1"/>
+    </row>
+    <row r="989" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E989" s="1"/>
-    </row>
-    <row r="990" spans="5:5" ht="17" x14ac:dyDescent="0.2">
+      <c r="P989" s="1"/>
+    </row>
+    <row r="990" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E990" s="1"/>
+      <c r="P990" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O1">

--- a/app/data/src/projectlist.xlsx
+++ b/app/data/src/projectlist.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="36840" windowHeight="18980" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="projectlist.csv" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="364">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="360">
   <si>
     <t>Lucky Peach</t>
   </si>
@@ -71,12 +71,6 @@
     <t>http://www.foodbanknyc.org/</t>
   </si>
   <si>
-    <t>Food Systems Network NYC</t>
-  </si>
-  <si>
-    <t>http://www.fairfoodnetwork.org/list/food-systems-network-nyc</t>
-  </si>
-  <si>
     <t>Just Food</t>
   </si>
   <si>
@@ -449,9 +443,6 @@
     <t>prj6</t>
   </si>
   <si>
-    <t>prj7</t>
-  </si>
-  <si>
     <t>prj8</t>
   </si>
   <si>
@@ -659,9 +650,6 @@
     <t>HQ</t>
   </si>
   <si>
-    <t>Not sure if this still exists. It's site leads to a dead end</t>
-  </si>
-  <si>
     <t>locationType</t>
   </si>
   <si>
@@ -783,9 +771,6 @@
   </si>
   <si>
     <t>Food Bank For New York City has been the city’s major hunger-relief organization working to end hunger throughout the five boroughs for more than 30 years. Nearly one in five New Yorkers relies on Food Bank for food and other resources. Food Bank takes a strategic, multifaceted approach that provides meals and builds capacity in the neediest communities, while raising awareness and engagement among all New Yorkers. Through its network of more than 1,000 charities and schools citywide, Food Bank provides food for approximately 64 million free meals per year for New Yorkers in need. Food Bank For New York City’s income support services, including food stamps (also known as SNAP) and free tax assistance for the working poor, put more than $150 million each year into the pockets of New Yorkers, helping them to afford food and achieve greater dignity and independence. In addition, Food Bank’s nutrition education programs and services empower more than 275,000 children, teens and adults to sustain a healthy diet on a low budget. Working toward long-term solutions to food poverty, Food Bank develops policy and conducts research to inform community and government efforts.</t>
-  </si>
-  <si>
-    <t>Food Systems Network NYC is a membership based organization designed to foster communication and cultivate community amongst various stake holders and professionals working across the food system. Members gather monthly for Open Networking meetings to encourage collaboration; share information; discuss public policy; and promote opportunities for individuals to partner on specific projects.</t>
   </si>
   <si>
     <t>Just Food empowers and supports community leaders to advocate for and increase access to healthy, locally-grown food, especially in underserved NYC neighborhoods. We provide training and resources to community members so they can: Launch Projects like farmers’ markets and community supported agriculture (CSA) groups. Educate their neighbors in fundamental cooking and urban farming skills. Advocate to make their corner of NYC a healthier place to live and eat. Each year, nearly a quarter million New Yorkers access fresh food in their neighborhood through Just Food’s network of community food projects.</t>
@@ -1042,9 +1027,6 @@
     <t>Food Bank For New York City has been the city’s major hunger-relief organization working to end hunger throughout the five boroughs for more than 30 years.</t>
   </si>
   <si>
-    <t>Food Systems Network NYC is a membership based organization designed to foster communication and cultivate community amongst various stake holders and professionals working across the food system.</t>
-  </si>
-  <si>
     <t>Glynwood is an agricultural nonprofit organization based in Cold Spring, New York.</t>
   </si>
   <si>
@@ -1168,6 +1150,12 @@
   </si>
   <si>
     <t>We are a team of designers, dietitians, and creative technologists with a simple mission: reimagine food data by making it smart, simple, and personalized. Until now, this info has often been unapproachable, confusing, and rarely tells the complete story.</t>
+  </si>
+  <si>
+    <t>sustainability</t>
+  </si>
+  <si>
+    <t>agriculture, sustainability</t>
   </si>
 </sst>
 </file>
@@ -1177,7 +1165,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1231,11 +1219,6 @@
     <font>
       <sz val="13.2"/>
       <color rgb="FF333333"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <sz val="13.2"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -1306,7 +1289,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
@@ -1320,19 +1303,18 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1632,11 +1614,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P990"/>
+  <dimension ref="A1:P989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="69" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1660,52 +1642,52 @@
   <sheetData>
     <row r="1" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="N1" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>301</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>210</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>211</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="N1" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>118</v>
-      </c>
       <c r="P1" s="1" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:16" s="3" customFormat="1" ht="52" customHeight="1" x14ac:dyDescent="0.2">
@@ -1713,35 +1695,35 @@
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E2" s="1"/>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
       <c r="K2" s="1"/>
       <c r="L2" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="8" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="O2" s="1"/>
       <c r="P2" s="1" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1749,43 +1731,43 @@
         <v>0</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="2" t="s">
         <v>1</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M3" s="1"/>
       <c r="N3" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="O3" s="1"/>
       <c r="P3" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>2</v>
@@ -1795,25 +1777,25 @@
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M4" s="1"/>
       <c r="N4" s="9" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="5" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1821,7 +1803,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>2</v>
@@ -1831,33 +1813,33 @@
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="2" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M5" s="1"/>
       <c r="N5" s="10" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="O5" s="1"/>
       <c r="P5" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>7</v>
@@ -1866,40 +1848,40 @@
         <v>7</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="I6" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M6" s="1"/>
       <c r="N6" s="11" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="O6" s="1"/>
       <c r="P6" s="1" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="7" spans="1:16" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>7</v>
@@ -1908,16 +1890,16 @@
         <v>7</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1">
@@ -1927,23 +1909,23 @@
         <v>-73.928105700000003</v>
       </c>
       <c r="L7" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M7" s="1"/>
       <c r="N7" s="12" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="O7" s="1"/>
       <c r="P7" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="8" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C8" s="1" t="s">
         <v>7</v>
@@ -1952,13 +1934,13 @@
         <v>7</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1969,17 +1951,17 @@
         <v>-73.987167999999997</v>
       </c>
       <c r="L8" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M8" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="M8" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="N8" s="13" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="O8" s="1"/>
       <c r="P8" s="1" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="9" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -1987,7 +1969,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>7</v>
@@ -1996,16 +1978,16 @@
         <v>7</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I9" s="1"/>
       <c r="J9" s="1">
@@ -2015,15 +1997,15 @@
         <v>-73.978671399999996</v>
       </c>
       <c r="L9" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M9" s="1"/>
       <c r="N9" s="14" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="O9" s="1"/>
       <c r="P9" s="1" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2031,7 +2013,7 @@
         <v>11</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>7</v>
@@ -2040,16 +2022,16 @@
         <v>7</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>12</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I10" s="1"/>
       <c r="J10" s="1">
@@ -2059,23 +2041,23 @@
         <v>-74.015600500000005</v>
       </c>
       <c r="L10" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M10" s="1"/>
       <c r="N10" s="15" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="O10" s="1"/>
       <c r="P10" s="1" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>69</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>7</v>
@@ -2083,35 +2065,43 @@
       <c r="D11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="1"/>
+      <c r="E11" s="1" t="s">
+        <v>302</v>
+      </c>
       <c r="F11" s="2" t="s">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="H11" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
+      <c r="J11" s="1">
+        <v>40.756689799999997</v>
+      </c>
+      <c r="K11" s="1">
+        <v>-73.982206099999999</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>210</v>
+      </c>
       <c r="M11" s="1"/>
       <c r="N11" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="O11" s="1" t="s">
-        <v>209</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="O11" s="1"/>
       <c r="P11" s="1" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="3" customFormat="1" ht="18" x14ac:dyDescent="0.2">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>7</v>
@@ -2120,42 +2110,42 @@
         <v>7</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="I12" s="1"/>
       <c r="J12" s="1">
-        <v>40.756689799999997</v>
+        <v>41.453638699999999</v>
       </c>
       <c r="K12" s="1">
-        <v>-73.982206099999999</v>
+        <v>-73.867494399999998</v>
       </c>
       <c r="L12" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M12" s="1"/>
-      <c r="N12" s="17" t="s">
-        <v>255</v>
+      <c r="N12" s="7" t="s">
+        <v>256</v>
       </c>
       <c r="O12" s="1"/>
       <c r="P12" s="1" t="s">
-        <v>255</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>183</v>
+        <v>176</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>7</v>
@@ -2164,42 +2154,42 @@
         <v>7</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="I13" s="1"/>
       <c r="J13" s="1">
-        <v>41.453638699999999</v>
+        <v>40.710155</v>
       </c>
       <c r="K13" s="1">
-        <v>-73.867494399999998</v>
+        <v>-74.005423300000004</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M13" s="1"/>
       <c r="N13" s="7" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="O13" s="1"/>
       <c r="P13" s="1" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
     </row>
     <row r="14" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>93</v>
+        <v>13</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>179</v>
+        <v>137</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>7</v>
@@ -2208,42 +2198,42 @@
         <v>7</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>94</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I14" s="1"/>
       <c r="J14" s="1">
-        <v>40.710155</v>
+        <v>40.758123400000002</v>
       </c>
       <c r="K14" s="1">
-        <v>-74.005423300000004</v>
+        <v>-73.985218000000003</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M14" s="1"/>
-      <c r="N14" s="7" t="s">
-        <v>259</v>
+      <c r="N14" s="17" t="s">
+        <v>247</v>
       </c>
       <c r="O14" s="1"/>
       <c r="P14" s="1" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="15" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>15</v>
+        <v>86</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>7</v>
@@ -2252,34 +2242,34 @@
         <v>7</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>310</v>
+        <v>359</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>16</v>
+        <v>87</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>208</v>
-      </c>
+        <v>209</v>
+      </c>
+      <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1">
-        <v>40.758123400000002</v>
+        <v>41.035102299999998</v>
       </c>
       <c r="K15" s="1">
-        <v>-73.985218000000003</v>
+        <v>-73.865513300000003</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M15" s="1"/>
-      <c r="N15" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="N15" s="7" t="s">
         <v>252</v>
       </c>
       <c r="O15" s="1"/>
       <c r="P15" s="1" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="16" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
@@ -2287,7 +2277,7 @@
         <v>88</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>7</v>
@@ -2295,38 +2285,42 @@
       <c r="D16" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1"/>
+      <c r="E16" s="1" t="s">
+        <v>306</v>
+      </c>
       <c r="F16" s="2" t="s">
-        <v>89</v>
+        <v>216</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H16" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>205</v>
+      </c>
       <c r="I16" s="1"/>
       <c r="J16" s="1">
-        <v>41.035102299999998</v>
+        <v>42.964111199999998</v>
       </c>
       <c r="K16" s="1">
-        <v>-73.865513300000003</v>
+        <v>-77.351081600000001</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="N16" s="7" t="s">
-        <v>257</v>
+        <v>217</v>
+      </c>
+      <c r="N16" s="18" t="s">
+        <v>253</v>
       </c>
       <c r="O16" s="1"/>
       <c r="P16" s="1" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
     </row>
     <row r="17" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>177</v>
@@ -2338,44 +2332,42 @@
         <v>7</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>220</v>
+        <v>94</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I17" s="1"/>
       <c r="J17" s="1">
-        <v>42.964111199999998</v>
+        <v>40.714171</v>
       </c>
       <c r="K17" s="1">
-        <v>-77.351081600000001</v>
+        <v>-74.0182997</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M17" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="N17" s="19" t="s">
-        <v>258</v>
+        <v>210</v>
+      </c>
+      <c r="M17" s="1"/>
+      <c r="N17" s="18" t="s">
+        <v>255</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="18" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>95</v>
+        <v>6</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>180</v>
+        <v>134</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>7</v>
@@ -2384,42 +2376,42 @@
         <v>7</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>312</v>
+        <v>358</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I18" s="1"/>
       <c r="J18" s="1">
-        <v>40.714171</v>
+        <v>40.673388000000003</v>
       </c>
       <c r="K18" s="1">
-        <v>-74.0182997</v>
+        <v>-73.970131199999997</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M18" s="1"/>
       <c r="N18" s="19" t="s">
-        <v>260</v>
+        <v>244</v>
       </c>
       <c r="O18" s="1"/>
       <c r="P18" s="1" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="19" spans="1:16" s="3" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>6</v>
+        <v>198</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>136</v>
+        <v>192</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>7</v>
@@ -2427,279 +2419,279 @@
       <c r="D19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E19" s="1"/>
+      <c r="E19" s="1" t="s">
+        <v>308</v>
+      </c>
       <c r="F19" s="2" t="s">
-        <v>8</v>
+        <v>219</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="I19" s="1"/>
       <c r="J19" s="1">
-        <v>40.673388000000003</v>
+        <v>38.116871199999999</v>
       </c>
       <c r="K19" s="1">
-        <v>-73.970131199999997</v>
+        <v>-122.4026746</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M19" s="1"/>
-      <c r="N19" s="20" t="s">
-        <v>248</v>
-      </c>
-      <c r="O19" s="1"/>
+      <c r="N19" s="17" t="s">
+        <v>257</v>
+      </c>
+      <c r="O19" s="1" t="s">
+        <v>111</v>
+      </c>
       <c r="P19" s="1" t="s">
-        <v>248</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>201</v>
+        <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>195</v>
+        <v>143</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>313</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="E20" s="1"/>
       <c r="F20" s="2" t="s">
-        <v>223</v>
+        <v>27</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="I20" s="1"/>
       <c r="J20" s="1">
-        <v>38.116871199999999</v>
+        <v>40.746928599999997</v>
       </c>
       <c r="K20" s="1">
-        <v>-122.4026746</v>
+        <v>-73.995262100000005</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M20" s="1"/>
-      <c r="N20" s="18" t="s">
-        <v>262</v>
-      </c>
-      <c r="O20" s="1" t="s">
-        <v>113</v>
-      </c>
+      <c r="N20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="O20" s="1"/>
       <c r="P20" s="1" t="s">
-        <v>329</v>
+        <v>261</v>
       </c>
     </row>
     <row r="21" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>146</v>
+        <v>193</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E21" s="1"/>
       <c r="F21" s="2" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I21" s="1"/>
       <c r="J21" s="1">
-        <v>40.746928599999997</v>
+        <v>38.3292827</v>
       </c>
       <c r="K21" s="1">
-        <v>-73.995262100000005</v>
+        <v>-122.7264224</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M21" s="1"/>
       <c r="N21" s="7" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="O21" s="1"/>
       <c r="P21" s="1" t="s">
-        <v>266</v>
+        <v>324</v>
       </c>
     </row>
     <row r="22" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>131</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>196</v>
+        <v>141</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E22" s="1"/>
       <c r="F22" s="2" t="s">
-        <v>230</v>
+        <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I22" s="1"/>
-      <c r="J22" s="1">
-        <v>38.3292827</v>
-      </c>
-      <c r="K22" s="1">
-        <v>-122.7264224</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
       <c r="L22" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M22" s="1"/>
       <c r="N22" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="O22" s="1"/>
       <c r="P22" s="1" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
     </row>
     <row r="23" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E23" s="1"/>
       <c r="F23" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="J23" s="1"/>
-      <c r="K23" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1">
+        <v>40.744409099999999</v>
+      </c>
+      <c r="K23" s="1">
+        <v>-73.989344200000005</v>
+      </c>
       <c r="L23" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M23" s="1"/>
       <c r="N23" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="O23" s="1"/>
       <c r="P23" s="1" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
     </row>
     <row r="24" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E24" s="1"/>
       <c r="F24" s="2" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>208</v>
+        <v>224</v>
       </c>
       <c r="I24" s="1"/>
       <c r="J24" s="1">
-        <v>40.744409099999999</v>
+        <v>40.753600499999997</v>
       </c>
       <c r="K24" s="1">
-        <v>-73.989344200000005</v>
+        <v>-73.985421299999999</v>
       </c>
       <c r="L24" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M24" s="1"/>
       <c r="N24" s="7" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="O24" s="1"/>
       <c r="P24" s="1" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
     </row>
     <row r="25" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E25" s="1"/>
       <c r="F25" s="2" t="s">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="I25" s="1"/>
       <c r="J25" s="1">
-        <v>40.753600499999997</v>
+        <v>40.718848000000001</v>
       </c>
       <c r="K25" s="1">
-        <v>-73.985421299999999</v>
+        <v>-73.951768799999996</v>
       </c>
       <c r="L25" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M25" s="1"/>
       <c r="N25" s="7" t="s">
@@ -2707,349 +2699,349 @@
       </c>
       <c r="O25" s="1"/>
       <c r="P25" s="1" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E26" s="1"/>
       <c r="F26" s="2" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>229</v>
+        <v>205</v>
       </c>
       <c r="I26" s="1"/>
       <c r="J26" s="1">
-        <v>40.718848000000001</v>
+        <v>40.741050899999998</v>
       </c>
       <c r="K26" s="1">
-        <v>-73.951768799999996</v>
+        <v>-73.995106199999995</v>
       </c>
       <c r="L26" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M26" s="1"/>
-      <c r="N26" s="7" t="s">
-        <v>273</v>
+      <c r="N26" s="20" t="s">
+        <v>266</v>
       </c>
       <c r="O26" s="1"/>
       <c r="P26" s="1" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="3" customFormat="1" ht="28" x14ac:dyDescent="0.3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>101</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>151</v>
+        <v>181</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="2" t="s">
-        <v>39</v>
+        <v>102</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I27" s="1"/>
       <c r="J27" s="1">
-        <v>40.741050899999998</v>
+        <v>42.453453099999997</v>
       </c>
       <c r="K27" s="1">
-        <v>-73.995106199999995</v>
+        <v>-76.475691400000002</v>
       </c>
       <c r="L27" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M27" s="1"/>
-      <c r="N27" s="21" t="s">
-        <v>271</v>
+      <c r="N27" s="7" t="s">
+        <v>269</v>
       </c>
       <c r="O27" s="1"/>
       <c r="P27" s="1" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>103</v>
+        <v>19</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>184</v>
+        <v>140</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="2" t="s">
-        <v>104</v>
+        <v>21</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I28" s="1"/>
       <c r="J28" s="1">
-        <v>42.453453099999997</v>
+        <v>40.738852799999997</v>
       </c>
       <c r="K28" s="1">
-        <v>-76.475691400000002</v>
+        <v>-73.991700499999993</v>
       </c>
       <c r="L28" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M28" s="1"/>
-      <c r="N28" s="7" t="s">
-        <v>274</v>
+      <c r="N28" s="21" t="s">
+        <v>258</v>
       </c>
       <c r="O28" s="1"/>
       <c r="P28" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="3" customFormat="1" ht="29" x14ac:dyDescent="0.3">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="2" t="s">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="I29" s="1"/>
       <c r="J29" s="1">
-        <v>40.738852799999997</v>
+        <v>41.103059000000002</v>
       </c>
       <c r="K29" s="1">
-        <v>-73.991700499999993</v>
+        <v>-73.831280699999994</v>
       </c>
       <c r="L29" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M29" s="1"/>
-      <c r="N29" s="22" t="s">
-        <v>263</v>
+      <c r="N29" s="7" t="s">
+        <v>264</v>
       </c>
       <c r="O29" s="1"/>
       <c r="P29" s="1" t="s">
-        <v>263</v>
+        <v>331</v>
       </c>
     </row>
     <row r="30" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E30" s="1"/>
       <c r="F30" s="2" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="I30" s="1"/>
-      <c r="J30" s="1">
-        <v>41.103059000000002</v>
-      </c>
-      <c r="K30" s="1">
-        <v>-73.831280699999994</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="J30" s="1"/>
+      <c r="K30" s="1"/>
       <c r="L30" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M30" s="1"/>
-      <c r="N30" s="7" t="s">
-        <v>269</v>
+      <c r="N30" s="22" t="s">
+        <v>260</v>
       </c>
       <c r="O30" s="1"/>
       <c r="P30" s="1" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
     </row>
     <row r="31" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E31" s="1"/>
       <c r="F31" s="2" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="I31" s="1" t="s">
-        <v>227</v>
-      </c>
-      <c r="J31" s="1"/>
-      <c r="K31" s="1"/>
+        <v>205</v>
+      </c>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1">
+        <v>40.980346699999998</v>
+      </c>
+      <c r="K31" s="1">
+        <v>-74.161793900000006</v>
+      </c>
       <c r="L31" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="23" t="s">
+      <c r="N31" s="7" t="s">
         <v>265</v>
       </c>
       <c r="O31" s="1"/>
       <c r="P31" s="1" t="s">
-        <v>338</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E32" s="1"/>
       <c r="F32" s="2" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I32" s="1"/>
       <c r="J32" s="1">
-        <v>40.980346699999998</v>
+        <v>40.6574034</v>
       </c>
       <c r="K32" s="1">
-        <v>-74.161793900000006</v>
+        <v>-73.964279599999998</v>
       </c>
       <c r="L32" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M32" s="1"/>
       <c r="N32" s="7" t="s">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="O32" s="1"/>
       <c r="P32" s="1" t="s">
-        <v>270</v>
+        <v>333</v>
       </c>
     </row>
     <row r="33" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>22</v>
+        <v>122</v>
       </c>
       <c r="E33" s="1"/>
       <c r="F33" s="2" t="s">
-        <v>31</v>
+        <v>41</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I33" s="1"/>
       <c r="J33" s="1">
-        <v>40.6574034</v>
+        <v>40.722031800000003</v>
       </c>
       <c r="K33" s="1">
-        <v>-73.964279599999998</v>
+        <v>-73.960265699999994</v>
       </c>
       <c r="L33" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M33" s="1"/>
       <c r="N33" s="7" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="O33" s="1"/>
       <c r="P33" s="1" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
     </row>
     <row r="34" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>124</v>
@@ -3059,405 +3051,393 @@
       </c>
       <c r="E34" s="1"/>
       <c r="F34" s="2" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="I34" s="1"/>
       <c r="J34" s="1">
-        <v>40.722031800000003</v>
+        <v>40.703459700000003</v>
       </c>
       <c r="K34" s="1">
-        <v>-73.960265699999994</v>
+        <v>-73.973968299999996</v>
       </c>
       <c r="L34" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M34" s="1"/>
       <c r="N34" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="O34" s="1"/>
       <c r="P34" s="1" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
     </row>
     <row r="35" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="2" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="G35" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>222</v>
+        <v>205</v>
       </c>
       <c r="I35" s="1"/>
       <c r="J35" s="1">
-        <v>40.703459700000003</v>
+        <v>40.5953631</v>
       </c>
       <c r="K35" s="1">
-        <v>-73.973968299999996</v>
+        <v>-73.778727700000005</v>
       </c>
       <c r="L35" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M35" s="1"/>
       <c r="N35" s="7" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="O35" s="1"/>
       <c r="P35" s="1" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
     </row>
     <row r="36" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E36" s="1"/>
       <c r="F36" s="2" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G36" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="I36" s="1"/>
       <c r="J36" s="1">
-        <v>40.5953631</v>
+        <v>42.385263999999999</v>
       </c>
       <c r="K36" s="1">
-        <v>-73.778727700000005</v>
+        <v>-77.029713900000004</v>
       </c>
       <c r="L36" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M36" s="1"/>
       <c r="N36" s="7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="O36" s="1"/>
       <c r="P36" s="1" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
     </row>
     <row r="37" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="I37" s="1"/>
       <c r="J37" s="1">
-        <v>42.385263999999999</v>
+        <v>40.7054817</v>
       </c>
       <c r="K37" s="1">
-        <v>-77.029713900000004</v>
+        <v>-73.940463300000005</v>
       </c>
       <c r="L37" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M37" s="1"/>
       <c r="N37" s="7" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="O37" s="1"/>
       <c r="P37" s="1" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
     </row>
     <row r="38" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="G38" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>231</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="H38" s="1"/>
       <c r="I38" s="1"/>
-      <c r="J38" s="1">
-        <v>40.7054817</v>
-      </c>
-      <c r="K38" s="1">
-        <v>-73.940463300000005</v>
-      </c>
+      <c r="J38" s="1"/>
+      <c r="K38" s="1"/>
       <c r="L38" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M38" s="1"/>
       <c r="N38" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="O38" s="1"/>
       <c r="P38" s="1" t="s">
-        <v>344</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M39" s="1"/>
       <c r="N39" s="7" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="O39" s="1"/>
       <c r="P39" s="1" t="s">
-        <v>282</v>
+        <v>339</v>
       </c>
     </row>
     <row r="40" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="2" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M40" s="1"/>
       <c r="N40" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="O40" s="1"/>
       <c r="P40" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
     </row>
     <row r="41" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E41" s="1"/>
       <c r="F41" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M41" s="1"/>
       <c r="N41" s="7" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="O41" s="1"/>
       <c r="P41" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
     </row>
     <row r="42" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M42" s="1"/>
       <c r="N42" s="7" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
     </row>
     <row r="43" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>56</v>
+        <v>105</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>160</v>
+        <v>183</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>125</v>
+        <v>199</v>
       </c>
       <c r="E43" s="1"/>
-      <c r="F43" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M43" s="1"/>
-      <c r="N43" s="7" t="s">
-        <v>283</v>
-      </c>
+      <c r="N43" s="7"/>
       <c r="O43" s="1"/>
-      <c r="P43" s="1" t="s">
-        <v>348</v>
-      </c>
+      <c r="P43" s="1"/>
     </row>
     <row r="44" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>186</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E44" s="1"/>
       <c r="F44" s="1"/>
       <c r="G44" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M44" s="1"/>
       <c r="N44" s="7"/>
@@ -3466,28 +3446,28 @@
     </row>
     <row r="45" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E45" s="1"/>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M45" s="1"/>
       <c r="N45" s="7"/>
@@ -3496,28 +3476,28 @@
     </row>
     <row r="46" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="C46" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="B46" s="1" t="s">
-        <v>190</v>
-      </c>
-      <c r="C46" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="D46" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M46" s="1"/>
       <c r="N46" s="7"/>
@@ -3526,28 +3506,28 @@
     </row>
     <row r="47" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H47" s="1"/>
       <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M47" s="1"/>
       <c r="N47" s="7"/>
@@ -3556,28 +3536,28 @@
     </row>
     <row r="48" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E48" s="1"/>
       <c r="F48" s="1"/>
       <c r="G48" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M48" s="1"/>
       <c r="N48" s="7"/>
@@ -3586,725 +3566,699 @@
     </row>
     <row r="49" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>198</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>202</v>
+        <v>63</v>
       </c>
       <c r="E49" s="1"/>
-      <c r="F49" s="1"/>
+      <c r="F49" s="2" t="s">
+        <v>64</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M49" s="1"/>
-      <c r="N49" s="7"/>
+      <c r="N49" s="7" t="s">
+        <v>281</v>
+      </c>
       <c r="O49" s="1"/>
-      <c r="P49" s="1"/>
+      <c r="P49" s="1" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="50" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="2" t="s">
         <v>66</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M50" s="1"/>
       <c r="N50" s="7" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="O50" s="1"/>
       <c r="P50" s="1" t="s">
-        <v>349</v>
+        <v>282</v>
       </c>
     </row>
     <row r="51" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E51" s="1"/>
       <c r="F51" s="2" t="s">
-        <v>68</v>
+        <v>96</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H51" s="1"/>
       <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M51" s="1"/>
       <c r="N51" s="7" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="O51" s="1"/>
       <c r="P51" s="1" t="s">
-        <v>287</v>
+        <v>344</v>
       </c>
     </row>
     <row r="52" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>65</v>
+        <v>125</v>
       </c>
       <c r="E52" s="1"/>
       <c r="F52" s="2" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="G52" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M52" s="1"/>
       <c r="N52" s="7" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="O52" s="1"/>
       <c r="P52" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
     </row>
     <row r="53" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>75</v>
+        <v>84</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E53" s="1"/>
       <c r="F53" s="2" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="M53" s="1"/>
       <c r="N53" s="7" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="O53" s="1"/>
       <c r="P53" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
     </row>
     <row r="54" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E54" s="1"/>
       <c r="F54" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H54" s="1"/>
+        <v>209</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="I54" s="1"/>
-      <c r="J54" s="1"/>
-      <c r="K54" s="1"/>
+      <c r="J54" s="1">
+        <v>40.690819900000001</v>
+      </c>
+      <c r="K54" s="1">
+        <v>-74.022680699999995</v>
+      </c>
       <c r="L54" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M54" s="1"/>
+        <v>210</v>
+      </c>
+      <c r="M54" s="1" t="s">
+        <v>234</v>
+      </c>
       <c r="N54" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="O54" s="1"/>
       <c r="P54" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
     </row>
     <row r="55" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>173</v>
+        <v>189</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E55" s="1"/>
       <c r="F55" s="2" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="I55" s="1"/>
       <c r="J55" s="1">
-        <v>40.690819900000001</v>
+        <v>40.687550000000002</v>
       </c>
       <c r="K55" s="1">
-        <v>-74.022680699999995</v>
+        <v>-73.962578699999995</v>
       </c>
       <c r="L55" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M55" s="1" t="s">
-        <v>238</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M55" s="1"/>
       <c r="N55" s="7" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="O55" s="1"/>
       <c r="P55" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
     </row>
     <row r="56" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>75</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>192</v>
+        <v>167</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E56" s="1"/>
       <c r="F56" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>239</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="G56" s="1"/>
+      <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-      <c r="J56" s="1">
-        <v>40.687550000000002</v>
-      </c>
-      <c r="K56" s="1">
-        <v>-73.962578699999995</v>
-      </c>
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
       <c r="L56" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="M56" s="1"/>
       <c r="N56" s="7" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="O56" s="1"/>
       <c r="P56" s="1" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
     </row>
     <row r="57" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>77</v>
+        <v>229</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E57" s="1"/>
       <c r="F57" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="1"/>
-      <c r="H57" s="1"/>
+        <v>77</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>230</v>
+      </c>
       <c r="I57" s="1"/>
-      <c r="J57" s="1"/>
-      <c r="K57" s="1"/>
+      <c r="J57" s="1">
+        <v>40.689577</v>
+      </c>
+      <c r="K57" s="1">
+        <v>-74.023066</v>
+      </c>
       <c r="L57" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="M57" s="1"/>
       <c r="N57" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="O57" s="1"/>
+        <v>287</v>
+      </c>
+      <c r="O57" s="1" t="s">
+        <v>231</v>
+      </c>
       <c r="P57" s="1" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
     </row>
     <row r="58" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>171</v>
+        <v>190</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E58" s="1"/>
       <c r="F58" s="2" t="s">
-        <v>79</v>
+        <v>201</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>234</v>
+        <v>199</v>
       </c>
       <c r="I58" s="1"/>
-      <c r="J58" s="1">
-        <v>40.689577</v>
-      </c>
-      <c r="K58" s="1">
-        <v>-74.023066</v>
-      </c>
+      <c r="J58" s="1"/>
+      <c r="K58" s="1"/>
       <c r="L58" s="1" t="s">
-        <v>214</v>
+        <v>228</v>
       </c>
       <c r="M58" s="1"/>
       <c r="N58" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="O58" s="1" t="s">
-        <v>235</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="O58" s="1"/>
       <c r="P58" s="1" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
     </row>
     <row r="59" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>205</v>
+        <v>78</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E59" s="1"/>
       <c r="F59" s="2" t="s">
-        <v>204</v>
+        <v>79</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H59" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="I59" s="1"/>
+        <v>232</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>233</v>
+      </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1" t="s">
-        <v>232</v>
+        <v>210</v>
       </c>
       <c r="M59" s="1"/>
       <c r="N59" s="7" t="s">
-        <v>296</v>
+        <v>288</v>
       </c>
       <c r="O59" s="1"/>
       <c r="P59" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
     </row>
     <row r="60" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>172</v>
+        <v>165</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>128</v>
+        <v>236</v>
       </c>
       <c r="E60" s="1"/>
       <c r="F60" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H60" s="1" t="s">
-        <v>236</v>
-      </c>
-      <c r="I60" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="I60" s="1"/>
+      <c r="J60" s="1">
+        <v>40.799954399999997</v>
+      </c>
+      <c r="K60" s="1">
+        <v>-73.9414886</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="M60" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="J60" s="1"/>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M60" s="1"/>
       <c r="N60" s="7" t="s">
         <v>293</v>
       </c>
       <c r="O60" s="1"/>
       <c r="P60" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>73</v>
+        <v>108</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>168</v>
+        <v>191</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="2" t="s">
-        <v>74</v>
+        <v>109</v>
       </c>
       <c r="G61" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H61" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I61" s="1"/>
       <c r="J61" s="1">
-        <v>40.799954399999997</v>
+        <v>40.807497300000001</v>
       </c>
       <c r="K61" s="1">
-        <v>-73.9414886</v>
+        <v>-73.946339100000003</v>
       </c>
       <c r="L61" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M61" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="N61" s="7" t="s">
-        <v>298</v>
+        <v>110</v>
       </c>
       <c r="O61" s="1"/>
       <c r="P61" s="1" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
     </row>
     <row r="62" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>194</v>
+        <v>175</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="2" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H62" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1">
-        <v>40.807497300000001</v>
+        <v>-33.9222082</v>
       </c>
       <c r="K62" s="1">
-        <v>-73.946339100000003</v>
+        <v>18.4198153</v>
       </c>
       <c r="L62" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="M62" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="N62" s="7" t="s">
-        <v>112</v>
+        <v>294</v>
       </c>
       <c r="O62" s="1"/>
       <c r="P62" s="1" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
     </row>
     <row r="63" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E63" s="1"/>
       <c r="F63" s="2" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I63" s="1"/>
       <c r="J63" s="1">
-        <v>-33.9222082</v>
+        <v>40.810788700000003</v>
       </c>
       <c r="K63" s="1">
-        <v>18.4198153</v>
+        <v>-73.965878000000004</v>
       </c>
       <c r="L63" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="M63" s="1" t="s">
-        <v>242</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="M63" s="1"/>
       <c r="N63" s="7" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
       <c r="O63" s="1"/>
       <c r="P63" s="1" t="s">
-        <v>361</v>
-      </c>
-    </row>
-    <row r="64" spans="1:16" s="3" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="64" spans="1:16" ht="17" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>240</v>
+        <v>127</v>
       </c>
       <c r="E64" s="1"/>
       <c r="F64" s="2" t="s">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="H64" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="I64" s="1"/>
-      <c r="J64" s="1">
-        <v>40.810788700000003</v>
-      </c>
-      <c r="K64" s="1">
-        <v>-73.965878000000004</v>
-      </c>
+      <c r="J64" s="1"/>
+      <c r="K64" s="1"/>
       <c r="L64" s="1" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="M64" s="1"/>
       <c r="N64" s="7" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="O64" s="1"/>
       <c r="P64" s="1" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="65" spans="1:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="B65" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="D65" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>357</v>
+      </c>
+    </row>
+    <row r="65" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E65" s="1"/>
-      <c r="F65" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>213</v>
-      </c>
-      <c r="H65" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="I65" s="1"/>
-      <c r="J65" s="1"/>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="M65" s="1"/>
-      <c r="N65" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="O65" s="1"/>
-      <c r="P65" s="1" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="66" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+      <c r="P65" s="1"/>
+    </row>
+    <row r="66" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E66" s="1"/>
       <c r="P66" s="1"/>
     </row>
-    <row r="67" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="67" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E67" s="1"/>
       <c r="P67" s="1"/>
     </row>
-    <row r="68" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="68" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E68" s="1"/>
       <c r="P68" s="1"/>
     </row>
-    <row r="69" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="69" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E69" s="1"/>
       <c r="P69" s="1"/>
     </row>
-    <row r="70" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="70" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E70" s="1"/>
       <c r="P70" s="1"/>
     </row>
-    <row r="71" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="71" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E71" s="1"/>
       <c r="P71" s="1"/>
     </row>
-    <row r="72" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="72" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E72" s="1"/>
       <c r="P72" s="1"/>
     </row>
-    <row r="73" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="73" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E73" s="1"/>
       <c r="P73" s="1"/>
     </row>
-    <row r="74" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="74" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E74" s="1"/>
       <c r="P74" s="1"/>
     </row>
-    <row r="75" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="75" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E75" s="1"/>
       <c r="P75" s="1"/>
     </row>
-    <row r="76" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="76" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E76" s="1"/>
       <c r="P76" s="1"/>
     </row>
-    <row r="77" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="77" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E77" s="1"/>
       <c r="P77" s="1"/>
     </row>
-    <row r="78" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="78" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E78" s="1"/>
       <c r="P78" s="1"/>
     </row>
-    <row r="79" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="79" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E79" s="1"/>
       <c r="P79" s="1"/>
     </row>
-    <row r="80" spans="1:16" ht="17" x14ac:dyDescent="0.2">
+    <row r="80" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E80" s="1"/>
       <c r="P80" s="1"/>
     </row>
@@ -7943,10 +7897,6 @@
     <row r="989" spans="5:16" ht="17" x14ac:dyDescent="0.2">
       <c r="E989" s="1"/>
       <c r="P989" s="1"/>
-    </row>
-    <row r="990" spans="5:16" ht="17" x14ac:dyDescent="0.2">
-      <c r="E990" s="1"/>
-      <c r="P990" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:O1">
@@ -7967,61 +7917,60 @@
     <hyperlink ref="F2" r:id="rId2"/>
     <hyperlink ref="F5" r:id="rId3"/>
     <hyperlink ref="F4" r:id="rId4"/>
-    <hyperlink ref="F19" r:id="rId5"/>
+    <hyperlink ref="F18" r:id="rId5"/>
     <hyperlink ref="F9" r:id="rId6"/>
     <hyperlink ref="F10" r:id="rId7"/>
-    <hyperlink ref="F11" r:id="rId8"/>
-    <hyperlink ref="F15" r:id="rId9"/>
-    <hyperlink ref="F6" r:id="rId10"/>
-    <hyperlink ref="F7" r:id="rId11"/>
-    <hyperlink ref="F12" r:id="rId12"/>
-    <hyperlink ref="F8" r:id="rId13"/>
+    <hyperlink ref="F14" r:id="rId8"/>
+    <hyperlink ref="F6" r:id="rId9"/>
+    <hyperlink ref="F7" r:id="rId10"/>
+    <hyperlink ref="F11" r:id="rId11"/>
+    <hyperlink ref="F8" r:id="rId12"/>
+    <hyperlink ref="F15" r:id="rId13"/>
     <hyperlink ref="F16" r:id="rId14"/>
-    <hyperlink ref="F17" r:id="rId15"/>
-    <hyperlink ref="F14" r:id="rId16"/>
-    <hyperlink ref="F18" r:id="rId17"/>
-    <hyperlink ref="F13" r:id="rId18"/>
-    <hyperlink ref="F20" r:id="rId19"/>
-    <hyperlink ref="F29" r:id="rId20"/>
-    <hyperlink ref="F23" r:id="rId21"/>
-    <hyperlink ref="F31" r:id="rId22"/>
-    <hyperlink ref="F21" r:id="rId23"/>
-    <hyperlink ref="F33" r:id="rId24"/>
-    <hyperlink ref="F25" r:id="rId25"/>
-    <hyperlink ref="F30" r:id="rId26"/>
-    <hyperlink ref="F32" r:id="rId27"/>
-    <hyperlink ref="F27" r:id="rId28"/>
-    <hyperlink ref="F24" r:id="rId29"/>
-    <hyperlink ref="F26" r:id="rId30"/>
-    <hyperlink ref="F28" r:id="rId31"/>
-    <hyperlink ref="F22" r:id="rId32"/>
-    <hyperlink ref="F34" r:id="rId33"/>
-    <hyperlink ref="F36" r:id="rId34"/>
-    <hyperlink ref="F38" r:id="rId35"/>
-    <hyperlink ref="F37" r:id="rId36"/>
-    <hyperlink ref="F35" r:id="rId37"/>
-    <hyperlink ref="F40" r:id="rId38"/>
-    <hyperlink ref="F39" r:id="rId39"/>
-    <hyperlink ref="F43" r:id="rId40"/>
-    <hyperlink ref="F42" r:id="rId41"/>
-    <hyperlink ref="F41" r:id="rId42"/>
+    <hyperlink ref="F13" r:id="rId15"/>
+    <hyperlink ref="F17" r:id="rId16"/>
+    <hyperlink ref="F12" r:id="rId17"/>
+    <hyperlink ref="F19" r:id="rId18"/>
+    <hyperlink ref="F28" r:id="rId19"/>
+    <hyperlink ref="F22" r:id="rId20"/>
+    <hyperlink ref="F30" r:id="rId21"/>
+    <hyperlink ref="F20" r:id="rId22"/>
+    <hyperlink ref="F32" r:id="rId23"/>
+    <hyperlink ref="F24" r:id="rId24"/>
+    <hyperlink ref="F29" r:id="rId25"/>
+    <hyperlink ref="F31" r:id="rId26"/>
+    <hyperlink ref="F26" r:id="rId27"/>
+    <hyperlink ref="F23" r:id="rId28"/>
+    <hyperlink ref="F25" r:id="rId29"/>
+    <hyperlink ref="F27" r:id="rId30"/>
+    <hyperlink ref="F21" r:id="rId31"/>
+    <hyperlink ref="F33" r:id="rId32"/>
+    <hyperlink ref="F35" r:id="rId33"/>
+    <hyperlink ref="F37" r:id="rId34"/>
+    <hyperlink ref="F36" r:id="rId35"/>
+    <hyperlink ref="F34" r:id="rId36"/>
+    <hyperlink ref="F39" r:id="rId37"/>
+    <hyperlink ref="F38" r:id="rId38"/>
+    <hyperlink ref="F42" r:id="rId39"/>
+    <hyperlink ref="F41" r:id="rId40"/>
+    <hyperlink ref="F40" r:id="rId41"/>
+    <hyperlink ref="F49" r:id="rId42"/>
     <hyperlink ref="F50" r:id="rId43"/>
     <hyperlink ref="F51" r:id="rId44"/>
     <hyperlink ref="F52" r:id="rId45"/>
     <hyperlink ref="F53" r:id="rId46"/>
-    <hyperlink ref="F54" r:id="rId47"/>
+    <hyperlink ref="F56" r:id="rId47"/>
     <hyperlink ref="F57" r:id="rId48"/>
-    <hyperlink ref="F58" r:id="rId49"/>
-    <hyperlink ref="F60" r:id="rId50"/>
+    <hyperlink ref="F59" r:id="rId49"/>
+    <hyperlink ref="F54" r:id="rId50"/>
     <hyperlink ref="F55" r:id="rId51"/>
-    <hyperlink ref="F56" r:id="rId52"/>
-    <hyperlink ref="F59" r:id="rId53"/>
-    <hyperlink ref="F64" r:id="rId54"/>
-    <hyperlink ref="F61" r:id="rId55"/>
-    <hyperlink ref="F63" r:id="rId56"/>
-    <hyperlink ref="F62" r:id="rId57"/>
-    <hyperlink ref="F65" r:id="rId58"/>
-    <hyperlink ref="N10" r:id="rId59"/>
+    <hyperlink ref="F58" r:id="rId52"/>
+    <hyperlink ref="F63" r:id="rId53"/>
+    <hyperlink ref="F60" r:id="rId54"/>
+    <hyperlink ref="F62" r:id="rId55"/>
+    <hyperlink ref="F61" r:id="rId56"/>
+    <hyperlink ref="F64" r:id="rId57"/>
+    <hyperlink ref="N10" r:id="rId58"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>

--- a/app/data/src/projectlist.xlsx
+++ b/app/data/src/projectlist.xlsx
@@ -1616,9 +1616,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P989"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
+      <selection pane="bottomLeft" activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="69" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1626,7 +1626,8 @@
     <col min="1" max="1" width="53" style="4" customWidth="1"/>
     <col min="2" max="2" width="15.1640625" style="4" customWidth="1"/>
     <col min="3" max="3" width="28.33203125" style="4" customWidth="1"/>
-    <col min="4" max="5" width="23.5" style="4" customWidth="1"/>
+    <col min="4" max="4" width="23.5" style="4" customWidth="1"/>
+    <col min="5" max="5" width="34.1640625" style="4" customWidth="1"/>
     <col min="6" max="6" width="47.83203125" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.1640625" style="6" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" style="5" customWidth="1"/>
